--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentProject\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E77BB8-83AE-4D9E-AE68-F0A753B357AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C7A848-298E-4599-A931-0C9780C33E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,88 +22,99 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$N$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>Opportunities Monitor</t>
   </si>
   <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>Realizable Asset Value</t>
+  </si>
+  <si>
     <t>Security Code</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Excess Return</t>
+  </si>
+  <si>
+    <t>FCF Value</t>
+  </si>
+  <si>
+    <t>Ideal Price</t>
+  </si>
+  <si>
+    <t>Realizable VPS</t>
+  </si>
+  <si>
+    <t>Non-op. Assets</t>
+  </si>
+  <si>
+    <t>LFY Dividend</t>
+  </si>
+  <si>
+    <t>LFY Dividend Yield</t>
+  </si>
+  <si>
+    <t>Next Result Date</t>
+  </si>
+  <si>
+    <t>0806.HK</t>
+  </si>
+  <si>
+    <t>VALUE PARTNERS</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>1475.HK</t>
+  </si>
+  <si>
+    <t>NISSIN FOODS</t>
+  </si>
+  <si>
+    <t>1766.HK</t>
+  </si>
+  <si>
+    <t>CRRC</t>
+  </si>
+  <si>
+    <t>Current Holdings Monitor</t>
+  </si>
+  <si>
+    <t>last update date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Protfolio at Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Protfolio at FV = </t>
+  </si>
+  <si>
     <t>Listing Location</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>IRR</t>
-  </si>
-  <si>
-    <t>Risk Premium</t>
-  </si>
-  <si>
-    <t>Pure Return</t>
-  </si>
-  <si>
-    <t>F. Dividend</t>
-  </si>
-  <si>
-    <t>Dividend Yield</t>
-  </si>
-  <si>
-    <t>Ideal Price</t>
-  </si>
-  <si>
-    <t>Next Result Date</t>
-  </si>
-  <si>
-    <t>Invest. Horizon</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>0806.HK</t>
-  </si>
-  <si>
-    <t>VALUE PARTNERS</t>
-  </si>
-  <si>
-    <t>HKG</t>
-  </si>
-  <si>
-    <t>Current Holdings Monitor</t>
-  </si>
-  <si>
-    <t>last update date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Protfolio at Cost = </t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Protfolio at FV = </t>
-  </si>
-  <si>
     <t>Price Currency</t>
   </si>
   <si>
@@ -122,34 +133,58 @@
     <t>Mark to Market</t>
   </si>
   <si>
+    <t>Economic performance:</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Nominal Default-free rate  (use 10Y Treasury yield if available) =</t>
+  </si>
+  <si>
+    <t>- Expected core inflation rate (use 10Y TIPS if available) =</t>
+  </si>
+  <si>
     <t>Discount rate:</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Nominal Default-free rate  (use 10Y Treasury yield if available) =</t>
-  </si>
-  <si>
-    <t>- Expected core inflation rate (use 10Y TIPS if available) =</t>
-  </si>
-  <si>
-    <t>⇒ Real risk-free rate</t>
-  </si>
-  <si>
-    <t>+ Emerging Market Premium</t>
-  </si>
-  <si>
-    <t>+ Long-run ERP</t>
+    <t>⇒ Real risk-free rate +</t>
   </si>
   <si>
     <t>+ Interest Rate Risk Premium</t>
   </si>
   <si>
-    <t>⇒ Adjusted Discount rate</t>
+    <t>+ Long-term ERP</t>
+  </si>
+  <si>
+    <t>+ Country Risk Premium</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Market Discount rate (Min. 6%)</t>
+    </r>
+  </si>
+  <si>
+    <t>Required Margin of Safety:</t>
   </si>
   <si>
     <t>Current Environment Assessment</t>
@@ -170,6 +205,9 @@
     <t>Cold - Negative</t>
   </si>
   <si>
+    <t>Hot - Positive</t>
+  </si>
+  <si>
     <t>3. Lenders:</t>
   </si>
   <si>
@@ -182,6 +220,9 @@
     <t>Cold - Rising</t>
   </si>
   <si>
+    <t>Mixed</t>
+  </si>
+  <si>
     <t>Macro Sentiment</t>
   </si>
   <si>
@@ -218,6 +259,9 @@
     <t>Cold - Rushing for the exits</t>
   </si>
   <si>
+    <t>Hot - Happy to hold</t>
+  </si>
+  <si>
     <t>15. Asset prices:</t>
   </si>
   <si>
@@ -245,6 +289,9 @@
     <t>Cold - "Worse is yet to come"</t>
   </si>
   <si>
+    <t>Mixed - "Market has bottomed"</t>
+  </si>
+  <si>
     <t>13. Funds:</t>
   </si>
   <si>
@@ -254,13 +301,13 @@
     <t>14. Recent performance/Prospective returns:</t>
   </si>
   <si>
-    <t>Cold - Weak</t>
+    <t>Hot - Strong</t>
   </si>
   <si>
     <t>16. Popular qualities:</t>
   </si>
   <si>
-    <t>Cold - "It's uninvestable"</t>
+    <t>Cold - Caution and discipline</t>
   </si>
   <si>
     <t>Capital market Sentiment</t>
@@ -312,7 +359,7 @@
     <t>1. Central bank behavior</t>
   </si>
   <si>
-    <t>Hot - Stimulative</t>
+    <t>Cold - Tightening</t>
   </si>
   <si>
     <t>2. Inflation</t>
@@ -342,6 +389,36 @@
       <t>Interest rate risk premium</t>
     </r>
   </si>
+  <si>
+    <t>PART III: Country Risk Assessment</t>
+  </si>
+  <si>
+    <t># To-do with insights from "Big Debt Cycle"</t>
+  </si>
+  <si>
+    <t>0683.HK</t>
+  </si>
+  <si>
+    <t>KERRY PPT</t>
+  </si>
+  <si>
+    <t>0697.HK</t>
+  </si>
+  <si>
+    <t>SHOUCHENG</t>
+  </si>
+  <si>
+    <t>3718.HK</t>
+  </si>
+  <si>
+    <t>BJ ENT URBAN</t>
+  </si>
+  <si>
+    <t>6601.HK</t>
+  </si>
+  <si>
+    <t>CHEERWIN GP</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +524,48 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -481,12 +600,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -632,21 +751,6 @@
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -671,43 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="dotted">
         <color indexed="64"/>
@@ -718,12 +785,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -791,9 +930,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,9 +937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -814,34 +947,64 @@
     <xf numFmtId="10" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,10 +1020,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,6 +1032,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
     </mruColors>
   </colors>
@@ -1186,16 +1348,18 @@
   <dimension ref="A2:N200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H4" sqref="H4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7265625" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1206,7 +1370,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1216,2828 +1380,3191 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="G3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="61"/>
+    </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.9500000476837158</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.42253801692819037</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.3092203850174395</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.0268895213531741</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.7702793119682247</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2.2564285815863668E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <f>L5/E5</f>
+        <v>1.1571428340561522E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20.299999237060547</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5.346031159857878E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>17.28</v>
+      </c>
+      <c r="I6" s="7">
+        <v>22.398295553313996</v>
+      </c>
+      <c r="J6" s="7">
+        <v>17.277299528915517</v>
+      </c>
+      <c r="K6" s="7">
+        <v>11.126522268897112</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.18044612779858099</v>
+      </c>
+      <c r="M6" s="6">
+        <f>L6/E6</f>
+        <v>8.8889721468142138E-3</v>
+      </c>
+      <c r="N6" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-2.2426662111525358E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.81943800764118024</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.25787827777777772</v>
+      </c>
+      <c r="K7" s="7">
+        <v>-0.83898872222222232</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f>L7/E7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.5299999713897705</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-2.8146013797592767E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4.4299945978942814</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-1.6019094395779059</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.37662869571620239</v>
+      </c>
+      <c r="L8" s="7">
+        <v>5.8859502535343992E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <f>L8/E8</f>
+        <v>1.6674080173482507E-2</v>
+      </c>
+      <c r="N8" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-9.9352611754038977E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6.6132074244799117</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2.1174828448622742</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.58081422239133174</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.1312132530016938E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <f>L9/E9</f>
+        <v>3.1573529674099165E-3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.8500000238418579</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-0.17378017198185955</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.5967617256954514</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.99321313750260498</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.80073462877430834</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5.1999448636033382E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <f>L10/E10</f>
+        <v>2.8107809711292422E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7">
-        <v>3.02</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.1754099224177379</v>
-      </c>
-      <c r="G5" s="6">
-        <v>7.4305508716723256E-2</v>
-      </c>
-      <c r="H5" s="6">
-        <f>F5-G5</f>
-        <v>0.10110441370101464</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.34528085710129486</v>
-      </c>
-      <c r="J5" s="6">
-        <f>I5/E5</f>
-        <v>0.11433140963619035</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.2400000095367432</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-0.2020017387979246</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.5933934417545887</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.9610728132121873</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.6852915476651109</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.10656816545832766</v>
+      </c>
+      <c r="M11" s="6">
+        <f>L11/E11</f>
+        <v>3.2891408995262571E-2</v>
+      </c>
+      <c r="N11" s="8">
         <v>45001</v>
       </c>
-      <c r="M5" s="8">
-        <v>3</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L20" s="7"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L23" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L29" s="7"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L30" s="7"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L31" s="7"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L32" s="7"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L33" s="7"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L34" s="7"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L35" s="7"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L36" s="7"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L37" s="7"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L38" s="7"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L39" s="7"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L40" s="7"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L41" s="7"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L42" s="7"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L43" s="7"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L44" s="7"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L45" s="7"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L46" s="7"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L47" s="7"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L48" s="7"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L49" s="7"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L50" s="7"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L51" s="7"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="6"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L52" s="7"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="6"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L53" s="7"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="6"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L54" s="7"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L55" s="7"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L56" s="7"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L57" s="7"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="7"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L58" s="7"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L59" s="7"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="6"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L60" s="7"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="6"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L61" s="7"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="6"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L62" s="7"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L63" s="7"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="6"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L64" s="7"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L65" s="7"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="6"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L66" s="7"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L67" s="7"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="6"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L68" s="7"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L69" s="7"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="6"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L70" s="7"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L71" s="7"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L72" s="7"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L73" s="7"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L74" s="7"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="7"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L75" s="7"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="7"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="6"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L76" s="7"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L77" s="7"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L78" s="7"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="7"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L79" s="7"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="7"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L80" s="7"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="7"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="7"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L81" s="7"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="7"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L82" s="7"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="7"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="7"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L83" s="7"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="6"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L84" s="7"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="7"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L85" s="7"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="7"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="6"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="7"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L86" s="7"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="7"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L87" s="7"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="7"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="6"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L88" s="7"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="7"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="7"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L89" s="7"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="7"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L90" s="7"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="7"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="7"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L91" s="7"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="7"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
       <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L92" s="7"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="7"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
       <c r="K93" s="7"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L93" s="7"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="7"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="7"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L94" s="7"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="7"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
       <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L95" s="7"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="7"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="7"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L96" s="7"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="7"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="7"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L97" s="7"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="6"/>
+      <c r="F98" s="7"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L98" s="7"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="8"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="6"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="7"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L99" s="7"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="6"/>
+      <c r="F100" s="7"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="6"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="7"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L100" s="7"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="7"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="6"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
       <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L101" s="7"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="8"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="7"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L102" s="7"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="8"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
       <c r="K103" s="7"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L103" s="7"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="8"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="7"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L104" s="7"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="8"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="7"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
       <c r="K105" s="7"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L105" s="7"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="6"/>
+      <c r="F106" s="7"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
       <c r="K106" s="7"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L106" s="7"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="8"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="7"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L107" s="7"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="8"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="7"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="6"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L108" s="7"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="7"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="6"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
       <c r="K109" s="7"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L109" s="7"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="8"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="7"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
       <c r="K110" s="7"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L110" s="7"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="6"/>
+      <c r="F111" s="7"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="6"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
       <c r="K111" s="7"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L111" s="7"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="8"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="7"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="6"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
       <c r="K112" s="7"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L112" s="7"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="8"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="7"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="6"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
       <c r="K113" s="7"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L113" s="7"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="8"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="6"/>
+      <c r="F114" s="7"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
       <c r="K114" s="7"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L114" s="7"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="8"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="7"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="7"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="6"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
       <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L115" s="7"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="8"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="6"/>
+      <c r="F116" s="7"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="6"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
       <c r="K116" s="7"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L116" s="7"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="8"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="7"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="6"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
       <c r="K117" s="7"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L117" s="7"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="7"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="6"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
       <c r="K118" s="7"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L118" s="7"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="8"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="6"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="6"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
       <c r="K119" s="7"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L119" s="7"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="8"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="6"/>
+      <c r="F120" s="7"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="6"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
       <c r="K120" s="7"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L120" s="7"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="8"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="7"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="6"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
       <c r="K121" s="7"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L121" s="7"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="8"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="7"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="6"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
       <c r="K122" s="7"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L122" s="7"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="8"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="6"/>
+      <c r="F123" s="7"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="6"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L123" s="7"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="8"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="7"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="6"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
       <c r="K124" s="7"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L124" s="7"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="8"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="7"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="6"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
       <c r="K125" s="7"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L125" s="7"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="8"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="6"/>
+      <c r="F126" s="7"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="6"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
       <c r="K126" s="7"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L126" s="7"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="8"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="7"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="6"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L127" s="7"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="8"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="7"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="6"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
       <c r="K128" s="7"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L128" s="7"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="8"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
-      <c r="F129" s="6"/>
+      <c r="F129" s="7"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="6"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
       <c r="K129" s="7"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L129" s="7"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="8"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="6"/>
+      <c r="F130" s="7"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="6"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
       <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L130" s="7"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="8"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="6"/>
+      <c r="F131" s="7"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="6"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
       <c r="K131" s="7"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L131" s="7"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="8"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="7"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="6"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
       <c r="K132" s="7"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L132" s="7"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="8"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="7"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="6"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
       <c r="K133" s="7"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L133" s="7"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="8"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="7"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="6"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
       <c r="K134" s="7"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L134" s="7"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="8"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="7"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="6"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
       <c r="K135" s="7"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L135" s="7"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="8"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="7"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="7"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="6"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
       <c r="K136" s="7"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L136" s="7"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="8"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="7"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="7"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="6"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
       <c r="K137" s="7"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L137" s="7"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="8"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="7"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="6"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
       <c r="K138" s="7"/>
-      <c r="L138" s="8"/>
-      <c r="M138" s="8"/>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L138" s="7"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="8"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="7"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="7"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="6"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
       <c r="K139" s="7"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L139" s="7"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="8"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="7"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="7"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="6"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
       <c r="K140" s="7"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L140" s="7"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="8"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="7"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="7"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="6"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
       <c r="K141" s="7"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L141" s="7"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="8"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="7"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="7"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="6"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
       <c r="K142" s="7"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L142" s="7"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="8"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="7"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="6"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
       <c r="K143" s="7"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L143" s="7"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="8"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="7"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="6"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L144" s="7"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="8"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="7"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="7"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="6"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
       <c r="K145" s="7"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L145" s="7"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="7"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="7"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="6"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
       <c r="K146" s="7"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L146" s="7"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="7"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="6"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
       <c r="K147" s="7"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L147" s="7"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="7"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="7"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="6"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
       <c r="K148" s="7"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L148" s="7"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="7"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="6"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
       <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L149" s="7"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="7"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="7"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="6"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
       <c r="K150" s="7"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L150" s="7"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="7"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="6"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
       <c r="K151" s="7"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L151" s="7"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="8"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="7"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="7"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="6"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
       <c r="K152" s="7"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L152" s="7"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="8"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="7"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="7"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="6"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
       <c r="K153" s="7"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L153" s="7"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="7"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="6"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
       <c r="K154" s="7"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L154" s="7"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="8"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="7"/>
-      <c r="F155" s="6"/>
+      <c r="F155" s="7"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="6"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
       <c r="K155" s="7"/>
-      <c r="L155" s="8"/>
-      <c r="M155" s="8"/>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L155" s="7"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="8"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="7"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="7"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="6"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
       <c r="K156" s="7"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L156" s="7"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="8"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="7"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="7"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="6"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
       <c r="K157" s="7"/>
-      <c r="L157" s="8"/>
-      <c r="M157" s="8"/>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L157" s="7"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="8"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="7"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="7"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="6"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
       <c r="K158" s="7"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="8"/>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L158" s="7"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="8"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="7"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="6"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
       <c r="K159" s="7"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L159" s="7"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="8"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="7"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="7"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="6"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
       <c r="K160" s="7"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="8"/>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L160" s="7"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="8"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="7"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="7"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="6"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
       <c r="K161" s="7"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L161" s="7"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="8"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="7"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="6"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
       <c r="K162" s="7"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L162" s="7"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="8"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="7"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="6"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
       <c r="K163" s="7"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-    </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L163" s="7"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="8"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="7"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="6"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
       <c r="K164" s="7"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L164" s="7"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="8"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="7"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="6"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
       <c r="K165" s="7"/>
-      <c r="L165" s="8"/>
-      <c r="M165" s="8"/>
-    </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L165" s="7"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="8"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="7"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="6"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
       <c r="K166" s="7"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="8"/>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L166" s="7"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="8"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="7"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="7"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="6"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
       <c r="K167" s="7"/>
-      <c r="L167" s="8"/>
-      <c r="M167" s="8"/>
-    </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L167" s="7"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="8"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="7"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="6"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
       <c r="K168" s="7"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="8"/>
-    </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L168" s="7"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="8"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="7"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="7"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="6"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
       <c r="K169" s="7"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="8"/>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L169" s="7"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="8"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="7"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="7"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="6"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
       <c r="K170" s="7"/>
-      <c r="L170" s="8"/>
-      <c r="M170" s="8"/>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L170" s="7"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="8"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="7"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="6"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
       <c r="K171" s="7"/>
-      <c r="L171" s="8"/>
-      <c r="M171" s="8"/>
-    </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L171" s="7"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="8"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="7"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="7"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="6"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
       <c r="K172" s="7"/>
-      <c r="L172" s="8"/>
-      <c r="M172" s="8"/>
-    </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L172" s="7"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="8"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="7"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="7"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="6"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
       <c r="K173" s="7"/>
-      <c r="L173" s="8"/>
-      <c r="M173" s="8"/>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L173" s="7"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="8"/>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="7"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="7"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="6"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
       <c r="K174" s="7"/>
-      <c r="L174" s="8"/>
-      <c r="M174" s="8"/>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L174" s="7"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="8"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="7"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="6"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L175" s="7"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="8"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="7"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="7"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="6"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
       <c r="K176" s="7"/>
-      <c r="L176" s="8"/>
-      <c r="M176" s="8"/>
-    </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L176" s="7"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="8"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="7"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="6"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
       <c r="K177" s="7"/>
-      <c r="L177" s="8"/>
-      <c r="M177" s="8"/>
-    </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L177" s="7"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="8"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="7"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="7"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="6"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="8"/>
-    </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L178" s="7"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="8"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="7"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="7"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="6"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="8"/>
-      <c r="M179" s="8"/>
-    </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L179" s="7"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="8"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="7"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="6"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="8"/>
-      <c r="M180" s="8"/>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L180" s="7"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="8"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="7"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="7"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="6"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
       <c r="K181" s="7"/>
-      <c r="L181" s="8"/>
-      <c r="M181" s="8"/>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L181" s="7"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="8"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="7"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="7"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="6"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
       <c r="K182" s="7"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="8"/>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L182" s="7"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="8"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="7"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="7"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="6"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
       <c r="K183" s="7"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="8"/>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L183" s="7"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="8"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="7"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="6"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
       <c r="K184" s="7"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-    </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L184" s="7"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="8"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="7"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="7"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="6"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
       <c r="K185" s="7"/>
-      <c r="L185" s="8"/>
-      <c r="M185" s="8"/>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L185" s="7"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="8"/>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="7"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="7"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="6"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
       <c r="K186" s="7"/>
-      <c r="L186" s="8"/>
-      <c r="M186" s="8"/>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L186" s="7"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="8"/>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="7"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="7"/>
       <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="6"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
       <c r="K187" s="7"/>
-      <c r="L187" s="8"/>
-      <c r="M187" s="8"/>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L187" s="7"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="8"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="7"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="7"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="6"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
       <c r="K188" s="7"/>
-      <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L188" s="7"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="8"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="7"/>
       <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="6"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
       <c r="K189" s="7"/>
-      <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
-    </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L189" s="7"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="8"/>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="7"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="7"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="6"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
       <c r="K190" s="7"/>
-      <c r="L190" s="8"/>
-      <c r="M190" s="8"/>
-    </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L190" s="7"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="8"/>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="7"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="7"/>
       <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="6"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
       <c r="K191" s="7"/>
-      <c r="L191" s="8"/>
-      <c r="M191" s="8"/>
-    </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L191" s="7"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="8"/>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="7"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="7"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="6"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
       <c r="K192" s="7"/>
-      <c r="L192" s="8"/>
-      <c r="M192" s="8"/>
-    </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L192" s="7"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="8"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="7"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="7"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="6"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
       <c r="K193" s="7"/>
-      <c r="L193" s="8"/>
-      <c r="M193" s="8"/>
-    </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L193" s="7"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="8"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="7"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="7"/>
       <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="6"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
       <c r="K194" s="7"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
-    </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L194" s="7"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="8"/>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="7"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="7"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="6"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
       <c r="K195" s="7"/>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
-    </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L195" s="7"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="8"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="7"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="7"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="6"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
       <c r="K196" s="7"/>
-      <c r="L196" s="8"/>
-      <c r="M196" s="8"/>
-    </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L196" s="7"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="8"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="7"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="7"/>
       <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="6"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
       <c r="K197" s="7"/>
-      <c r="L197" s="8"/>
-      <c r="M197" s="8"/>
-    </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L197" s="7"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="8"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="7"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="7"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="6"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="7"/>
       <c r="K198" s="7"/>
-      <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
-    </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L198" s="7"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="8"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="7"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="7"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="6"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
       <c r="K199" s="7"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
-    </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L199" s="7"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="8"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="7"/>
-      <c r="F200" s="6"/>
+      <c r="F200" s="7"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="6"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
       <c r="K200" s="7"/>
-      <c r="L200" s="8"/>
-      <c r="M200" s="8"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:N4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:N8">
-      <sortCondition descending="1" ref="H4"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:N11">
+      <sortCondition descending="1" ref="G4"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4052,14 +4579,14 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="2" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4067,70 +4594,85 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="52">
-        <v>44929</v>
-      </c>
-      <c r="J2" s="52"/>
+        <v>25</v>
+      </c>
+      <c r="I2" s="64">
+        <v>44902</v>
+      </c>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="9">
+        <v>22000</v>
+      </c>
+      <c r="H7" s="9">
+        <f>F7*G7</f>
+        <v>50599.999999999993</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
@@ -6080,662 +6622,824 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="2" width="62.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="5" width="32.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="40">
+        <v>38</v>
+      </c>
+      <c r="D3" s="37">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="E3" s="40">
+      <c r="F3" s="37">
         <v>2.9049999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="39">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="48">
         <v>1.584E-2</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="15"/>
+      <c r="F4" s="48">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="41">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="45">
         <f>D3-D4</f>
         <v>2.2559999999999997E-2</v>
       </c>
-      <c r="E5" s="41">
-        <f>E3-E4</f>
+      <c r="F7" s="45">
+        <f>F3-F4</f>
         <v>1.925E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="42">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="46">
+        <f>D45</f>
+        <v>1.7424000000000002E-2</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="40">
+        <f>F45</f>
+        <v>1.274E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="58">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="56">
         <v>0</v>
       </c>
-      <c r="E6" s="39">
-        <f>D3/2</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="55">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E7" s="56"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="47">
-        <f>D41</f>
-        <v>2.0591999999999999E-2</v>
-      </c>
-      <c r="E8" s="48">
-        <f>E41</f>
-        <v>1.0001801599999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="43">
-        <f>IF(D5+D6+D7+D8&lt;6%,6%,D5+D6+D41+D7)</f>
-        <v>8.8151999999999994E-2</v>
-      </c>
-      <c r="E9" s="43">
-        <f>IF(E5+E6+E41+D7+E8&lt;6%,6%,E5+E6+E41+D7)</f>
-        <v>9.3451801599999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="44" t="str">
-        <f>D2</f>
+      <c r="E10" s="57"/>
+      <c r="F10" s="56">
+        <f>F3/2</f>
+        <v>1.4525E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="43">
+        <f>IF(C37=4,1.2, IF(C37=-4,1.1,1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D11" s="51">
+        <f>MAX((D7+D8)*C11+D9,6%)+D10</f>
+        <v>8.8982400000000003E-2</v>
+      </c>
+      <c r="E11" s="53">
+        <f>IF(E37=4,1.2, IF(E37=-4,1.1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="51">
+        <f>MAX((F7+F8)*E11+F9,6%)+F10</f>
+        <v>9.1514999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="50" t="str">
+        <f>D6</f>
         <v>US</v>
       </c>
-      <c r="E12" s="45" t="str">
-        <f>E2</f>
+      <c r="E15" s="50"/>
+      <c r="F15" s="4" t="str">
+        <f>F6</f>
         <v>China</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="23">
-        <f t="shared" ref="C13:C16" si="0">IF(LEFT(D13,1)="H",1,IF(LEFT(D13,1)="C",-1,0))</f>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="23">
+        <f t="shared" ref="C17:E20" si="0">IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="D17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="F17" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="D18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="23">
-        <f>IF(LEFT(D17,1)="H",2,IF(LEFT(D17,1)="C",-1,0))</f>
+      <c r="D19" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D17" s="29" t="str">
-        <f>IF(SUM(C13:C16)&gt;=3, "Hot", IF(SUM(C13:C16)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="F19" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="23">
+        <f>IF(LEFT(D21,1)="H",2,IF(LEFT(D21,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f>IF(SUM(C17:C20)&gt;=3, "Hot", IF(SUM(C17:C20)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E17" s="29" t="str">
-        <f>IF(SUM(D13:D16)&gt;=3, "Hot", IF(SUM(D13:D16)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="E21" s="23">
+        <f>IF(LEFT(F21,1)="H",2,IF(LEFT(F21,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="29" t="str">
+        <f>IF(SUM(E17:E20)&gt;=3, "Hot", IF(SUM(E17:E20)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" ref="C18:C21" si="1">IF(LEFT(D18,1)="H",1,IF(LEFT(D18,1)="C",-1,0))</f>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="23">
+        <f t="shared" ref="C22:E25" si="1">IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="23">
+      <c r="D22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="F22" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="23">
+      <c r="D23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="23">
-        <f>IF(LEFT(D22,1)="H",2,IF(LEFT(D22,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D22" s="30" t="str">
-        <f>IF(SUM(C18:C21)&gt;=3, "Hot", IF(SUM(C18:C21)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E22" s="30" t="str">
-        <f>IF(SUM(D18:D21)&gt;=3, "Hot", IF(SUM(D18:D21)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="23">
-        <f t="shared" ref="C23:C26" si="2">IF(LEFT(D23,1)="H",1,IF(LEFT(D23,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C24" s="23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="23">
+        <f>IF(LEFT(D26,1)="H",2,IF(LEFT(D26,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D26" s="30" t="str">
+        <f>IF(SUM(C22:C25)&gt;=3, "Hot", IF(SUM(C22:C25)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E26" s="23">
+        <f>IF(LEFT(F26,1)="H",2,IF(LEFT(F26,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F26" s="30" t="str">
+        <f>IF(SUM(E22:E25)&gt;=3, "Hot", IF(SUM(E22:E25)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="23">
+        <f t="shared" ref="C27:E30" si="2">IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="23">
+      <c r="D28" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="23">
+      <c r="D29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="23">
-        <f>IF(LEFT(D27,1)="H",2,IF(LEFT(D27,1)="C",-1,0))</f>
+      <c r="D30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="23">
+        <f>IF(LEFT(D31,1)="H",2,IF(LEFT(D31,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D27" s="30" t="str">
-        <f>IF(SUM(C23:C26)&gt;=3, "Hot", IF(SUM(C23:C26)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="D31" s="30" t="str">
+        <f>IF(SUM(C27:C30)&gt;=3, "Hot", IF(SUM(C27:C30)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Cold</v>
       </c>
-      <c r="E27" s="30" t="str">
-        <f>IF(SUM(D23:D26)&gt;=3, "Hot", IF(SUM(D23:D26)&lt;=-3,"Cold", "Mixed"))</f>
+      <c r="E31" s="23">
+        <f>IF(LEFT(F31,1)="H",2,IF(LEFT(F31,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="30" t="str">
+        <f>IF(SUM(E27:E30)&gt;=3, "Hot", IF(SUM(E27:E30)&lt;=-3,"Cold", "Mixed"))</f>
         <v>Mixed</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="23">
-        <f t="shared" ref="C28:C31" si="3">IF(LEFT(D28,1)="H",1,IF(LEFT(D28,1)="C",-1,0))</f>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="23">
+        <f t="shared" ref="C32:E35" si="3">IF(LEFT(D32,1)="H",1,IF(LEFT(D32,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="23">
+      <c r="D32" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="23">
+      <c r="D33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="23">
+      <c r="D35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="23">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="23">
+        <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="20"/>
-      <c r="B32" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="23">
-        <f>IF(LEFT(D32,1)="H",2,IF(LEFT(D32,1)="C",-1,0))</f>
+      <c r="D36" s="30" t="str">
+        <f>IF(SUM(C32:C35)&gt;=3, "Hot", IF(SUM(C32:C35)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E36" s="23">
+        <f>IF(LEFT(F36,1)="H",2,IF(LEFT(F36,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="30" t="str">
+        <f>IF(SUM(E32:E35)&gt;=3, "Hot", IF(SUM(E32:E35)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="42">
+        <f>SUM(C21,C26,C31,C36)</f>
+        <v>-4</v>
+      </c>
+      <c r="D37" s="32" t="str">
+        <f>IF(OR(C37=4,C37=-4),"In extreme",IF(C37=0,"In equilibrium",IF(OR(C37&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>In extreme</v>
+      </c>
+      <c r="E37" s="42">
+        <f>SUM(E21,E26,E31,E36)</f>
         <v>-1</v>
       </c>
-      <c r="D32" s="30" t="str">
-        <f>IF(SUM(C28:C31)&gt;=3, "Hot", IF(SUM(C28:C31)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E32" s="30" t="str">
-        <f>IF(SUM(D28:D31)&gt;=3, "Hot", IF(SUM(D28:D31)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
-      <c r="B33" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="31">
-        <f>SUM(C17,C22,C27,C32)</f>
-        <v>-4</v>
-      </c>
-      <c r="D33" s="33" t="str">
-        <f>IF(OR(C33=4,C33=-4),"Strongly disagree",IF(C33=0,"Strongly agree",IF(OR(C33=1,C33=-1),"agree",IF(OR(C33=3,C33=-3),"disagree","unclear"))))</f>
-        <v>Strongly disagree</v>
-      </c>
-      <c r="E33" s="33" t="str">
-        <f>IF(OR(D33=4,D33=-4),"Strongly disagree",IF(D33=0,"Strongly agree",IF(OR(D33=1,D33=-1),"agree",IF(OR(D33=3,D33=-3),"disagree","unclear"))))</f>
-        <v>unclear</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="38">
-        <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",0,1))</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="38">
-        <f t="shared" ref="C37:C40" si="4">IF(LEFT(D37,1)="H",2,IF(LEFT(D37,1)="C",0,1))</f>
+      <c r="F37" s="32" t="str">
+        <f>IF(OR(E37=4,E37=-4),"In extreme",IF(E37=0,"In equilibrium",IF(OR(E37&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>Relatively pessimistic</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="36">
+        <f>IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="36">
+        <f>IF(LEFT(F40,1)="H",2,IF(LEFT(F40,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="36">
+        <f t="shared" ref="C41:E44" si="4">IF(LEFT(D41,1)="H",2,IF(LEFT(D41,1)="C",0,1))</f>
         <v>1</v>
       </c>
-      <c r="D37" s="32" t="str">
+      <c r="D41" s="31" t="str">
         <f>IF(D4&gt;=3%, "Hot - High", IF(D4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>Mixed - Dormant</v>
       </c>
-      <c r="E37" s="32" t="str">
-        <f>IF(E4&gt;=3%, "Hot - High", IF(E4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Cold - Low</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="38">
+      <c r="E41" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D38" s="32" t="str">
-        <f>D14</f>
-        <v>Cold - Negative</v>
-      </c>
-      <c r="E38" s="32" t="str">
-        <f>E14</f>
-        <v>Cold - Negative</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="38">
+      <c r="F41" s="31" t="str">
+        <f>IF(F4&gt;=3%, "Hot - High", IF(F4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>Cold - Low</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D39" s="32" t="str">
-        <f>D20</f>
-        <v>Cold - High</v>
-      </c>
-      <c r="E39" s="32" t="str">
-        <f>E20</f>
-        <v>Cold - High</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="38">
+      <c r="D42" s="31" t="str">
+        <f>D18</f>
+        <v>Cold - Negative</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="31" t="str">
+        <f>F18</f>
+        <v>Hot - Positive</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D40" s="32" t="str">
-        <f>D21</f>
+      <c r="D43" s="31" t="str">
+        <f>D24</f>
+        <v>Cold - High</v>
+      </c>
+      <c r="E43" s="36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="31" t="str">
+        <f>F24</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="31" t="str">
+        <f>D25</f>
         <v>Cold - Wide</v>
       </c>
-      <c r="E40" s="32" t="str">
-        <f>E21</f>
+      <c r="E44" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="31" t="str">
+        <f>F25</f>
         <v>Cold - Wide</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="35">
-        <f>SUM(C36:C40)/10</f>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="44">
+        <f>SUM(C40:C44)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="51">
+        <f>D4*(1+C45)</f>
+        <v>1.7424000000000002E-2</v>
+      </c>
+      <c r="E45" s="52">
+        <f>SUM(E40:E44)/10</f>
         <v>0.3</v>
       </c>
-      <c r="D41" s="33">
-        <f>D4*(1+C41)</f>
-        <v>2.0591999999999999E-2</v>
-      </c>
-      <c r="E41" s="33">
-        <f>E4*(1+D41)</f>
-        <v>1.0001801599999999E-2</v>
+      <c r="F45" s="51">
+        <f>F4*(1+E45)</f>
+        <v>1.274E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:E40" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:E16" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D44 F42:F44" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20 F20" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
       <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:E36" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40 F40" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
       <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D21:E21" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
+    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
       <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D18:E18" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
+    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
       <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D29:E29" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
+    <dataValidation type="list" allowBlank="1" sqref="D33 F33" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
       <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
 New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D13:E13" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
+    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
       <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D15:E15" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
+    <dataValidation type="list" allowBlank="1" sqref="D19 F19" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
       <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D25:E25" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
+    <dataValidation type="list" allowBlank="1" sqref="D29 F29" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
       <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D24:E24" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
+    <dataValidation type="list" allowBlank="1" sqref="D28 F28" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
       <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D26:E26" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
+    <dataValidation type="list" allowBlank="1" sqref="D30 F30" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
       <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D31:E31" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
+    <dataValidation type="list" allowBlank="1" sqref="D35 F35" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
       <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D23:E23" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
+    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
       <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D28:E28" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
+    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
       <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D30:E30" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
+    <dataValidation type="list" allowBlank="1" sqref="D34 F34" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
       <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D14:E14" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
+    <dataValidation type="list" allowBlank="1" sqref="D18 F18" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
       <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D19:E19" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
+    <dataValidation type="list" allowBlank="1" sqref="D23 F23" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
       <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D20:E20" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
+    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
       <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="D33:E33" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+    <dataValidation allowBlank="1" sqref="F37 D37 F9:F10 D9:D10 D13" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C7A848-298E-4599-A931-0C9780C33E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A8CB82-F0B2-44D4-8F18-EE0FD4A9F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,22 +19,19 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$O$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Opportunities Monitor</t>
   </si>
   <si>
     <t>DCF</t>
-  </si>
-  <si>
-    <t>Realizable Asset Value</t>
   </si>
   <si>
     <t>Security Code</t>
@@ -418,6 +415,12 @@
   </si>
   <si>
     <t>CHEERWIN GP</t>
+  </si>
+  <si>
+    <t>op. Assets</t>
+  </si>
+  <si>
+    <t>Asset Value</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,6 +604,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,10 +1008,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1345,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N200"/>
+  <dimension ref="A2:O200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H11"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,13 +1365,13 @@
     <col min="1" max="1" width="2.453125" customWidth="1"/>
     <col min="2" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="11" width="14.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.453125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1371,3197 +1380,3418 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G3" s="60" t="s">
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.9299999475479126</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7">
+        <f>E5-H5</f>
+        <v>0.15972063557968785</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.7702793119682247</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.48311904251807375</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.77</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2.3092203850174395</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2.0268895213531741</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2.2798113788959483E-2</v>
+      </c>
+      <c r="N5" s="6">
+        <f>M5/E5</f>
+        <v>1.1812494512201802E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20.600000381469727</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7">
+        <f>E6-H6</f>
+        <v>9.4734781125726144</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11.126522268897112</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-6.9052825115742955E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>17.28</v>
+      </c>
+      <c r="K6" s="7">
+        <v>22.398295553313996</v>
+      </c>
+      <c r="L6" s="7">
+        <v>17.277299528915517</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.17781826159269129</v>
+      </c>
+      <c r="N6" s="6">
+        <f>M6/E6</f>
+        <v>8.6319542864010702E-3</v>
+      </c>
+      <c r="O6" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7">
+        <f>E7-H7</f>
+        <v>1.4489887365273371</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-0.83898872222222232</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-2.6337239118644606E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.81943800764118024</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.25787827777777772</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f>M7/E7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3.5499999523162842</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7">
+        <f>E8-H8</f>
+        <v>3.173371256600082</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.37662869571620239</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-3.1146088749145096E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4.4299945978942814</v>
+      </c>
+      <c r="L8" s="7">
+        <v>-1.6019094395779059</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5.8527900015945961E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <f>M8/E8</f>
+        <v>1.6486732620308347E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6.8299999237060547</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7">
+        <f>E9-H9</f>
+        <v>6.2519959364391475</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.57800398726690694</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-0.10804430500150497</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>6.6103971893554885</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.1146726097378492</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2.1062503101691915E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <f>M9/E9</f>
+        <v>3.0838218648563472E-3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.8400000333786011</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7">
+        <f>E10-H10</f>
+        <v>1.0391719330785629</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.80082810030003815</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-0.17017664147140771</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.5968551972211811</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.99330660902833467</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5.2282054060501848E-2</v>
+      </c>
+      <c r="N10" s="6">
+        <f>M10/E10</f>
+        <v>2.8414159300041826E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1.9500000476837158</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.42253801692819037</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2.3092203850174395</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2.0268895213531741</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1.7702793119682247</v>
-      </c>
-      <c r="L5" s="7">
-        <v>2.2564285815863668E-2</v>
-      </c>
-      <c r="M5" s="6">
-        <f>L5/E5</f>
-        <v>1.1571428340561522E-2</v>
-      </c>
-      <c r="N5" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7">
-        <v>20.299999237060547</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5.346031159857878E-3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>17.28</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22.398295553313996</v>
-      </c>
-      <c r="J6" s="7">
-        <v>17.277299528915517</v>
-      </c>
-      <c r="K6" s="7">
-        <v>11.126522268897112</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.18044612779858099</v>
-      </c>
-      <c r="M6" s="6">
-        <f>L6/E6</f>
-        <v>8.8889721468142138E-3</v>
-      </c>
-      <c r="N6" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6">
-        <v>-2.2426662111525358E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.81943800764118024</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.25787827777777772</v>
-      </c>
-      <c r="K7" s="7">
-        <v>-0.83898872222222232</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <f>L7/E7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3.5299999713897705</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6">
-        <v>-2.8146013797592767E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>4.4299945978942814</v>
-      </c>
-      <c r="J8" s="7">
-        <v>-1.6019094395779059</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.37662869571620239</v>
-      </c>
-      <c r="L8" s="7">
-        <v>5.8859502535343992E-2</v>
-      </c>
-      <c r="M8" s="6">
-        <f>L8/E8</f>
-        <v>1.6674080173482507E-2</v>
-      </c>
-      <c r="N8" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6.75</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6">
-        <v>-9.9352611754038977E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6.6132074244799117</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2.1174828448622742</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.58081422239133174</v>
-      </c>
-      <c r="L9" s="7">
-        <v>2.1312132530016938E-2</v>
-      </c>
-      <c r="M9" s="6">
-        <f>L9/E9</f>
-        <v>3.1573529674099165E-3</v>
-      </c>
-      <c r="N9" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1.8500000238418579</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-0.17378017198185955</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.5967617256954514</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.99321313750260498</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.80073462877430834</v>
-      </c>
-      <c r="L10" s="7">
-        <v>5.1999448636033382E-2</v>
-      </c>
-      <c r="M10" s="6">
-        <f>L10/E10</f>
-        <v>2.8107809711292422E-2</v>
-      </c>
-      <c r="N10" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="7">
         <v>3.2400000095367432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7">
+        <f>E11-H11</f>
+        <v>1.5547084618716323</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.6852915476651109</v>
+      </c>
+      <c r="I11" s="6">
         <v>-0.2020017387979246</v>
       </c>
-      <c r="H11" s="7">
+      <c r="J11" s="7">
         <v>1.95</v>
       </c>
-      <c r="I11" s="7">
+      <c r="K11" s="7">
         <v>2.5933934417545887</v>
       </c>
-      <c r="J11" s="7">
+      <c r="L11" s="7">
         <v>1.9610728132121873</v>
       </c>
-      <c r="K11" s="7">
-        <v>1.6852915476651109</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>0.10656816545832766</v>
       </c>
-      <c r="M11" s="6">
-        <f>L11/E11</f>
+      <c r="N11" s="6">
+        <f>M11/E11</f>
         <v>3.2891408995262571E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M15" s="7"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M19" s="7"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M20" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M21" s="7"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M22" s="7"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M23" s="7"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M24" s="7"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M25" s="7"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M27" s="7"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M28" s="7"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M29" s="7"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M30" s="7"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M31" s="7"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M32" s="7"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M33" s="7"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M34" s="7"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M35" s="7"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M36" s="7"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="8"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M37" s="7"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="8"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M38" s="7"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="I39" s="6"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M39" s="7"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="6"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M40" s="7"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="8"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M41" s="7"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="8"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M42" s="7"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="8"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M43" s="7"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="6"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="8"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M44" s="7"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="8"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M45" s="7"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="6"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="8"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M46" s="7"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="6"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="8"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M47" s="7"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="8"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="8"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M48" s="7"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="8"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="8"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M49" s="7"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="8"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M50" s="7"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="8"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M51" s="7"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="8"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M52" s="7"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="8"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M53" s="7"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M54" s="7"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="8"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="6"/>
+      <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="8"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M55" s="7"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="8"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="6"/>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="8"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M56" s="7"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="8"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="6"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="8"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M57" s="7"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="8"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M58" s="7"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="8"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="6"/>
+      <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="8"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M59" s="7"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="8"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="8"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M60" s="7"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="8"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="8"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M61" s="7"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="8"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="8"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M62" s="7"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="8"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="I63" s="6"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M63" s="7"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="8"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
+      <c r="I64" s="6"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="8"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M64" s="7"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="8"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="8"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M65" s="7"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="8"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="8"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M66" s="7"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="8"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="I67" s="6"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="8"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M67" s="7"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="8"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="I68" s="6"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M68" s="7"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="8"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="8"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M69" s="7"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="8"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M70" s="7"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="8"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M71" s="7"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="8"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="8"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M72" s="7"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="8"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="8"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M73" s="7"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="8"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="6"/>
+      <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="I74" s="6"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="8"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M74" s="7"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="8"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="6"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="8"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M75" s="7"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="8"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
+      <c r="I76" s="6"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="8"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M76" s="7"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
+      <c r="I77" s="6"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="8"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M77" s="7"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="8"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M78" s="7"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="6"/>
+      <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="8"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M79" s="7"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="6"/>
+      <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M80" s="7"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="6"/>
+      <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="8"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M81" s="7"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="8"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M82" s="7"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="8"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="8"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M83" s="7"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="6"/>
+      <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="8"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M84" s="7"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="8"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="6"/>
+      <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="8"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M85" s="7"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="8"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="8"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M86" s="7"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="8"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="8"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M87" s="7"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="6"/>
+      <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="8"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M88" s="7"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="8"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="8"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M89" s="7"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="8"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="6"/>
+      <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
+      <c r="I90" s="6"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="8"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M90" s="7"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="8"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="8"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M91" s="7"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="8"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="8"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M92" s="7"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="6"/>
+      <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="8"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M93" s="7"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="8"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="6"/>
+      <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
+      <c r="I94" s="6"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M94" s="7"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="8"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="6"/>
+      <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M95" s="7"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="8"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="6"/>
+      <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
+      <c r="I96" s="6"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M96" s="7"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="8"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="6"/>
+      <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="8"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M97" s="7"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="8"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="6"/>
+      <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="8"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M98" s="7"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="8"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="6"/>
+      <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="I99" s="6"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="8"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M99" s="7"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="8"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="6"/>
+      <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="8"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M100" s="7"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="8"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="6"/>
+      <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="8"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M101" s="7"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="8"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="6"/>
+      <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="8"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M102" s="7"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="8"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="6"/>
+      <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
-      <c r="M103" s="6"/>
-      <c r="N103" s="8"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M103" s="7"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="8"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="6"/>
+      <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
+      <c r="I104" s="6"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="8"/>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M104" s="7"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="8"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="6"/>
+      <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+      <c r="I105" s="6"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="8"/>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M105" s="7"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="8"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="6"/>
+      <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="I106" s="6"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="8"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M106" s="7"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="8"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="6"/>
+      <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+      <c r="I107" s="6"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="8"/>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M107" s="7"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="8"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="6"/>
+      <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
+      <c r="I108" s="6"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M108" s="7"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="6"/>
+      <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M109" s="7"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="8"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="6"/>
+      <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
+      <c r="I110" s="6"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M110" s="7"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="8"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="6"/>
+      <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
+      <c r="I111" s="6"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="8"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M111" s="7"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="8"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="6"/>
+      <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="I112" s="6"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="8"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M112" s="7"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="8"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="6"/>
+      <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="I113" s="6"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="8"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M113" s="7"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="8"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="6"/>
+      <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="I114" s="6"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="8"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M114" s="7"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="8"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="6"/>
+      <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+      <c r="I115" s="6"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="8"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M115" s="7"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="8"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="6"/>
+      <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+      <c r="I116" s="6"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="8"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M116" s="7"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="8"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="6"/>
+      <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="I117" s="6"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M117" s="7"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="8"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="6"/>
+      <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
+      <c r="I118" s="6"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="8"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M118" s="7"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="8"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="6"/>
+      <c r="G119" s="7"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
+      <c r="I119" s="6"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="8"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M119" s="7"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="8"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
-      <c r="G120" s="6"/>
+      <c r="G120" s="7"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
+      <c r="I120" s="6"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M120" s="7"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="8"/>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="6"/>
+      <c r="G121" s="7"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
+      <c r="I121" s="6"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="8"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M121" s="7"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="8"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
-      <c r="G122" s="6"/>
+      <c r="G122" s="7"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
+      <c r="I122" s="6"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="8"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M122" s="7"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="8"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="6"/>
+      <c r="G123" s="7"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
+      <c r="I123" s="6"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="8"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M123" s="7"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="8"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
-      <c r="G124" s="6"/>
+      <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
+      <c r="I124" s="6"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="8"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M124" s="7"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="6"/>
+      <c r="G125" s="7"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
+      <c r="I125" s="6"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="8"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M125" s="7"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="8"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="6"/>
+      <c r="G126" s="7"/>
       <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
+      <c r="I126" s="6"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="8"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M126" s="7"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="8"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="6"/>
+      <c r="G127" s="7"/>
       <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
+      <c r="I127" s="6"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="8"/>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M127" s="7"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="8"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="6"/>
+      <c r="G128" s="7"/>
       <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="8"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M128" s="7"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="8"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="6"/>
+      <c r="G129" s="7"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
+      <c r="I129" s="6"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="8"/>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M129" s="7"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="6"/>
+      <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
+      <c r="I130" s="6"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="8"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M130" s="7"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="8"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="6"/>
+      <c r="G131" s="7"/>
       <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
+      <c r="I131" s="6"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="8"/>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M131" s="7"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="8"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="6"/>
+      <c r="G132" s="7"/>
       <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
+      <c r="I132" s="6"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="8"/>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M132" s="7"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="8"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="6"/>
+      <c r="G133" s="7"/>
       <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
+      <c r="I133" s="6"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="8"/>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M133" s="7"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="8"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="6"/>
+      <c r="G134" s="7"/>
       <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
+      <c r="I134" s="6"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="8"/>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M134" s="7"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="8"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="6"/>
+      <c r="G135" s="7"/>
       <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
+      <c r="I135" s="6"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="8"/>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M135" s="7"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
-      <c r="G136" s="6"/>
+      <c r="G136" s="7"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
+      <c r="I136" s="6"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="8"/>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M136" s="7"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="8"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="6"/>
+      <c r="G137" s="7"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
+      <c r="I137" s="6"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="8"/>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M137" s="7"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="8"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
-      <c r="G138" s="6"/>
+      <c r="G138" s="7"/>
       <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
+      <c r="I138" s="6"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="8"/>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M138" s="7"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="8"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="6"/>
+      <c r="G139" s="7"/>
       <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
+      <c r="I139" s="6"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="8"/>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M139" s="7"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="8"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
-      <c r="G140" s="6"/>
+      <c r="G140" s="7"/>
       <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
+      <c r="I140" s="6"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="8"/>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M140" s="7"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="8"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="6"/>
+      <c r="G141" s="7"/>
       <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
+      <c r="I141" s="6"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="8"/>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M141" s="7"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="8"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
-      <c r="G142" s="6"/>
+      <c r="G142" s="7"/>
       <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
+      <c r="I142" s="6"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="8"/>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M142" s="7"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="8"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="6"/>
+      <c r="G143" s="7"/>
       <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
+      <c r="I143" s="6"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="8"/>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M143" s="7"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="8"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
-      <c r="G144" s="6"/>
+      <c r="G144" s="7"/>
       <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
+      <c r="I144" s="6"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="8"/>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M144" s="7"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="8"/>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="6"/>
+      <c r="G145" s="7"/>
       <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
+      <c r="I145" s="6"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="8"/>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M145" s="7"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="8"/>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
-      <c r="G146" s="6"/>
+      <c r="G146" s="7"/>
       <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
+      <c r="I146" s="6"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="8"/>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M146" s="7"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="8"/>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
-      <c r="G147" s="6"/>
+      <c r="G147" s="7"/>
       <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
+      <c r="I147" s="6"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="8"/>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M147" s="7"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
-      <c r="G148" s="6"/>
+      <c r="G148" s="7"/>
       <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
+      <c r="I148" s="6"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="8"/>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M148" s="7"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="8"/>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
-      <c r="G149" s="6"/>
+      <c r="G149" s="7"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
+      <c r="I149" s="6"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="8"/>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M149" s="7"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="8"/>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
-      <c r="G150" s="6"/>
+      <c r="G150" s="7"/>
       <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
+      <c r="I150" s="6"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="8"/>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M150" s="7"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="8"/>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="6"/>
+      <c r="G151" s="7"/>
       <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
+      <c r="I151" s="6"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="8"/>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M151" s="7"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="8"/>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="6"/>
+      <c r="G152" s="7"/>
       <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
+      <c r="I152" s="6"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="8"/>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M152" s="7"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="8"/>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="6"/>
+      <c r="G153" s="7"/>
       <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
+      <c r="I153" s="6"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="8"/>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M153" s="7"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="8"/>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
-      <c r="G154" s="6"/>
+      <c r="G154" s="7"/>
       <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
+      <c r="I154" s="6"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="8"/>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M154" s="7"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="8"/>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
-      <c r="G155" s="6"/>
+      <c r="G155" s="7"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
+      <c r="I155" s="6"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="8"/>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M155" s="7"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="8"/>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
-      <c r="G156" s="6"/>
+      <c r="G156" s="7"/>
       <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
+      <c r="I156" s="6"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="8"/>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M156" s="7"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="8"/>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="6"/>
+      <c r="G157" s="7"/>
       <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
+      <c r="I157" s="6"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="8"/>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M157" s="7"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="8"/>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
-      <c r="G158" s="6"/>
+      <c r="G158" s="7"/>
       <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
+      <c r="I158" s="6"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="8"/>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M158" s="7"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="8"/>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
-      <c r="G159" s="6"/>
+      <c r="G159" s="7"/>
       <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
+      <c r="I159" s="6"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="8"/>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M159" s="7"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="8"/>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
-      <c r="G160" s="6"/>
+      <c r="G160" s="7"/>
       <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
+      <c r="I160" s="6"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="8"/>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M160" s="7"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="8"/>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
-      <c r="G161" s="6"/>
+      <c r="G161" s="7"/>
       <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
+      <c r="I161" s="6"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="8"/>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M161" s="7"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="8"/>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
-      <c r="G162" s="6"/>
+      <c r="G162" s="7"/>
       <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
+      <c r="I162" s="6"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="8"/>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M162" s="7"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="8"/>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="6"/>
+      <c r="G163" s="7"/>
       <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
+      <c r="I163" s="6"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="8"/>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M163" s="7"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="8"/>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
-      <c r="G164" s="6"/>
+      <c r="G164" s="7"/>
       <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
+      <c r="I164" s="6"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="8"/>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M164" s="7"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="8"/>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
-      <c r="G165" s="6"/>
+      <c r="G165" s="7"/>
       <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
+      <c r="I165" s="6"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="8"/>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M165" s="7"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="8"/>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="7"/>
       <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
+      <c r="I166" s="6"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="8"/>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M166" s="7"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="8"/>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
-      <c r="G167" s="6"/>
+      <c r="G167" s="7"/>
       <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
+      <c r="I167" s="6"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="8"/>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M167" s="7"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="8"/>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
-      <c r="G168" s="6"/>
+      <c r="G168" s="7"/>
       <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
+      <c r="I168" s="6"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="8"/>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M168" s="7"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="8"/>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="6"/>
+      <c r="G169" s="7"/>
       <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
+      <c r="I169" s="6"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="8"/>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M169" s="7"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="8"/>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="6"/>
+      <c r="G170" s="7"/>
       <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
+      <c r="I170" s="6"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="8"/>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M170" s="7"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="8"/>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
-      <c r="G171" s="6"/>
+      <c r="G171" s="7"/>
       <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
+      <c r="I171" s="6"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="8"/>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M171" s="7"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="8"/>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
-      <c r="G172" s="6"/>
+      <c r="G172" s="7"/>
       <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
+      <c r="I172" s="6"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="8"/>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M172" s="7"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="8"/>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="6"/>
+      <c r="G173" s="7"/>
       <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
+      <c r="I173" s="6"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="8"/>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M173" s="7"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="8"/>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7"/>
-      <c r="G174" s="6"/>
+      <c r="G174" s="7"/>
       <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
+      <c r="I174" s="6"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="8"/>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M174" s="7"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="8"/>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
-      <c r="G175" s="6"/>
+      <c r="G175" s="7"/>
       <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
+      <c r="I175" s="6"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="8"/>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M175" s="7"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="8"/>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="6"/>
+      <c r="G176" s="7"/>
       <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
+      <c r="I176" s="6"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="8"/>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M176" s="7"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="8"/>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
-      <c r="G177" s="6"/>
+      <c r="G177" s="7"/>
       <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
+      <c r="I177" s="6"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="8"/>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M177" s="7"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="8"/>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
-      <c r="G178" s="6"/>
+      <c r="G178" s="7"/>
       <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
+      <c r="I178" s="6"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="8"/>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M178" s="7"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="8"/>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
-      <c r="G179" s="6"/>
+      <c r="G179" s="7"/>
       <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
+      <c r="I179" s="6"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="8"/>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M179" s="7"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="8"/>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
-      <c r="G180" s="6"/>
+      <c r="G180" s="7"/>
       <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
+      <c r="I180" s="6"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="8"/>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M180" s="7"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="8"/>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
-      <c r="G181" s="6"/>
+      <c r="G181" s="7"/>
       <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
+      <c r="I181" s="6"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="8"/>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M181" s="7"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="8"/>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
-      <c r="G182" s="6"/>
+      <c r="G182" s="7"/>
       <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
+      <c r="I182" s="6"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="8"/>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M182" s="7"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="8"/>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
-      <c r="G183" s="6"/>
+      <c r="G183" s="7"/>
       <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
+      <c r="I183" s="6"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
-      <c r="M183" s="6"/>
-      <c r="N183" s="8"/>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M183" s="7"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="8"/>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
-      <c r="G184" s="6"/>
+      <c r="G184" s="7"/>
       <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
+      <c r="I184" s="6"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="8"/>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M184" s="7"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="8"/>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
-      <c r="G185" s="6"/>
+      <c r="G185" s="7"/>
       <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
+      <c r="I185" s="6"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="8"/>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M185" s="7"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="8"/>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
-      <c r="G186" s="6"/>
+      <c r="G186" s="7"/>
       <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
+      <c r="I186" s="6"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="8"/>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M186" s="7"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="8"/>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
-      <c r="G187" s="6"/>
+      <c r="G187" s="7"/>
       <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
+      <c r="I187" s="6"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="8"/>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M187" s="7"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="8"/>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
-      <c r="G188" s="6"/>
+      <c r="G188" s="7"/>
       <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
+      <c r="I188" s="6"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="8"/>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M188" s="7"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="8"/>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
-      <c r="G189" s="6"/>
+      <c r="G189" s="7"/>
       <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
+      <c r="I189" s="6"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="8"/>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M189" s="7"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="8"/>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
-      <c r="G190" s="6"/>
+      <c r="G190" s="7"/>
       <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
+      <c r="I190" s="6"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="6"/>
-      <c r="N190" s="8"/>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M190" s="7"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="8"/>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
-      <c r="G191" s="6"/>
+      <c r="G191" s="7"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
+      <c r="I191" s="6"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="6"/>
-      <c r="N191" s="8"/>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M191" s="7"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="8"/>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
-      <c r="G192" s="6"/>
+      <c r="G192" s="7"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
+      <c r="I192" s="6"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
-      <c r="M192" s="6"/>
-      <c r="N192" s="8"/>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M192" s="7"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="8"/>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
-      <c r="G193" s="6"/>
+      <c r="G193" s="7"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="7"/>
+      <c r="I193" s="6"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
-      <c r="M193" s="6"/>
-      <c r="N193" s="8"/>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M193" s="7"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="8"/>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
-      <c r="G194" s="6"/>
+      <c r="G194" s="7"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
+      <c r="I194" s="6"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="6"/>
-      <c r="N194" s="8"/>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M194" s="7"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="8"/>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
-      <c r="G195" s="6"/>
+      <c r="G195" s="7"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
+      <c r="I195" s="6"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="6"/>
-      <c r="N195" s="8"/>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M195" s="7"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="8"/>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
-      <c r="G196" s="6"/>
+      <c r="G196" s="7"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
+      <c r="I196" s="6"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
-      <c r="M196" s="6"/>
-      <c r="N196" s="8"/>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M196" s="7"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="8"/>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
-      <c r="G197" s="6"/>
+      <c r="G197" s="7"/>
       <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
+      <c r="I197" s="6"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
-      <c r="M197" s="6"/>
-      <c r="N197" s="8"/>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M197" s="7"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="8"/>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
-      <c r="G198" s="6"/>
+      <c r="G198" s="7"/>
       <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
+      <c r="I198" s="6"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="8"/>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M198" s="7"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="8"/>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
-      <c r="G199" s="6"/>
+      <c r="G199" s="7"/>
       <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
+      <c r="I199" s="6"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
-      <c r="M199" s="6"/>
-      <c r="N199" s="8"/>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M199" s="7"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="8"/>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
-      <c r="G200" s="6"/>
+      <c r="G200" s="7"/>
       <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
+      <c r="I200" s="6"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
-      <c r="M200" s="6"/>
-      <c r="N200" s="8"/>
+      <c r="M200" s="7"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:N4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:N11">
-      <sortCondition descending="1" ref="G4"/>
+  <autoFilter ref="B4:O4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:O11">
+      <sortCondition descending="1" ref="I4"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:K3"/>
+  <mergeCells count="1">
+    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4586,7 +4816,7 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4594,7 +4824,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="64">
         <v>44902</v>
@@ -4603,65 +4833,65 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="63"/>
       <c r="F3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="66"/>
       <c r="F4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="7">
         <v>2.2999999999999998</v>
@@ -6641,19 +6871,19 @@
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>36</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="37">
         <v>3.8399999999999997E-2</v>
@@ -6664,7 +6894,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="48">
         <v>1.584E-2</v>
@@ -6677,20 +6907,20 @@
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="45">
         <f>D3-D4</f>
@@ -6703,7 +6933,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="46">
         <f>D45</f>
@@ -6717,7 +6947,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="58">
         <v>4.4999999999999998E-2</v>
@@ -6729,7 +6959,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="56">
         <v>0</v>
@@ -6742,7 +6972,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="43">
         <f>IF(C37=4,1.2, IF(C37=-4,1.1,1))</f>
@@ -6764,7 +6994,7 @@
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="67">
@@ -6776,7 +7006,7 @@
     <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="50" t="str">
@@ -6792,7 +7022,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="49"/>
@@ -6802,87 +7032,87 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" ref="C17:E20" si="0">IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="23">
         <f>IF(LEFT(D21,1)="H",2,IF(LEFT(D21,1)="C",-1,0))</f>
@@ -6904,87 +7134,87 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="23">
         <f t="shared" ref="C22:E25" si="1">IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="23">
         <f>IF(LEFT(D26,1)="H",2,IF(LEFT(D26,1)="C",-1,0))</f>
@@ -7006,87 +7236,87 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="23">
         <f t="shared" ref="C27:E30" si="2">IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="23">
         <f>IF(LEFT(D31,1)="H",2,IF(LEFT(D31,1)="C",-1,0))</f>
@@ -7108,87 +7338,87 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="23">
         <f t="shared" ref="C32:E35" si="3">IF(LEFT(D32,1)="H",1,IF(LEFT(D32,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="23">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="23">
         <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",-1,0))</f>
@@ -7210,7 +7440,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="42">
         <f>SUM(C21,C26,C31,C36)</f>
@@ -7235,40 +7465,40 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="36">
         <f>IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="36">
         <f>IF(LEFT(F40,1)="H",2,IF(LEFT(F40,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="36">
         <f t="shared" ref="C41:E44" si="4">IF(LEFT(D41,1)="H",2,IF(LEFT(D41,1)="C",0,1))</f>
@@ -7289,7 +7519,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
@@ -7310,7 +7540,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="36">
         <f t="shared" si="4"/>
@@ -7331,7 +7561,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="36">
         <f t="shared" si="4"/>
@@ -7352,7 +7582,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="44">
         <f>SUM(C40:C44)/10</f>
@@ -7373,12 +7603,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A8CB82-F0B2-44D4-8F18-EE0FD4A9F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C2018-E67E-43F6-AAAF-8EEA478F4A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,7 +1357,7 @@
   <dimension ref="A2:O200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1448,45 +1448,45 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="7">
-        <v>1.9299999475479126</v>
+        <v>20.850000381469727</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="7">
-        <f>E5-H5</f>
-        <v>0.15972063557968785</v>
+        <f t="shared" ref="G5:G11" si="0">E5-H5</f>
+        <v>9.7234781125726144</v>
       </c>
       <c r="H5" s="7">
-        <v>1.7702793119682247</v>
+        <v>11.126522268897112</v>
       </c>
       <c r="I5" s="6">
-        <v>0.48311904251807375</v>
+        <v>-1.6763136715094107E-2</v>
       </c>
       <c r="J5" s="7">
-        <v>1.77</v>
+        <v>17.28</v>
       </c>
       <c r="K5" s="7">
-        <v>2.3092203850174395</v>
+        <v>22.398295553313996</v>
       </c>
       <c r="L5" s="7">
-        <v>2.0268895213531741</v>
+        <v>17.277299528915517</v>
       </c>
       <c r="M5" s="7">
-        <v>2.2798113788959483E-2</v>
+        <v>0.17568614818334663</v>
       </c>
       <c r="N5" s="6">
-        <f>M5/E5</f>
-        <v>1.1812494512201802E-2</v>
+        <f t="shared" ref="N5:N11" si="1">M5/E5</f>
+        <v>8.4261940033097706E-3</v>
       </c>
       <c r="O5" s="8">
         <v>45001</v>
@@ -1494,45 +1494,45 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="7">
-        <v>20.600000381469727</v>
+        <v>1.8200000524520874</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="7">
-        <f>E6-H6</f>
-        <v>9.4734781125726144</v>
+        <f t="shared" si="0"/>
+        <v>1.0189850091005896</v>
       </c>
       <c r="H6" s="7">
-        <v>11.126522268897112</v>
+        <v>0.80101504335149776</v>
       </c>
       <c r="I6" s="6">
-        <v>-6.9052825115742955E-3</v>
+        <v>-0.1628401353480384</v>
       </c>
       <c r="J6" s="7">
-        <v>17.28</v>
+        <v>1.2</v>
       </c>
       <c r="K6" s="7">
-        <v>22.398295553313996</v>
+        <v>1.5970421402726409</v>
       </c>
       <c r="L6" s="7">
-        <v>17.277299528915517</v>
+        <v>0.9934935520797944</v>
       </c>
       <c r="M6" s="7">
-        <v>0.17781826159269129</v>
+        <v>5.2856581562630324E-2</v>
       </c>
       <c r="N6" s="6">
-        <f>M6/E6</f>
-        <v>8.6319542864010702E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.9042076944677343E-2</v>
       </c>
       <c r="O6" s="8">
         <v>45001</v>
@@ -1540,45 +1540,45 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="7">
-        <v>0.61000001430511475</v>
+        <v>3.2400000095367432</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="7">
-        <f>E7-H7</f>
-        <v>1.4489887365273371</v>
+        <f t="shared" si="0"/>
+        <v>1.5547084618716323</v>
       </c>
       <c r="H7" s="7">
-        <v>-0.83898872222222232</v>
+        <v>1.6852915476651109</v>
       </c>
       <c r="I7" s="6">
-        <v>-2.6337239118644606E-2</v>
+        <v>-0.2020017387979246</v>
       </c>
       <c r="J7" s="7">
-        <v>0.4</v>
+        <v>1.95</v>
       </c>
       <c r="K7" s="7">
-        <v>0.81943800764118024</v>
+        <v>2.5933934417545887</v>
       </c>
       <c r="L7" s="7">
-        <v>0.25787827777777772</v>
+        <v>1.9610728132121873</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>0.10656816545832766</v>
       </c>
       <c r="N7" s="6">
-        <f>M7/E7</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.2891408995262571E-2</v>
       </c>
       <c r="O7" s="8">
         <v>45001</v>
@@ -1586,45 +1586,45 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="7">
-        <v>3.5499999523162842</v>
+        <v>6.8499999046325684</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7">
-        <f>E8-H8</f>
-        <v>3.173371256600082</v>
+        <f t="shared" si="0"/>
+        <v>6.2726984761467675</v>
       </c>
       <c r="H8" s="7">
-        <v>0.37662869571620239</v>
+        <v>0.57730142848580079</v>
       </c>
       <c r="I8" s="6">
-        <v>-3.1146088749145096E-2</v>
+        <v>-0.11019497191780214</v>
       </c>
       <c r="J8" s="7">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="K8" s="7">
-        <v>4.4299945978942814</v>
+        <v>6.6096946305743813</v>
       </c>
       <c r="L8" s="7">
-        <v>-1.6019094395779059</v>
+        <v>2.1139700509567434</v>
       </c>
       <c r="M8" s="7">
-        <v>5.8527900015945961E-2</v>
+        <v>2.1001006800062248E-2</v>
       </c>
       <c r="N8" s="6">
-        <f>M8/E8</f>
-        <v>1.6486732620308347E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0658404514516172E-3</v>
       </c>
       <c r="O8" s="8">
         <v>45001</v>
@@ -1632,45 +1632,45 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="7">
-        <v>6.8299999237060547</v>
+        <v>3.5699999332427979</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="7">
-        <f>E9-H9</f>
-        <v>6.2519959364391475</v>
+        <f t="shared" si="0"/>
+        <v>3.1933712375265957</v>
       </c>
       <c r="H9" s="7">
-        <v>0.57800398726690694</v>
+        <v>0.37662869571620239</v>
       </c>
       <c r="I9" s="6">
-        <v>-0.10804430500150497</v>
+        <v>-3.4124134660860866E-2</v>
       </c>
       <c r="J9" s="7">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="K9" s="7">
-        <v>6.6103971893554885</v>
+        <v>4.4299945978942814</v>
       </c>
       <c r="L9" s="7">
-        <v>2.1146726097378492</v>
+        <v>-1.6019094395779059</v>
       </c>
       <c r="M9" s="7">
-        <v>2.1062503101691915E-2</v>
+        <v>5.8200012927465114E-2</v>
       </c>
       <c r="N9" s="6">
-        <f>M9/E9</f>
-        <v>3.0838218648563472E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.6302524934391056E-2</v>
       </c>
       <c r="O9" s="8">
         <v>45001</v>
@@ -1678,45 +1678,45 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="7">
-        <v>1.8400000333786011</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="7">
-        <f>E10-H10</f>
-        <v>1.0391719330785629</v>
+        <f t="shared" si="0"/>
+        <v>1.4389887460640802</v>
       </c>
       <c r="H10" s="7">
-        <v>0.80082810030003815</v>
+        <v>-0.83898872222222232</v>
       </c>
       <c r="I10" s="6">
-        <v>-0.17017664147140771</v>
+        <v>-2.2426662111525358E-2</v>
       </c>
       <c r="J10" s="7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="K10" s="7">
-        <v>1.5968551972211811</v>
+        <v>0.81943800764118024</v>
       </c>
       <c r="L10" s="7">
-        <v>0.99330660902833467</v>
+        <v>0.25787827777777772</v>
       </c>
       <c r="M10" s="7">
-        <v>5.2282054060501848E-2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6">
-        <f>M10/E10</f>
-        <v>2.8414159300041826E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O10" s="8">
         <v>45001</v>
@@ -1724,45 +1724,45 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="7">
-        <v>3.2400000095367432</v>
+        <v>1.8999999761581421</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7">
-        <f>E11-H11</f>
-        <v>1.5547084618716323</v>
+        <f t="shared" si="0"/>
+        <v>0.12972066418991735</v>
       </c>
       <c r="H11" s="7">
-        <v>1.6852915476651109</v>
+        <v>1.7702793119682247</v>
       </c>
       <c r="I11" s="6">
-        <v>-0.2020017387979246</v>
+        <v>0.59498285502339665</v>
       </c>
       <c r="J11" s="7">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="K11" s="7">
-        <v>2.5933934417545887</v>
+        <v>2.3092203850174395</v>
       </c>
       <c r="L11" s="7">
-        <v>1.9610728132121873</v>
+        <v>2.0268895213531741</v>
       </c>
       <c r="M11" s="7">
-        <v>0.10656816545832766</v>
+        <v>2.315808366790257E-2</v>
       </c>
       <c r="N11" s="6">
-        <f>M11/E11</f>
-        <v>3.2891408995262571E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2188465241314856E-2</v>
       </c>
       <c r="O11" s="8">
         <v>45001</v>
@@ -4803,7 +4803,7 @@
   <dimension ref="A2:J200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6854,8 +6854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C2018-E67E-43F6-AAAF-8EEA478F4A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C38F7F-A92D-490C-8D0A-6D3492C5A3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$O$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Non-op. Assets</t>
   </si>
   <si>
-    <t>LFY Dividend</t>
-  </si>
-  <si>
     <t>LFY Dividend Yield</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
   </si>
   <si>
     <t>NISSIN FOODS</t>
-  </si>
-  <si>
-    <t>1766.HK</t>
-  </si>
-  <si>
-    <t>CRRC</t>
   </si>
   <si>
     <t>Current Holdings Monitor</t>
@@ -166,6 +157,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">⇒ </t>
     </r>
@@ -176,6 +168,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Market Discount rate (Min. 6%)</t>
     </r>
@@ -382,6 +375,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Interest rate risk premium</t>
     </r>
@@ -405,22 +399,40 @@
     <t>SHOUCHENG</t>
   </si>
   <si>
-    <t>3718.HK</t>
-  </si>
-  <si>
-    <t>BJ ENT URBAN</t>
-  </si>
-  <si>
-    <t>6601.HK</t>
-  </si>
-  <si>
-    <t>CHEERWIN GP</t>
-  </si>
-  <si>
     <t>op. Assets</t>
   </si>
   <si>
     <t>Asset Value</t>
+  </si>
+  <si>
+    <t>NAVPS</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>0019.HK</t>
+  </si>
+  <si>
+    <t>SWIRE PACIFIC A</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +462,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,14 +513,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -538,6 +543,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -545,6 +551,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -949,7 +956,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -959,24 +966,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -992,26 +999,26 @@
     <xf numFmtId="10" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1354,24 +1361,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O200"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:P200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="12" width="14.453125" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.453125" customWidth="1"/>
-    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="15" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1380,29 +1388,31 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G3" s="61" t="s">
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="61"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1410,3391 +1420,3567 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
+        <v>67.849998474121094</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H10" si="0">F5-I5</f>
+        <v>9.9346041848087197</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57.915394289312374</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.7754474165995791</v>
+      </c>
+      <c r="K5" s="7">
+        <v>68</v>
+      </c>
+      <c r="L5" s="7">
+        <v>123.30332717265573</v>
+      </c>
+      <c r="M5" s="7">
+        <v>221.54660298901871</v>
+      </c>
+      <c r="N5" s="7">
+        <v>63.611664983544401</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3.0467645422667045E-2</v>
+      </c>
+      <c r="P5" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10.279999732971191</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9769227833765584</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5.303076949594633</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.20278898513166549</v>
+      </c>
+      <c r="K6" s="7">
         <v>10</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="L6" s="7">
+        <v>12.732006873311873</v>
+      </c>
+      <c r="M6" s="7">
+        <v>19.628261569994095</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10.533252019479391</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3.6849237037602484E-2</v>
+      </c>
+      <c r="P6" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20.600000381469727</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>9.4734781125726144</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11.126522268897112</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-6.9052825115742955E-3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>17.28</v>
+      </c>
+      <c r="L7" s="7">
+        <v>22.398295553313996</v>
+      </c>
+      <c r="M7" s="7">
+        <v>88.264955272628072</v>
+      </c>
+      <c r="N7" s="7">
+        <v>17.277299528915517</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.17781826159269129</v>
+      </c>
+      <c r="P7" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.7899999618530273</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.98870450281007183</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.80129545904295552</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-0.1514963034342135</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.5973225559640984</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.4770020418420613</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.99377396777125215</v>
+      </c>
+      <c r="O8" s="6">
+        <v>5.3742448752255277E-2</v>
+      </c>
+      <c r="P8" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.2200000286102295</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7">
-        <v>20.850000381469727</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5347084809451186</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.6852915476651109</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-0.19863309644208355</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.95</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.5933934417545887</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2.5451302939590383</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1.9610728132121873</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0.10723007889236574</v>
+      </c>
+      <c r="P9" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G11" si="0">E5-H5</f>
-        <v>9.7234781125726144</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11.126522268897112</v>
-      </c>
-      <c r="I5" s="6">
-        <v>-1.6763136715094107E-2</v>
-      </c>
-      <c r="J5" s="7">
-        <v>17.28</v>
-      </c>
-      <c r="K5" s="7">
-        <v>22.398295553313996</v>
-      </c>
-      <c r="L5" s="7">
-        <v>17.277299528915517</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.17568614818334663</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" ref="N5:N11" si="1">M5/E5</f>
-        <v>8.4261940033097706E-3</v>
-      </c>
-      <c r="O5" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6.8499999046325684</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7">
-        <v>1.8200000524520874</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0189850091005896</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.80101504335149776</v>
-      </c>
-      <c r="I6" s="6">
-        <v>-0.1628401353480384</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1.5970421402726409</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0.9934935520797944</v>
-      </c>
-      <c r="M6" s="7">
-        <v>5.2856581562630324E-2</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9042076944677343E-2</v>
-      </c>
-      <c r="O6" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.2400000095367432</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5547084618716323</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1.6852915476651109</v>
-      </c>
-      <c r="I7" s="6">
-        <v>-0.2020017387979246</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1.95</v>
-      </c>
-      <c r="K7" s="7">
-        <v>2.5933934417545887</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1.9610728132121873</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0.10656816545832766</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="1"/>
-        <v>3.2891408995262571E-2</v>
-      </c>
-      <c r="O7" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7">
-        <v>6.8499999046325684</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>6.2726984761467675</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I10" s="7">
         <v>0.57730142848580079</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J10" s="6">
         <v>-0.11019497191780214</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K10" s="7">
         <v>5.2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L10" s="7">
         <v>6.6096946305743813</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M10" s="7">
+        <v>3.7817168512752537</v>
+      </c>
+      <c r="N10" s="7">
         <v>2.1139700509567434</v>
       </c>
-      <c r="M8" s="7">
+      <c r="O10" s="6">
         <v>2.1001006800062248E-2</v>
       </c>
-      <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>3.0658404514516172E-3</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="P10" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.5699999332427979</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>3.1933712375265957</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.37662869571620239</v>
-      </c>
-      <c r="I9" s="6">
-        <v>-3.4124134660860866E-2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="K9" s="7">
-        <v>4.4299945978942814</v>
-      </c>
-      <c r="L9" s="7">
-        <v>-1.6019094395779059</v>
-      </c>
-      <c r="M9" s="7">
-        <v>5.8200012927465114E-2</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6302524934391056E-2</v>
-      </c>
-      <c r="O9" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4389887460640802</v>
-      </c>
-      <c r="H10" s="7">
-        <v>-0.83898872222222232</v>
-      </c>
-      <c r="I10" s="6">
-        <v>-2.2426662111525358E-2</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.81943800764118024</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0.25787827777777772</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1.8999999761581421</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.12972066418991735</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1.7702793119682247</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.59498285502339665</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="K11" s="7">
-        <v>2.3092203850174395</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2.0268895213531741</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2.315808366790257E-2</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2188465241314856E-2</v>
-      </c>
-      <c r="O11" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="K16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N16" s="7"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N21" s="7"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N24" s="7"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N25" s="7"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N26" s="7"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N27" s="7"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N28" s="7"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N29" s="7"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N30" s="7"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N31" s="7"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="8"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N33" s="7"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N34" s="7"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="8"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N36" s="7"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N37" s="7"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N38" s="7"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N39" s="7"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="8"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N40" s="7"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="8"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N41" s="7"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="8"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N42" s="7"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="8"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N43" s="7"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="8"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N44" s="7"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N45" s="7"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N46" s="7"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="8"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N47" s="7"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="8"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N48" s="7"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N49" s="7"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N50" s="7"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N51" s="7"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N52" s="7"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N53" s="7"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N54" s="7"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="8"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N55" s="7"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="8"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N56" s="7"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="8"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N57" s="7"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="8"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N58" s="7"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="6"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="8"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N59" s="7"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="8"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N60" s="7"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="6"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="8"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N61" s="7"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="8"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="8"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N62" s="7"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="6"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="8"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N63" s="7"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="6"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="8"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N64" s="7"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="8"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N65" s="7"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="8"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="8"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N66" s="7"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="6"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="8"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N67" s="7"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="6"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="8"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N68" s="7"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="6"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="8"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N69" s="7"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="6"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="8"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N70" s="7"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="6"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="8"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N71" s="7"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="6"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="8"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N72" s="7"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="6"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="8"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N73" s="7"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="5"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="6"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="8"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N74" s="7"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="8"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N75" s="7"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="5"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="6"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="8"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N76" s="7"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="8"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N77" s="7"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="8"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N78" s="7"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="6"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="8"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N79" s="7"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="6"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="8"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N80" s="7"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="6"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="8"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N81" s="7"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="6"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="8"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N82" s="7"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="6"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N83" s="7"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="8"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N84" s="7"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="6"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="8"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N85" s="7"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="6"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="8"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N86" s="7"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="5"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="6"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="8"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N87" s="7"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="5"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="6"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="8"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N88" s="7"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="6"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="8"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N89" s="7"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="6"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="8"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N90" s="7"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="6"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="8"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N91" s="7"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="6"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="8"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N92" s="7"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="6"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="8"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N93" s="7"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="5"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="6"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N94" s="7"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="7"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="6"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N95" s="7"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="6"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="8"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N96" s="7"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="7"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="6"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="8"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N97" s="7"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="5"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="6"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="8"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N98" s="7"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="7"/>
+      <c r="E99" s="5"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="6"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="8"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N99" s="7"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="6"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="8"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N100" s="7"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="7"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="6"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="8"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N101" s="7"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="6"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="8"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N102" s="7"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="6"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="8"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N103" s="7"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="5"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="6"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="8"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N104" s="7"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="6"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="8"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N105" s="7"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="8"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="7"/>
+      <c r="E106" s="5"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="6"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="8"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N106" s="7"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="7"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="6"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="8"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N107" s="7"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="7"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="6"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="8"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N108" s="7"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="7"/>
+      <c r="E109" s="5"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="6"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="8"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N109" s="7"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="7"/>
+      <c r="E110" s="5"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="6"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="8"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N110" s="7"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="6"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="8"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N111" s="7"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="5"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="6"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="8"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N112" s="7"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="7"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="6"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="8"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N113" s="7"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="7"/>
+      <c r="E114" s="5"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="6"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="8"/>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N114" s="7"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="8"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="6"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="8"/>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N115" s="7"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="8"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="7"/>
+      <c r="E116" s="5"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="6"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="8"/>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N116" s="7"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="8"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="7"/>
+      <c r="E117" s="5"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="6"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="8"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N117" s="7"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="8"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
-      <c r="E118" s="7"/>
+      <c r="E118" s="5"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="6"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="8"/>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N118" s="7"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="8"/>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
-      <c r="E119" s="7"/>
+      <c r="E119" s="5"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="6"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="8"/>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N119" s="7"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="8"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="7"/>
+      <c r="E120" s="5"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="6"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="8"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N120" s="7"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="7"/>
+      <c r="E121" s="5"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="6"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="8"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N121" s="7"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="8"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="7"/>
+      <c r="E122" s="5"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="6"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="8"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N122" s="7"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="8"/>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
-      <c r="E123" s="7"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="6"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="8"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N123" s="7"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="8"/>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
-      <c r="E124" s="7"/>
+      <c r="E124" s="5"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="6"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="8"/>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N124" s="7"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="8"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
-      <c r="E125" s="7"/>
+      <c r="E125" s="5"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="6"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="8"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N125" s="7"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="8"/>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
-      <c r="E126" s="7"/>
+      <c r="E126" s="5"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="6"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="8"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N126" s="7"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="8"/>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="7"/>
+      <c r="E127" s="5"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="6"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="8"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N127" s="7"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="8"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
-      <c r="E128" s="7"/>
+      <c r="E128" s="5"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="6"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="8"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N128" s="7"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="8"/>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="7"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="6"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="8"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N129" s="7"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="8"/>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="7"/>
+      <c r="E130" s="5"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="6"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="8"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N130" s="7"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="8"/>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="7"/>
+      <c r="E131" s="5"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="7"/>
+      <c r="I131" s="7"/>
+      <c r="J131" s="6"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="8"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N131" s="7"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="8"/>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="7"/>
+      <c r="E132" s="5"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="6"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="8"/>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N132" s="7"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="8"/>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="7"/>
+      <c r="E133" s="5"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="6"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="8"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N133" s="7"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="8"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="7"/>
+      <c r="E134" s="5"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="7"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="6"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="8"/>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N134" s="7"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="8"/>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="7"/>
+      <c r="E135" s="5"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="6"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="8"/>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N135" s="7"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="8"/>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="7"/>
+      <c r="E136" s="5"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="7"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="6"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="8"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N136" s="7"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="7"/>
+      <c r="E137" s="5"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="6"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="8"/>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N137" s="7"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="8"/>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="7"/>
+      <c r="E138" s="5"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="6"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="8"/>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N138" s="7"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="8"/>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="7"/>
+      <c r="E139" s="5"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="6"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="8"/>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N139" s="7"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="8"/>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="7"/>
+      <c r="E140" s="5"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="6"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="8"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N140" s="7"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="8"/>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="7"/>
+      <c r="E141" s="5"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="7"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="6"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="8"/>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N141" s="7"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="8"/>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
-      <c r="E142" s="7"/>
+      <c r="E142" s="5"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="6"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="8"/>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N142" s="7"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="8"/>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
-      <c r="E143" s="7"/>
+      <c r="E143" s="5"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="6"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="8"/>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N143" s="7"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="7"/>
+      <c r="E144" s="5"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="6"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="8"/>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N144" s="7"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="8"/>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
-      <c r="E145" s="7"/>
+      <c r="E145" s="5"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="6"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="8"/>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N145" s="7"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="8"/>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="7"/>
+      <c r="E146" s="5"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="6"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="8"/>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N146" s="7"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="8"/>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="7"/>
+      <c r="E147" s="5"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="6"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="8"/>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N147" s="7"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="8"/>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="7"/>
+      <c r="E148" s="5"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="6"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="8"/>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N148" s="7"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="8"/>
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="7"/>
+      <c r="E149" s="5"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="6"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="8"/>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N149" s="7"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="8"/>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="7"/>
+      <c r="E150" s="5"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="6"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="8"/>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N150" s="7"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="8"/>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="7"/>
+      <c r="E151" s="5"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="6"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="8"/>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N151" s="7"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="8"/>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="7"/>
+      <c r="E152" s="5"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="6"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="8"/>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N152" s="7"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="7"/>
+      <c r="E153" s="5"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="6"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="8"/>
-    </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N153" s="7"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="8"/>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="7"/>
+      <c r="E154" s="5"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="6"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="8"/>
-    </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N154" s="7"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="8"/>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="7"/>
+      <c r="E155" s="5"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="6"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="8"/>
-    </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N155" s="7"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="8"/>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="7"/>
+      <c r="E156" s="5"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="6"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="8"/>
-    </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N156" s="7"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="8"/>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="7"/>
+      <c r="E157" s="5"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="6"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="8"/>
-    </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N157" s="7"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="8"/>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="7"/>
+      <c r="E158" s="5"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="6"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="8"/>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N158" s="7"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="8"/>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="7"/>
+      <c r="E159" s="5"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="6"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="8"/>
-    </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N159" s="7"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="8"/>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="7"/>
+      <c r="E160" s="5"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="6"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="8"/>
-    </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N160" s="7"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="8"/>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="7"/>
+      <c r="E161" s="5"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="6"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="8"/>
-    </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N161" s="7"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="8"/>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="7"/>
+      <c r="E162" s="5"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="6"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="8"/>
-    </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N162" s="7"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="8"/>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="7"/>
+      <c r="E163" s="5"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="6"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="8"/>
-    </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N163" s="7"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="8"/>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="7"/>
+      <c r="E164" s="5"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="6"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="8"/>
-    </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N164" s="7"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="8"/>
+    </row>
+    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="7"/>
+      <c r="E165" s="5"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="6"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="8"/>
-    </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N165" s="7"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="8"/>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="7"/>
+      <c r="E166" s="5"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="6"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="8"/>
-    </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N166" s="7"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="8"/>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="7"/>
+      <c r="E167" s="5"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="6"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="8"/>
-    </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N167" s="7"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="8"/>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="7"/>
+      <c r="E168" s="5"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="6"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="8"/>
-    </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N168" s="7"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="7"/>
+      <c r="E169" s="5"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="6"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="8"/>
-    </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N169" s="7"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="8"/>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="7"/>
+      <c r="E170" s="5"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="6"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
-      <c r="N170" s="6"/>
-      <c r="O170" s="8"/>
-    </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N170" s="7"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="8"/>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="7"/>
+      <c r="E171" s="5"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="6"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="8"/>
-    </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N171" s="7"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="8"/>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="7"/>
+      <c r="E172" s="5"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="6"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="8"/>
-    </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N172" s="7"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="8"/>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="7"/>
+      <c r="E173" s="5"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="6"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
-      <c r="N173" s="6"/>
-      <c r="O173" s="8"/>
-    </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N173" s="7"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="8"/>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="7"/>
+      <c r="E174" s="5"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="6"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="8"/>
-    </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N174" s="7"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="8"/>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="7"/>
+      <c r="E175" s="5"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="6"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="8"/>
-    </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N175" s="7"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="8"/>
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="7"/>
+      <c r="E176" s="5"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="6"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="8"/>
-    </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N176" s="7"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="8"/>
+    </row>
+    <row r="177" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
-      <c r="E177" s="7"/>
+      <c r="E177" s="5"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="6"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="8"/>
-    </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N177" s="7"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="8"/>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
-      <c r="E178" s="7"/>
+      <c r="E178" s="5"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="6"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="8"/>
-    </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N178" s="7"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="8"/>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="7"/>
+      <c r="E179" s="5"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="6"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="8"/>
-    </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N179" s="7"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="8"/>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="7"/>
+      <c r="E180" s="5"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="6"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="8"/>
-    </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N180" s="7"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="8"/>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
-      <c r="E181" s="7"/>
+      <c r="E181" s="5"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="6"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="8"/>
-    </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N181" s="7"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="8"/>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="7"/>
+      <c r="E182" s="5"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="6"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="8"/>
-    </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N182" s="7"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="7"/>
+      <c r="E183" s="5"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="6"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
-      <c r="N183" s="6"/>
-      <c r="O183" s="8"/>
-    </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N183" s="7"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="8"/>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
-      <c r="E184" s="7"/>
+      <c r="E184" s="5"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="6"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="8"/>
-    </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N184" s="7"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="8"/>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
-      <c r="E185" s="7"/>
+      <c r="E185" s="5"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="6"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="8"/>
-    </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N185" s="7"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="7"/>
+      <c r="E186" s="5"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="6"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="8"/>
-    </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N186" s="7"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="8"/>
+    </row>
+    <row r="187" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
-      <c r="E187" s="7"/>
+      <c r="E187" s="5"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="6"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="8"/>
-    </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N187" s="7"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="8"/>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
-      <c r="E188" s="7"/>
+      <c r="E188" s="5"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="6"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="8"/>
-    </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N188" s="7"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="8"/>
+    </row>
+    <row r="189" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
-      <c r="E189" s="7"/>
+      <c r="E189" s="5"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="6"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="8"/>
-    </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N189" s="7"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="8"/>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="7"/>
+      <c r="E190" s="5"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="6"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="6"/>
-      <c r="O190" s="8"/>
-    </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N190" s="7"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="8"/>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
-      <c r="E191" s="7"/>
+      <c r="E191" s="5"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="6"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
-      <c r="N191" s="6"/>
-      <c r="O191" s="8"/>
-    </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N191" s="7"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="8"/>
+    </row>
+    <row r="192" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
-      <c r="E192" s="7"/>
+      <c r="E192" s="5"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="6"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
-      <c r="N192" s="6"/>
-      <c r="O192" s="8"/>
-    </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N192" s="7"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
-      <c r="E193" s="7"/>
+      <c r="E193" s="5"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="6"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
-      <c r="N193" s="6"/>
-      <c r="O193" s="8"/>
-    </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N193" s="7"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="8"/>
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="7"/>
+      <c r="E194" s="5"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="6"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
-      <c r="N194" s="6"/>
-      <c r="O194" s="8"/>
-    </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N194" s="7"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="8"/>
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
-      <c r="E195" s="7"/>
+      <c r="E195" s="5"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="6"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
-      <c r="N195" s="6"/>
-      <c r="O195" s="8"/>
-    </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N195" s="7"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="8"/>
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
-      <c r="E196" s="7"/>
+      <c r="E196" s="5"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="6"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="8"/>
-    </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N196" s="7"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="8"/>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
-      <c r="E197" s="7"/>
+      <c r="E197" s="5"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="6"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
-      <c r="N197" s="6"/>
-      <c r="O197" s="8"/>
-    </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N197" s="7"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="8"/>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="7"/>
+      <c r="E198" s="5"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="6"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="8"/>
-    </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N198" s="7"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="8"/>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="7"/>
+      <c r="E199" s="5"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="6"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
-      <c r="N199" s="6"/>
-      <c r="O199" s="8"/>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N199" s="7"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="8"/>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
-      <c r="E200" s="7"/>
+      <c r="E200" s="5"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="6"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
-      <c r="N200" s="6"/>
-      <c r="O200" s="8"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:O4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:O11">
-      <sortCondition descending="1" ref="I4"/>
+  <autoFilter ref="B4:P4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P11">
+      <sortCondition descending="1" ref="J4"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="G3:K3"/>
+  <mergeCells count="2">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4816,7 +5002,7 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4824,7 +5010,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="64">
         <v>44902</v>
@@ -4833,22 +5019,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="63"/>
       <c r="F3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="66"/>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -4859,39 +5045,39 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="F7" s="7">
         <v>2.2999999999999998</v>
@@ -6855,7 +7041,7 @@
   <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6871,19 +7057,19 @@
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="37">
         <v>3.8399999999999997E-2</v>
@@ -6894,7 +7080,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="48">
         <v>1.584E-2</v>
@@ -6907,20 +7093,20 @@
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="45">
         <f>D3-D4</f>
@@ -6933,7 +7119,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="46">
         <f>D45</f>
@@ -6947,7 +7133,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="58">
         <v>4.4999999999999998E-2</v>
@@ -6959,7 +7145,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="56">
         <v>0</v>
@@ -6972,7 +7158,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="43">
         <f>IF(C37=4,1.2, IF(C37=-4,1.1,1))</f>
@@ -6994,7 +7180,7 @@
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="67">
@@ -7006,7 +7192,7 @@
     <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="50" t="str">
@@ -7022,7 +7208,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="49"/>
@@ -7032,87 +7218,87 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" ref="C17:E20" si="0">IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="23">
         <f>IF(LEFT(D21,1)="H",2,IF(LEFT(D21,1)="C",-1,0))</f>
@@ -7134,87 +7320,87 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="23">
         <f t="shared" ref="C22:E25" si="1">IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="23">
         <f>IF(LEFT(D26,1)="H",2,IF(LEFT(D26,1)="C",-1,0))</f>
@@ -7236,87 +7422,87 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="23">
         <f t="shared" ref="C27:E30" si="2">IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E29" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E30" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C31" s="23">
         <f>IF(LEFT(D31,1)="H",2,IF(LEFT(D31,1)="C",-1,0))</f>
@@ -7338,87 +7524,87 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="23">
         <f t="shared" ref="C32:E35" si="3">IF(LEFT(D32,1)="H",1,IF(LEFT(D32,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C34" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E34" s="23">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E35" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="23">
         <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",-1,0))</f>
@@ -7440,7 +7626,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C37" s="42">
         <f>SUM(C21,C26,C31,C36)</f>
@@ -7465,40 +7651,40 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" s="36">
         <f>IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E40" s="36">
         <f>IF(LEFT(F40,1)="H",2,IF(LEFT(F40,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C41" s="36">
         <f t="shared" ref="C41:E44" si="4">IF(LEFT(D41,1)="H",2,IF(LEFT(D41,1)="C",0,1))</f>
@@ -7519,7 +7705,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
@@ -7540,7 +7726,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="36">
         <f t="shared" si="4"/>
@@ -7561,7 +7747,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C44" s="36">
         <f t="shared" si="4"/>
@@ -7582,7 +7768,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="44">
         <f>SUM(C40:C44)/10</f>
@@ -7603,12 +7789,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C38F7F-A92D-490C-8D0A-6D3492C5A3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D838BF1-88B5-4C3B-9E0A-1546B9CBD4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -61,12 +61,6 @@
     <t>Realizable VPS</t>
   </si>
   <si>
-    <t>Non-op. Assets</t>
-  </si>
-  <si>
-    <t>LFY Dividend Yield</t>
-  </si>
-  <si>
     <t>Next Result Date</t>
   </si>
   <si>
@@ -80,12 +74,6 @@
   </si>
   <si>
     <t>HKD</t>
-  </si>
-  <si>
-    <t>1475.HK</t>
-  </si>
-  <si>
-    <t>NISSIN FOODS</t>
   </si>
   <si>
     <t>Current Holdings Monitor</t>
@@ -393,15 +381,6 @@
     <t>KERRY PPT</t>
   </si>
   <si>
-    <t>0697.HK</t>
-  </si>
-  <si>
-    <t>SHOUCHENG</t>
-  </si>
-  <si>
-    <t>op. Assets</t>
-  </si>
-  <si>
     <t>Asset Value</t>
   </si>
   <si>
@@ -411,15 +390,6 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>0019.HK</t>
-  </si>
-  <si>
-    <t>SWIRE PACIFIC A</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>0083.HK</t>
   </si>
   <si>
@@ -429,10 +399,19 @@
     <t>Real Estate</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
+    <t>Net Non-Op</t>
+  </si>
+  <si>
+    <t>Op. Assets</t>
+  </si>
+  <si>
+    <t>LFY Dividend</t>
+  </si>
+  <si>
+    <t>1972.HK</t>
+  </si>
+  <si>
+    <t>SWIREPROPERTIES</t>
   </si>
 </sst>
 </file>
@@ -577,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1015,6 +1000,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,15 +1355,17 @@
   <dimension ref="A2:P200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="4" width="14.453125" customWidth="1"/>
+    <col min="2" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" hidden="1" customWidth="1"/>
     <col min="5" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="15" width="14.453125" customWidth="1"/>
+    <col min="8" max="13" width="14.453125" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="14.453125" customWidth="1"/>
     <col min="16" max="16" width="16.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1400,17 +1390,17 @@
       <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1420,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
@@ -1431,11 +1421,11 @@
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="60" t="s">
         <v>100</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
@@ -1447,61 +1437,61 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7">
-        <v>67.849998474121094</v>
+        <v>10.199999809265137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H10" si="0">F5-I5</f>
-        <v>9.9346041848087197</v>
+        <f>F5-I5</f>
+        <v>4.8969228596705037</v>
       </c>
       <c r="I5" s="7">
-        <v>57.915394289312374</v>
+        <v>5.303076949594633</v>
       </c>
       <c r="J5" s="6">
-        <v>1.7754474165995791</v>
+        <v>0.21431272400196813</v>
       </c>
       <c r="K5" s="7">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="L5" s="7">
-        <v>123.30332717265573</v>
+        <v>12.732006873311873</v>
       </c>
       <c r="M5" s="7">
-        <v>221.54660298901871</v>
+        <v>10.533252019479391</v>
       </c>
       <c r="N5" s="7">
-        <v>63.611664983544401</v>
+        <v>19.628261569994095</v>
       </c>
       <c r="O5" s="6">
-        <v>3.0467645422667045E-2</v>
+        <v>3.7138250391206357E-2</v>
       </c>
       <c r="P5" s="8">
         <v>45001</v>
@@ -1509,47 +1499,47 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>10.279999732971191</v>
+        <v>20.5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9769227833765584</v>
+        <f>F6-I6</f>
+        <v>3.7958895743863792</v>
       </c>
       <c r="I6" s="7">
-        <v>5.303076949594633</v>
+        <v>16.704110425613621</v>
       </c>
       <c r="J6" s="6">
-        <v>0.20278898513166549</v>
+        <v>0.3735588650440953</v>
       </c>
       <c r="K6" s="7">
-        <v>10</v>
+        <v>17.28</v>
       </c>
       <c r="L6" s="7">
-        <v>12.732006873311873</v>
+        <v>27.975883710030505</v>
       </c>
       <c r="M6" s="7">
-        <v>19.628261569994095</v>
+        <v>22.854887685632036</v>
       </c>
       <c r="N6" s="7">
-        <v>10.533252019479391</v>
+        <v>88.264955272628072</v>
       </c>
       <c r="O6" s="6">
-        <v>3.6849237037602484E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="P6" s="8">
         <v>45001</v>
@@ -1557,197 +1547,114 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7">
-        <v>20.600000381469727</v>
+        <v>21.850000381469727</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>9.4734781125726144</v>
+        <f>F7-I7</f>
+        <v>-8.0901652308962895</v>
       </c>
       <c r="I7" s="7">
-        <v>11.126522268897112</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-6.9052825115742955E-3</v>
-      </c>
+        <v>29.940165612366016</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="7">
-        <v>17.28</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7">
-        <v>22.398295553313996</v>
+        <v>43.321863507906812</v>
       </c>
       <c r="M7" s="7">
-        <v>88.264955272628072</v>
+        <v>30.215789550020695</v>
       </c>
       <c r="N7" s="7">
-        <v>17.277299528915517</v>
+        <v>50.125813062581891</v>
       </c>
       <c r="O7" s="6">
-        <v>0.17781826159269129</v>
+        <v>4.2113086692893716E-2</v>
       </c>
       <c r="P7" s="8">
         <v>45001</v>
       </c>
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.7899999618530273</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.98870450281007183</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.80129545904295552</v>
-      </c>
-      <c r="J8" s="6">
-        <v>-0.1514963034342135</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1.5973225559640984</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1.4770020418420613</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0.99377396777125215</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="6">
-        <v>5.3742448752255277E-2</v>
+        <v>5.528677051101695E-2</v>
       </c>
       <c r="P8" s="8">
         <v>45001</v>
       </c>
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3.2200000286102295</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5347084809451186</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1.6852915476651109</v>
-      </c>
-      <c r="J9" s="6">
-        <v>-0.19863309644208355</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1.95</v>
-      </c>
-      <c r="L9" s="7">
-        <v>2.5933934417545887</v>
-      </c>
-      <c r="M9" s="7">
-        <v>2.5451302939590383</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1.9610728132121873</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="6">
-        <v>0.10723007889236574</v>
+        <v>0.10996205272796702</v>
       </c>
       <c r="P9" s="8">
         <v>45001</v>
       </c>
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6.8499999046325684</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>6.2726984761467675</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.57730142848580079</v>
-      </c>
-      <c r="J10" s="6">
-        <v>-0.11019497191780214</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="L10" s="7">
-        <v>6.6096946305743813</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3.7817168512752537</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2.1139700509567434</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="6">
-        <v>2.1001006800062248E-2</v>
+        <v>2.1249172080193519E-2</v>
       </c>
       <c r="P10" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1761,10 +1668,14 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O11" s="6">
+        <v>5.8859502535343992E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1778,10 +1689,14 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1795,8 +1710,12 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="8"/>
+      <c r="O13" s="6">
+        <v>2.2000179208441571E-2</v>
+      </c>
+      <c r="P13" s="8">
+        <v>45001</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
@@ -4980,7 +4899,7 @@
     <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5002,7 +4921,7 @@
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -5010,31 +4929,31 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="64">
+        <v>17</v>
+      </c>
+      <c r="I2" s="65">
         <v>44902</v>
       </c>
-      <c r="J2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+        <v>18</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -5045,39 +4964,39 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F7" s="7">
         <v>2.2999999999999998</v>
@@ -7057,19 +6976,19 @@
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" s="37">
         <v>3.8399999999999997E-2</v>
@@ -7080,7 +6999,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="48">
         <v>1.584E-2</v>
@@ -7093,20 +7012,20 @@
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
       <c r="B6" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="45">
         <f>D3-D4</f>
@@ -7119,7 +7038,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D8" s="46">
         <f>D45</f>
@@ -7133,7 +7052,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="54" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="58">
         <v>4.4999999999999998E-2</v>
@@ -7145,7 +7064,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="56">
         <v>0</v>
@@ -7158,7 +7077,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="43">
         <f>IF(C37=4,1.2, IF(C37=-4,1.1,1))</f>
@@ -7180,19 +7099,19 @@
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="67">
+      <c r="D13" s="68">
         <v>0.1</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="50" t="str">
@@ -7208,7 +7127,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="49"/>
@@ -7218,87 +7137,87 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" ref="C17:E20" si="0">IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C20" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="23">
         <f>IF(LEFT(D21,1)="H",2,IF(LEFT(D21,1)="C",-1,0))</f>
@@ -7320,87 +7239,87 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="23">
         <f t="shared" ref="C22:E25" si="1">IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="23">
         <f>IF(LEFT(D26,1)="H",2,IF(LEFT(D26,1)="C",-1,0))</f>
@@ -7422,87 +7341,87 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="23">
         <f t="shared" ref="C27:E30" si="2">IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
       <c r="B30" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E30" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C31" s="23">
         <f>IF(LEFT(D31,1)="H",2,IF(LEFT(D31,1)="C",-1,0))</f>
@@ -7524,87 +7443,87 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C32" s="23">
         <f t="shared" ref="C32:E35" si="3">IF(LEFT(D32,1)="H",1,IF(LEFT(D32,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E32" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C33" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E33" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
       <c r="B34" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34" s="23">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C35" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E35" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" s="23">
         <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",-1,0))</f>
@@ -7626,7 +7545,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C37" s="42">
         <f>SUM(C21,C26,C31,C36)</f>
@@ -7651,40 +7570,40 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20"/>
       <c r="B39" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="39" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C40" s="36">
         <f>IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E40" s="36">
         <f>IF(LEFT(F40,1)="H",2,IF(LEFT(F40,1)="C",0,1))</f>
         <v>0</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C41" s="36">
         <f t="shared" ref="C41:E44" si="4">IF(LEFT(D41,1)="H",2,IF(LEFT(D41,1)="C",0,1))</f>
@@ -7705,7 +7624,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
@@ -7726,7 +7645,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" s="36">
         <f t="shared" si="4"/>
@@ -7747,7 +7666,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C44" s="36">
         <f t="shared" si="4"/>
@@ -7768,7 +7687,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C45" s="44">
         <f>SUM(C40:C44)/10</f>
@@ -7789,12 +7708,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\InvestmentManagement\financial_models\Opportunities\Monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D838BF1-88B5-4C3B-9E0A-1546B9CBD4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F2664-FB8F-40C0-B57D-723189FA7E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -131,35 +131,6 @@
   </si>
   <si>
     <t>+ Interest Rate Risk Premium</t>
-  </si>
-  <si>
-    <t>+ Long-term ERP</t>
-  </si>
-  <si>
-    <t>+ Country Risk Premium</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Market Discount rate (Min. 6%)</t>
-    </r>
   </si>
   <si>
     <t>Required Margin of Safety:</t>
@@ -413,6 +384,25 @@
   <si>
     <t>SWIREPROPERTIES</t>
   </si>
+  <si>
+    <t>Hot - Stimulative</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">⇒ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Adj. Rf</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,25 +509,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -556,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -988,25 +970,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1024,7 +997,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1331,7 @@
   </sheetPr>
   <dimension ref="A2:P200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
@@ -1390,17 +1367,17 @@
       <c r="P2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="62"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="57"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1410,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
@@ -1421,11 +1398,11 @@
       <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>100</v>
+      <c r="H4" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
@@ -1440,10 +1417,10 @@
         <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>11</v>
@@ -1451,13 +1428,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -1499,13 +1476,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -1547,13 +1524,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -4931,17 +4908,17 @@
       <c r="H2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="65">
+      <c r="I2" s="60">
         <v>44902</v>
       </c>
-      <c r="J2" s="65"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
@@ -4950,8 +4927,8 @@
       <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
@@ -6957,10 +6934,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
-  <dimension ref="A2:F48"/>
+  <dimension ref="A2:F46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7041,259 +7018,279 @@
         <v>34</v>
       </c>
       <c r="D8" s="46">
-        <f>D45</f>
+        <f>D43</f>
         <v>1.7424000000000002E-2</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="40">
-        <f>F45</f>
-        <v>1.274E-2</v>
+        <f>F43</f>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="43">
+        <f>IF(C35=4,1.2, IF(C35=-4,1.1,1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="51">
+        <f>SUM(D7:D8)</f>
+        <v>3.9983999999999999E-2</v>
+      </c>
+      <c r="E9" s="53">
+        <f>IF(E35=4,1.2, IF(E35=-4,1.1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="51">
+        <f>SUM(F7:F8)</f>
+        <v>3.3950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="58">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56">
-        <f>F3/2</f>
-        <v>1.4525E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="43">
-        <f>IF(C37=4,1.2, IF(C37=-4,1.1,1))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11" s="51">
-        <f>MAX((D7+D8)*C11+D9,6%)+D10</f>
-        <v>8.8982400000000003E-2</v>
-      </c>
-      <c r="E11" s="53">
-        <f>IF(E37=4,1.2, IF(E37=-4,1.1,1))</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="51">
-        <f>MAX((F7+F8)*E11+F9,6%)+F10</f>
-        <v>9.1514999999999999E-2</v>
+      <c r="C11" s="15"/>
+      <c r="D11" s="55">
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65">
+        <f>D11+0.02</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
-      <c r="B13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="50" t="str">
+      <c r="B13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="50" t="str">
         <f>D6</f>
         <v>US</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="4" t="str">
+      <c r="E13" s="50"/>
+      <c r="F13" s="4" t="str">
         <f>F6</f>
         <v>China</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="23">
+        <f t="shared" ref="C15:E18" si="0">IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="23">
-        <f t="shared" ref="C17:E20" si="0">IF(LEFT(D17,1)="H",1,IF(LEFT(D17,1)="C",-1,0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>42</v>
+      <c r="D17" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>42</v>
+      <c r="F17" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
-      <c r="B18" s="22" t="s">
-        <v>43</v>
+      <c r="B18" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>44</v>
+      <c r="D18" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="22" t="s">
-        <v>46</v>
+      <c r="B19" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" si="0"/>
+        <f>IF(LEFT(D19,1)="H",2,IF(LEFT(D19,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>47</v>
+      <c r="D19" s="29" t="str">
+        <f>IF(SUM(C15:C18)&gt;=3, "Hot", IF(SUM(C15:C18)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>47</v>
+        <f>IF(LEFT(F19,1)="H",2,IF(LEFT(F19,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="29" t="str">
+        <f>IF(SUM(E15:E18)&gt;=3, "Hot", IF(SUM(E15:E18)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
-      <c r="B20" s="20" t="s">
-        <v>48</v>
+      <c r="B20" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C20:E23" si="1">IF(LEFT(D20,1)="H",1,IF(LEFT(D20,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>49</v>
+      <c r="D20" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="27" t="s">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="23">
-        <f>IF(LEFT(D21,1)="H",2,IF(LEFT(D21,1)="C",-1,0))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D21" s="29" t="str">
-        <f>IF(SUM(C17:C20)&gt;=3, "Hot", IF(SUM(C17:C20)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D21" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="E21" s="23">
-        <f>IF(LEFT(F21,1)="H",2,IF(LEFT(F21,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="29" t="str">
-        <f>IF(SUM(E17:E20)&gt;=3, "Hot", IF(SUM(E17:E20)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" ref="C22:E25" si="1">IF(LEFT(D22,1)="H",1,IF(LEFT(D22,1)="C",-1,0))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>53</v>
+      <c r="D22" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>55</v>
+      <c r="D23" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>55</v>
+      <c r="F23" s="27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
-      <c r="B24" s="22" t="s">
-        <v>56</v>
+      <c r="B24" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" si="1"/>
+        <f>IF(LEFT(D24,1)="H",2,IF(LEFT(D24,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>57</v>
+      <c r="D24" s="30" t="str">
+        <f>IF(SUM(C20:C23)&gt;=3, "Hot", IF(SUM(C20:C23)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
       <c r="E24" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>50</v>
+        <f>IF(LEFT(F24,1)="H",2,IF(LEFT(F24,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="30" t="str">
+        <f>IF(SUM(E20:E23)&gt;=3, "Hot", IF(SUM(E20:E23)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -7302,100 +7299,100 @@
         <v>58</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C25:E28" si="2">IF(LEFT(D25,1)="H",1,IF(LEFT(D25,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>59</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
-      <c r="B26" s="28" t="s">
-        <v>60</v>
+      <c r="B26" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="23">
-        <f>IF(LEFT(D26,1)="H",2,IF(LEFT(D26,1)="C",-1,0))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="D26" s="30" t="str">
-        <f>IF(SUM(C22:C25)&gt;=3, "Hot", IF(SUM(C22:C25)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D26" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="E26" s="23">
-        <f>IF(LEFT(F26,1)="H",2,IF(LEFT(F26,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F26" s="30" t="str">
-        <f>IF(SUM(E22:E25)&gt;=3, "Hot", IF(SUM(E22:E25)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="23">
-        <f t="shared" ref="C27:E30" si="2">IF(LEFT(D27,1)="H",1,IF(LEFT(D27,1)="C",-1,0))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E27" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
-      <c r="B29" s="22" t="s">
-        <v>66</v>
+      <c r="B29" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" si="2"/>
+        <f>IF(LEFT(D29,1)="H",2,IF(LEFT(D29,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>67</v>
+      <c r="D29" s="30" t="str">
+        <f>IF(SUM(C25:C28)&gt;=3, "Hot", IF(SUM(C25:C28)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
       <c r="E29" s="23">
-        <f t="shared" si="2"/>
+        <f>IF(LEFT(F29,1)="H",2,IF(LEFT(F29,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>50</v>
+      <c r="F29" s="30" t="str">
+        <f>IF(SUM(E25:E28)&gt;=3, "Hot", IF(SUM(E25:E28)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -7404,377 +7401,332 @@
         <v>68</v>
       </c>
       <c r="C30" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C30:E33" si="3">IF(LEFT(D30,1)="H",1,IF(LEFT(D30,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
-      <c r="B31" s="28" t="s">
-        <v>70</v>
+      <c r="B31" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="23">
-        <f>IF(LEFT(D31,1)="H",2,IF(LEFT(D31,1)="C",-1,0))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="D31" s="30" t="str">
-        <f>IF(SUM(C27:C30)&gt;=3, "Hot", IF(SUM(C27:C30)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D31" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="E31" s="23">
-        <f>IF(LEFT(F31,1)="H",2,IF(LEFT(F31,1)="C",-1,0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F31" s="30" t="str">
-        <f>IF(SUM(E27:E30)&gt;=3, "Hot", IF(SUM(E27:E30)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
+      <c r="F31" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" s="23">
-        <f t="shared" ref="C32:E35" si="3">IF(LEFT(D32,1)="H",1,IF(LEFT(D32,1)="C",-1,0))</f>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E32" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="23">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
-      <c r="B34" s="22" t="s">
-        <v>76</v>
+      <c r="B34" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="23">
-        <f t="shared" si="3"/>
+        <f>IF(LEFT(D34,1)="H",2,IF(LEFT(D34,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D34" s="30" t="str">
+        <f>IF(SUM(C30:C33)&gt;=3, "Hot", IF(SUM(C30:C33)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E34" s="23">
+        <f>IF(LEFT(F34,1)="H",2,IF(LEFT(F34,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>77</v>
+      <c r="F34" s="30" t="str">
+        <f>IF(SUM(E30:E33)&gt;=3, "Hot", IF(SUM(E30:E33)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="23">
-        <f t="shared" si="3"/>
+      <c r="C35" s="42">
+        <f>SUM(C19,C24,C29,C34)</f>
+        <v>-4</v>
+      </c>
+      <c r="D35" s="32" t="str">
+        <f>IF(OR(C35=4,C35=-4),"In extreme",IF(C35=0,"In equilibrium",IF(OR(C35&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>In extreme</v>
+      </c>
+      <c r="E35" s="42">
+        <f>SUM(E19,E24,E29,E34)</f>
         <v>-1</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>50</v>
+      <c r="F35" s="32" t="str">
+        <f>IF(OR(E35=4,E35=-4),"In extreme",IF(E35=0,"In equilibrium",IF(OR(E35&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>Relatively pessimistic</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
-      <c r="B36" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="23">
-        <f>IF(LEFT(D36,1)="H",2,IF(LEFT(D36,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D36" s="30" t="str">
-        <f>IF(SUM(C32:C35)&gt;=3, "Hot", IF(SUM(C32:C35)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E36" s="23">
-        <f>IF(LEFT(F36,1)="H",2,IF(LEFT(F36,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="30" t="str">
-        <f>IF(SUM(E32:E35)&gt;=3, "Hot", IF(SUM(E32:E35)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
-      <c r="B37" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="42">
-        <f>SUM(C21,C26,C31,C36)</f>
-        <v>-4</v>
-      </c>
-      <c r="D37" s="32" t="str">
-        <f>IF(OR(C37=4,C37=-4),"In extreme",IF(C37=0,"In equilibrium",IF(OR(C37&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>In extreme</v>
-      </c>
-      <c r="E37" s="42">
-        <f>SUM(E21,E26,E31,E36)</f>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="32" t="str">
-        <f>IF(OR(E37=4,E37=-4),"In extreme",IF(E37=0,"In equilibrium",IF(OR(E37&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>Relatively pessimistic</v>
+      <c r="B37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="39" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="36">
+        <f>IF(LEFT(D38,1)="H",2,IF(LEFT(D38,1)="C",0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="36">
+        <f>IF(LEFT(F38,1)="H",2,IF(LEFT(F38,1)="C",0,1))</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="39" t="s">
-        <v>29</v>
+      <c r="C39" s="36">
+        <f t="shared" ref="C39:E42" si="4">IF(LEFT(D39,1)="H",2,IF(LEFT(D39,1)="C",0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="31" t="str">
+        <f>IF(D4&gt;=3%, "Hot - High", IF(D4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>Mixed - Dormant</v>
+      </c>
+      <c r="E39" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="31" t="str">
+        <f>IF(F4&gt;=3%, "Hot - High", IF(F4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+        <v>Cold - Low</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="36">
-        <f>IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>84</v>
+      <c r="D40" s="31" t="str">
+        <f>D16</f>
+        <v>Cold - Negative</v>
       </c>
       <c r="E40" s="36">
-        <f>IF(LEFT(F40,1)="H",2,IF(LEFT(F40,1)="C",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F40" s="31" t="str">
+        <f>F16</f>
+        <v>Hot - Positive</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="36">
-        <f t="shared" ref="C41:E44" si="4">IF(LEFT(D41,1)="H",2,IF(LEFT(D41,1)="C",0,1))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="D41" s="31" t="str">
-        <f>IF(D4&gt;=3%, "Hot - High", IF(D4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Mixed - Dormant</v>
+        <f>D22</f>
+        <v>Cold - High</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="31" t="str">
-        <f>IF(F4&gt;=3%, "Hot - High", IF(F4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Cold - Low</v>
+        <f>F22</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D42" s="31" t="str">
-        <f>D18</f>
-        <v>Cold - Negative</v>
+        <f>D23</f>
+        <v>Cold - Wide</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" s="31" t="str">
-        <f>F18</f>
-        <v>Hot - Positive</v>
+        <f>F23</f>
+        <v>Cold - Wide</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="44">
+        <f>SUM(C38:C42)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="51">
+        <f>D4*(1+C43)</f>
+        <v>1.7424000000000002E-2</v>
+      </c>
+      <c r="E43" s="52">
+        <f>SUM(E38:E42)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="51">
+        <f>F4*(1+E43)</f>
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="31" t="str">
-        <f>D24</f>
-        <v>Cold - High</v>
-      </c>
-      <c r="E43" s="36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F43" s="31" t="str">
-        <f>F24</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="20" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="31" t="str">
-        <f>D25</f>
-        <v>Cold - Wide</v>
-      </c>
-      <c r="E44" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="31" t="str">
-        <f>F25</f>
-        <v>Cold - Wide</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="44">
-        <f>SUM(C40:C44)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="D45" s="51">
-        <f>D4*(1+C45)</f>
-        <v>1.7424000000000002E-2</v>
-      </c>
-      <c r="E45" s="52">
-        <f>SUM(E40:E44)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="F45" s="51">
-        <f>F4*(1+E45)</f>
-        <v>1.274E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D13:F13"/>
-  </mergeCells>
   <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42:D44 F42:F44" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20 F20" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D42 F40:F42" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 F18" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
       <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40 F40" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38 F38" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
       <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
+    <dataValidation type="list" allowBlank="1" sqref="D23 F23" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
       <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
+    <dataValidation type="list" allowBlank="1" sqref="D20 F20" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
       <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D33 F33" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
+    <dataValidation type="list" allowBlank="1" sqref="D31 F31" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
       <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
 New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
+    <dataValidation type="list" allowBlank="1" sqref="D15 F15" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
       <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D19 F19" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
+    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
       <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D29 F29" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
+    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
       <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D28 F28" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
+    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
       <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D30 F30" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
+    <dataValidation type="list" allowBlank="1" sqref="D28 F28" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
       <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D35 F35" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
+    <dataValidation type="list" allowBlank="1" sqref="D33 F33" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
       <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
+    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
       <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
+    <dataValidation type="list" allowBlank="1" sqref="D30 F30" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
       <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D34 F34" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
+    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
       <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D18 F18" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
+    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
       <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D23 F23" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
+    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
       <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
+    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
       <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="F37 D37 F9:F10 D9:D10 D13" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+    <dataValidation allowBlank="1" sqref="F35 D35 D11" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F2664-FB8F-40C0-B57D-723189FA7E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A95E317-5B7C-4501-A7BF-C0F303F9C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$R$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DCF</t>
   </si>
   <si>
-    <t>Security Code</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>Ideal Price</t>
   </si>
   <si>
-    <t>Realizable VPS</t>
-  </si>
-  <si>
-    <t>Next Result Date</t>
-  </si>
-  <si>
     <t>0806.HK</t>
   </si>
   <si>
@@ -92,15 +83,6 @@
   </si>
   <si>
     <t>Price Currency</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
-    <t>Total Units</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
   </si>
   <si>
     <t>% Weight</t>
@@ -352,12 +334,6 @@
     <t>KERRY PPT</t>
   </si>
   <si>
-    <t>Asset Value</t>
-  </si>
-  <si>
-    <t>NAVPS</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
@@ -403,6 +379,42 @@
       <t>Adj. Rf</t>
     </r>
   </si>
+  <si>
+    <t>Next Review Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOS = </t>
+  </si>
+  <si>
+    <t>Current Price Analysis</t>
+  </si>
+  <si>
+    <t>LFY Date</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Cost Per Share</t>
+  </si>
+  <si>
+    <t>Shares Purchased</t>
+  </si>
+  <si>
+    <t>Stock Symbol</t>
+  </si>
+  <si>
+    <t>Action Price</t>
+  </si>
+  <si>
+    <t>Breakeven Price</t>
+  </si>
+  <si>
+    <t>Price Floor</t>
+  </si>
+  <si>
+    <t>Price Ceiling</t>
+  </si>
 </sst>
 </file>
 
@@ -411,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +543,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,21 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -840,12 +856,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -973,13 +1002,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -988,20 +1014,32 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1329,24 +1367,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P200"/>
+  <dimension ref="A2:S200"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
     <col min="5" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="13" width="14.453125" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="14.453125" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="17" width="14.453125" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1358,3522 +1397,3912 @@
       <c r="G2" s="2"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H3" s="56" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F3" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="57" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="56"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="7">
         <v>10.199999809265137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="7">
-        <f>F5-I5</f>
+        <v>12</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.21431272400196813</v>
+      </c>
+      <c r="I5" s="7">
+        <f>F5-J5</f>
         <v>4.8969228596705037</v>
       </c>
-      <c r="I5" s="7">
+      <c r="J5" s="7">
         <v>5.303076949594633</v>
       </c>
-      <c r="J5" s="6">
-        <v>0.21431272400196813</v>
-      </c>
       <c r="K5" s="7">
+        <v>12.732006873311873</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
         <v>10</v>
       </c>
-      <c r="L5" s="7">
-        <v>12.732006873311873</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="N5" s="7">
         <v>10.533252019479391</v>
       </c>
-      <c r="N5" s="7">
+      <c r="O5" s="7">
         <v>19.628261569994095</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>3.7138250391206357E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7">
         <v>20.5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7">
-        <f>F6-I6</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.3735588650440953</v>
+      </c>
+      <c r="I6" s="7">
+        <f>F6-J6</f>
         <v>3.7958895743863792</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>16.704110425613621</v>
       </c>
-      <c r="J6" s="6">
-        <v>0.3735588650440953</v>
-      </c>
       <c r="K6" s="7">
+        <v>27.975883710030505</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
         <v>17.28</v>
       </c>
-      <c r="L6" s="7">
-        <v>27.975883710030505</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>22.854887685632036</v>
       </c>
-      <c r="N6" s="7">
+      <c r="O6" s="7">
         <v>88.264955272628072</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="P6" s="8">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7">
         <v>21.850000381469727</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <f>F7-I7</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7">
+        <f>F7-J7</f>
         <v>-8.0901652308962895</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="7">
         <v>29.940165612366016</v>
       </c>
-      <c r="J7" s="6"/>
       <c r="K7" s="7">
+        <v>43.321863507906812</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7">
         <v>40</v>
       </c>
-      <c r="L7" s="7">
-        <v>43.321863507906812</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>30.215789550020695</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>50.125813062581891</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>4.2113086692893716E-2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="6">
+      <c r="O8" s="7"/>
+      <c r="P8" s="6">
         <v>5.528677051101695E-2</v>
       </c>
-      <c r="P8" s="8">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="6">
+      <c r="O9" s="7"/>
+      <c r="P9" s="6">
         <v>0.10996205272796702</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="6">
+      <c r="O10" s="7"/>
+      <c r="P10" s="6">
         <v>2.1249172080193519E-2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="6">
+      <c r="O11" s="7"/>
+      <c r="P11" s="6">
         <v>5.8859502535343992E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="6">
+      <c r="O12" s="7"/>
+      <c r="P12" s="6">
         <v>0</v>
       </c>
-      <c r="P12" s="8">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="6">
+      <c r="O13" s="7"/>
+      <c r="P13" s="6">
         <v>2.2000179208441571E-2</v>
       </c>
-      <c r="P13" s="8">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="L16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O17" s="7"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O18" s="7"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O19" s="7"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O20" s="7"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O21" s="7"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O22" s="7"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O23" s="7"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O24" s="7"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O25" s="7"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O26" s="7"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O27" s="7"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O28" s="7"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O29" s="7"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O30" s="7"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O31" s="7"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O32" s="7"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O33" s="7"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O34" s="7"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O35" s="7"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O36" s="7"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O37" s="7"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O38" s="7"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="6"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="6"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O43" s="7"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="H44" s="6"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O44" s="7"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O45" s="7"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O46" s="7"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="6"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O47" s="7"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O48" s="7"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="6"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O49" s="7"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O50" s="7"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O51" s="7"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O52" s="7"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="6"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O53" s="7"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="6"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="6"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O54" s="7"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="6"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O55" s="7"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="6"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O56" s="7"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="6"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O57" s="7"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="6"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O58" s="7"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="6"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O59" s="7"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="6"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="8"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O60" s="7"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="6"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="8"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O61" s="7"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="6"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O62" s="7"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="6"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="8"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O63" s="7"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="7"/>
-      <c r="J64" s="6"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O64" s="7"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="6"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O65" s="7"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="6"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O66" s="7"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="6"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O67" s="7"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="6"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="8"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O68" s="7"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="6"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O69" s="7"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="H70" s="6"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="6"/>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O70" s="7"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="6"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O71" s="7"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="H72" s="6"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="6"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O72" s="7"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="6"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="6"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O73" s="7"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="6"/>
       <c r="I74" s="7"/>
-      <c r="J74" s="6"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O74" s="7"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O75" s="7"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="7"/>
-      <c r="J76" s="6"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="8"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O76" s="7"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="7"/>
-      <c r="J77" s="6"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="8"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O77" s="7"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="7"/>
-      <c r="J78" s="6"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O78" s="7"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="7"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O79" s="7"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="7"/>
-      <c r="J80" s="6"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O80" s="7"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="7"/>
-      <c r="J81" s="6"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O81" s="7"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="8"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="7"/>
-      <c r="J82" s="6"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="8"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O82" s="7"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="7"/>
-      <c r="J83" s="6"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O83" s="7"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="8"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="8"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O84" s="7"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="7"/>
-      <c r="J85" s="6"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="8"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O85" s="7"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="6"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="8"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O86" s="7"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="7"/>
-      <c r="J87" s="6"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="8"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O87" s="7"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="7"/>
-      <c r="J88" s="6"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="8"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O88" s="7"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="6"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="8"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O89" s="7"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="7"/>
-      <c r="J90" s="6"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="8"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O90" s="7"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="7"/>
-      <c r="J91" s="6"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="8"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O91" s="7"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="6"/>
+      <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="8"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O92" s="7"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="7"/>
-      <c r="J93" s="6"/>
+      <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="8"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O93" s="7"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="7"/>
-      <c r="J94" s="6"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="8"/>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O94" s="7"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="H95" s="6"/>
       <c r="I95" s="7"/>
-      <c r="J95" s="6"/>
+      <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="8"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O95" s="7"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="H96" s="6"/>
       <c r="I96" s="7"/>
-      <c r="J96" s="6"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="8"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O96" s="7"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="7"/>
-      <c r="J97" s="6"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="8"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O97" s="7"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="7"/>
-      <c r="J98" s="6"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="8"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O98" s="7"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="7"/>
-      <c r="J99" s="6"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="8"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O99" s="7"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="7"/>
-      <c r="J100" s="6"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="8"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O100" s="7"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="6"/>
+      <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="8"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O101" s="7"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="8"/>
+      <c r="R101" s="8"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="7"/>
-      <c r="J102" s="6"/>
+      <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="8"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O102" s="7"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="7"/>
-      <c r="J103" s="6"/>
+      <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="8"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O103" s="7"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="6"/>
       <c r="I104" s="7"/>
-      <c r="J104" s="6"/>
+      <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="8"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O104" s="7"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="8"/>
+      <c r="R104" s="8"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="7"/>
-      <c r="J105" s="6"/>
+      <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="8"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O105" s="7"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="8"/>
+      <c r="R105" s="8"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="7"/>
-      <c r="J106" s="6"/>
+      <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O106" s="7"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="8"/>
+      <c r="R106" s="8"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="7"/>
-      <c r="J107" s="6"/>
+      <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="8"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O107" s="7"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="7"/>
-      <c r="J108" s="6"/>
+      <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="8"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O108" s="7"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="7"/>
-      <c r="J109" s="6"/>
+      <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="8"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O109" s="7"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="8"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="H110" s="6"/>
       <c r="I110" s="7"/>
-      <c r="J110" s="6"/>
+      <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="8"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O110" s="7"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="7"/>
-      <c r="J111" s="6"/>
+      <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O111" s="7"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="8"/>
+      <c r="R111" s="8"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="7"/>
-      <c r="J112" s="6"/>
+      <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="8"/>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O112" s="7"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="8"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="7"/>
-      <c r="J113" s="6"/>
+      <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="8"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O113" s="7"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="8"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="7"/>
-      <c r="J114" s="6"/>
+      <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="8"/>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O114" s="7"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="7"/>
-      <c r="J115" s="6"/>
+      <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="8"/>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O115" s="7"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="7"/>
-      <c r="J116" s="6"/>
+      <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="8"/>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O116" s="7"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="7"/>
-      <c r="J117" s="6"/>
+      <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="8"/>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O117" s="7"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="8"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="H118" s="6"/>
       <c r="I118" s="7"/>
-      <c r="J118" s="6"/>
+      <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="8"/>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O118" s="7"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="8"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="7"/>
-      <c r="J119" s="6"/>
+      <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="8"/>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O119" s="7"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="8"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="7"/>
-      <c r="J120" s="6"/>
+      <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="8"/>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O120" s="7"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="8"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="7"/>
-      <c r="J121" s="6"/>
+      <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="8"/>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O121" s="7"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="8"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="H122" s="6"/>
       <c r="I122" s="7"/>
-      <c r="J122" s="6"/>
+      <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="8"/>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O122" s="7"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
+      <c r="H123" s="6"/>
       <c r="I123" s="7"/>
-      <c r="J123" s="6"/>
+      <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="8"/>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O123" s="7"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="H124" s="6"/>
       <c r="I124" s="7"/>
-      <c r="J124" s="6"/>
+      <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="8"/>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O124" s="7"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="7"/>
-      <c r="J125" s="6"/>
+      <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="8"/>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O125" s="7"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="7"/>
-      <c r="J126" s="6"/>
+      <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="8"/>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O126" s="7"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="7"/>
-      <c r="J127" s="6"/>
+      <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="8"/>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O127" s="7"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
+      <c r="H128" s="6"/>
       <c r="I128" s="7"/>
-      <c r="J128" s="6"/>
+      <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="8"/>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O128" s="7"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="8"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="7"/>
-      <c r="J129" s="6"/>
+      <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="8"/>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O129" s="7"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="H130" s="6"/>
       <c r="I130" s="7"/>
-      <c r="J130" s="6"/>
+      <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="8"/>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O130" s="7"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="7"/>
-      <c r="J131" s="6"/>
+      <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="8"/>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O131" s="7"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8"/>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="H132" s="6"/>
       <c r="I132" s="7"/>
-      <c r="J132" s="6"/>
+      <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="8"/>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O132" s="7"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="8"/>
+      <c r="R132" s="8"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
+      <c r="H133" s="6"/>
       <c r="I133" s="7"/>
-      <c r="J133" s="6"/>
+      <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="8"/>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O133" s="7"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="8"/>
+      <c r="R133" s="8"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
+      <c r="H134" s="6"/>
       <c r="I134" s="7"/>
-      <c r="J134" s="6"/>
+      <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="8"/>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O134" s="7"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="7"/>
-      <c r="J135" s="6"/>
+      <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="8"/>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O135" s="7"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="8"/>
+      <c r="R135" s="8"/>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="H136" s="6"/>
       <c r="I136" s="7"/>
-      <c r="J136" s="6"/>
+      <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="8"/>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O136" s="7"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="7"/>
-      <c r="J137" s="6"/>
+      <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="8"/>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O137" s="7"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8"/>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
+      <c r="H138" s="6"/>
       <c r="I138" s="7"/>
-      <c r="J138" s="6"/>
+      <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="8"/>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O138" s="7"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8"/>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="7"/>
-      <c r="J139" s="6"/>
+      <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="8"/>
-    </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O139" s="7"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="8"/>
+      <c r="R139" s="8"/>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
+      <c r="H140" s="6"/>
       <c r="I140" s="7"/>
-      <c r="J140" s="6"/>
+      <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="8"/>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O140" s="7"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8"/>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="7"/>
-      <c r="J141" s="6"/>
+      <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="8"/>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O141" s="7"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="8"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
+      <c r="H142" s="6"/>
       <c r="I142" s="7"/>
-      <c r="J142" s="6"/>
+      <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="8"/>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O142" s="7"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8"/>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="7"/>
-      <c r="J143" s="6"/>
+      <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="8"/>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O143" s="7"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="8"/>
+      <c r="R143" s="8"/>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="H144" s="6"/>
       <c r="I144" s="7"/>
-      <c r="J144" s="6"/>
+      <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="8"/>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O144" s="7"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="8"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="7"/>
-      <c r="J145" s="6"/>
+      <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="8"/>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O145" s="7"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="8"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="H146" s="6"/>
       <c r="I146" s="7"/>
-      <c r="J146" s="6"/>
+      <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="8"/>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O146" s="7"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="H147" s="6"/>
       <c r="I147" s="7"/>
-      <c r="J147" s="6"/>
+      <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="8"/>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O147" s="7"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="H148" s="6"/>
       <c r="I148" s="7"/>
-      <c r="J148" s="6"/>
+      <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="8"/>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O148" s="7"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="H149" s="6"/>
       <c r="I149" s="7"/>
-      <c r="J149" s="6"/>
+      <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="8"/>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O149" s="7"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="H150" s="6"/>
       <c r="I150" s="7"/>
-      <c r="J150" s="6"/>
+      <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="8"/>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O150" s="7"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="H151" s="6"/>
       <c r="I151" s="7"/>
-      <c r="J151" s="6"/>
+      <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="8"/>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O151" s="7"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="H152" s="6"/>
       <c r="I152" s="7"/>
-      <c r="J152" s="6"/>
+      <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="8"/>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O152" s="7"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
+      <c r="H153" s="6"/>
       <c r="I153" s="7"/>
-      <c r="J153" s="6"/>
+      <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="8"/>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O153" s="7"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="8"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="H154" s="6"/>
       <c r="I154" s="7"/>
-      <c r="J154" s="6"/>
+      <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="8"/>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O154" s="7"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="8"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="7"/>
-      <c r="J155" s="6"/>
+      <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="8"/>
-    </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O155" s="7"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="8"/>
+      <c r="R155" s="8"/>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="H156" s="6"/>
       <c r="I156" s="7"/>
-      <c r="J156" s="6"/>
+      <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
-      <c r="O156" s="6"/>
-      <c r="P156" s="8"/>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O156" s="7"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="8"/>
+      <c r="R156" s="8"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="7"/>
-      <c r="J157" s="6"/>
+      <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="8"/>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O157" s="7"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="8"/>
+      <c r="R157" s="8"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="H158" s="6"/>
       <c r="I158" s="7"/>
-      <c r="J158" s="6"/>
+      <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="8"/>
-    </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O158" s="7"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="8"/>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="H159" s="6"/>
       <c r="I159" s="7"/>
-      <c r="J159" s="6"/>
+      <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="8"/>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O159" s="7"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="8"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
+      <c r="H160" s="6"/>
       <c r="I160" s="7"/>
-      <c r="J160" s="6"/>
+      <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="8"/>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O160" s="7"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="8"/>
+      <c r="R160" s="8"/>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
+      <c r="H161" s="6"/>
       <c r="I161" s="7"/>
-      <c r="J161" s="6"/>
+      <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="8"/>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O161" s="7"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="8"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+      <c r="H162" s="6"/>
       <c r="I162" s="7"/>
-      <c r="J162" s="6"/>
+      <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="8"/>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O162" s="7"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="8"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="H163" s="6"/>
       <c r="I163" s="7"/>
-      <c r="J163" s="6"/>
+      <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="8"/>
-    </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O163" s="7"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="H164" s="6"/>
       <c r="I164" s="7"/>
-      <c r="J164" s="6"/>
+      <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="8"/>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O164" s="7"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="8"/>
+      <c r="R164" s="8"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+      <c r="H165" s="6"/>
       <c r="I165" s="7"/>
-      <c r="J165" s="6"/>
+      <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="8"/>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O165" s="7"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="8"/>
+      <c r="R165" s="8"/>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
+      <c r="H166" s="6"/>
       <c r="I166" s="7"/>
-      <c r="J166" s="6"/>
+      <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="8"/>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O166" s="7"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="8"/>
+      <c r="R166" s="8"/>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
+      <c r="H167" s="6"/>
       <c r="I167" s="7"/>
-      <c r="J167" s="6"/>
+      <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="8"/>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O167" s="7"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
+      <c r="H168" s="6"/>
       <c r="I168" s="7"/>
-      <c r="J168" s="6"/>
+      <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="8"/>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O168" s="7"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+    </row>
+    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="H169" s="6"/>
       <c r="I169" s="7"/>
-      <c r="J169" s="6"/>
+      <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="8"/>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O169" s="7"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="8"/>
+      <c r="R169" s="8"/>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="H170" s="6"/>
       <c r="I170" s="7"/>
-      <c r="J170" s="6"/>
+      <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
-      <c r="O170" s="6"/>
-      <c r="P170" s="8"/>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O170" s="7"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="8"/>
+      <c r="R170" s="8"/>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
+      <c r="H171" s="6"/>
       <c r="I171" s="7"/>
-      <c r="J171" s="6"/>
+      <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="8"/>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O171" s="7"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="8"/>
+      <c r="R171" s="8"/>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+      <c r="H172" s="6"/>
       <c r="I172" s="7"/>
-      <c r="J172" s="6"/>
+      <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="8"/>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O172" s="7"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="8"/>
+      <c r="R172" s="8"/>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
+      <c r="H173" s="6"/>
       <c r="I173" s="7"/>
-      <c r="J173" s="6"/>
+      <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
-      <c r="O173" s="6"/>
-      <c r="P173" s="8"/>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O173" s="7"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="8"/>
+      <c r="R173" s="8"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
+      <c r="H174" s="6"/>
       <c r="I174" s="7"/>
-      <c r="J174" s="6"/>
+      <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="8"/>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O174" s="7"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="8"/>
+      <c r="R174" s="8"/>
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="H175" s="6"/>
       <c r="I175" s="7"/>
-      <c r="J175" s="6"/>
+      <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="8"/>
-    </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O175" s="7"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="8"/>
+      <c r="R175" s="8"/>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
+      <c r="H176" s="6"/>
       <c r="I176" s="7"/>
-      <c r="J176" s="6"/>
+      <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="8"/>
-    </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O176" s="7"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="8"/>
+      <c r="R176" s="8"/>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
+      <c r="H177" s="6"/>
       <c r="I177" s="7"/>
-      <c r="J177" s="6"/>
+      <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="8"/>
-    </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O177" s="7"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="8"/>
+      <c r="R177" s="8"/>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
+      <c r="H178" s="6"/>
       <c r="I178" s="7"/>
-      <c r="J178" s="6"/>
+      <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="8"/>
-    </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O178" s="7"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="8"/>
+      <c r="R178" s="8"/>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
+      <c r="H179" s="6"/>
       <c r="I179" s="7"/>
-      <c r="J179" s="6"/>
+      <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="8"/>
-    </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O179" s="7"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="8"/>
+      <c r="R179" s="8"/>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
+      <c r="H180" s="6"/>
       <c r="I180" s="7"/>
-      <c r="J180" s="6"/>
+      <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="8"/>
-    </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O180" s="7"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="8"/>
+      <c r="R180" s="8"/>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
+      <c r="H181" s="6"/>
       <c r="I181" s="7"/>
-      <c r="J181" s="6"/>
+      <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="8"/>
-    </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O181" s="7"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="8"/>
+      <c r="R181" s="8"/>
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
+      <c r="H182" s="6"/>
       <c r="I182" s="7"/>
-      <c r="J182" s="6"/>
+      <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
-      <c r="O182" s="6"/>
-      <c r="P182" s="8"/>
-    </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O182" s="7"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="8"/>
+      <c r="R182" s="8"/>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="7"/>
       <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="7"/>
-      <c r="J183" s="6"/>
+      <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="8"/>
-    </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O183" s="7"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="8"/>
+      <c r="R183" s="8"/>
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="H184" s="6"/>
       <c r="I184" s="7"/>
-      <c r="J184" s="6"/>
+      <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="8"/>
-    </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O184" s="7"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="8"/>
+      <c r="R184" s="8"/>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="H185" s="6"/>
       <c r="I185" s="7"/>
-      <c r="J185" s="6"/>
+      <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="8"/>
-    </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O185" s="7"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="8"/>
+      <c r="R185" s="8"/>
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
+      <c r="H186" s="6"/>
       <c r="I186" s="7"/>
-      <c r="J186" s="6"/>
+      <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="8"/>
-    </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O186" s="7"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="8"/>
+      <c r="R186" s="8"/>
+    </row>
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
+      <c r="H187" s="6"/>
       <c r="I187" s="7"/>
-      <c r="J187" s="6"/>
+      <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
-      <c r="O187" s="6"/>
-      <c r="P187" s="8"/>
-    </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O187" s="7"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="8"/>
+      <c r="R187" s="8"/>
+    </row>
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
+      <c r="H188" s="6"/>
       <c r="I188" s="7"/>
-      <c r="J188" s="6"/>
+      <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="8"/>
-    </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O188" s="7"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="8"/>
+      <c r="R188" s="8"/>
+    </row>
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
+      <c r="H189" s="6"/>
       <c r="I189" s="7"/>
-      <c r="J189" s="6"/>
+      <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
-      <c r="O189" s="6"/>
-      <c r="P189" s="8"/>
-    </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O189" s="7"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="8"/>
+      <c r="R189" s="8"/>
+    </row>
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
+      <c r="H190" s="6"/>
       <c r="I190" s="7"/>
-      <c r="J190" s="6"/>
+      <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
-      <c r="O190" s="6"/>
-      <c r="P190" s="8"/>
-    </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O190" s="7"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="8"/>
+      <c r="R190" s="8"/>
+    </row>
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
+      <c r="H191" s="6"/>
       <c r="I191" s="7"/>
-      <c r="J191" s="6"/>
+      <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
-      <c r="O191" s="6"/>
-      <c r="P191" s="8"/>
-    </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O191" s="7"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="8"/>
+      <c r="R191" s="8"/>
+    </row>
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
+      <c r="H192" s="6"/>
       <c r="I192" s="7"/>
-      <c r="J192" s="6"/>
+      <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
-      <c r="O192" s="6"/>
-      <c r="P192" s="8"/>
-    </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O192" s="7"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="8"/>
+      <c r="R192" s="8"/>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
+      <c r="H193" s="6"/>
       <c r="I193" s="7"/>
-      <c r="J193" s="6"/>
+      <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
-      <c r="O193" s="6"/>
-      <c r="P193" s="8"/>
-    </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O193" s="7"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="8"/>
+      <c r="R193" s="8"/>
+    </row>
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
+      <c r="H194" s="6"/>
       <c r="I194" s="7"/>
-      <c r="J194" s="6"/>
+      <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
-      <c r="O194" s="6"/>
-      <c r="P194" s="8"/>
-    </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O194" s="7"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="8"/>
+      <c r="R194" s="8"/>
+    </row>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
+      <c r="H195" s="6"/>
       <c r="I195" s="7"/>
-      <c r="J195" s="6"/>
+      <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
-      <c r="O195" s="6"/>
-      <c r="P195" s="8"/>
-    </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O195" s="7"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="8"/>
+      <c r="R195" s="8"/>
+    </row>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
+      <c r="H196" s="6"/>
       <c r="I196" s="7"/>
-      <c r="J196" s="6"/>
+      <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
-      <c r="O196" s="6"/>
-      <c r="P196" s="8"/>
-    </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O196" s="7"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="8"/>
+      <c r="R196" s="8"/>
+    </row>
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
+      <c r="H197" s="6"/>
       <c r="I197" s="7"/>
-      <c r="J197" s="6"/>
+      <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
-      <c r="O197" s="6"/>
-      <c r="P197" s="8"/>
-    </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O197" s="7"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="8"/>
+      <c r="R197" s="8"/>
+    </row>
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
+      <c r="H198" s="6"/>
       <c r="I198" s="7"/>
-      <c r="J198" s="6"/>
+      <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
-      <c r="O198" s="6"/>
-      <c r="P198" s="8"/>
-    </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O198" s="7"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="8"/>
+      <c r="R198" s="8"/>
+    </row>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
+      <c r="H199" s="6"/>
       <c r="I199" s="7"/>
-      <c r="J199" s="6"/>
+      <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
-      <c r="O199" s="6"/>
-      <c r="P199" s="8"/>
-    </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O199" s="7"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="8"/>
+      <c r="R199" s="8"/>
+    </row>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
+      <c r="H200" s="6"/>
       <c r="I200" s="7"/>
-      <c r="J200" s="6"/>
+      <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
-      <c r="O200" s="6"/>
-      <c r="P200" s="8"/>
+      <c r="O200" s="7"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="8"/>
+      <c r="R200" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:P4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P11">
-      <sortCondition descending="1" ref="J4"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:N3"/>
+  <autoFilter ref="B4:R4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4885,140 +5314,136 @@
   <dimension ref="A2:J200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="2" max="10" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="60">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="70">
         <v>44902</v>
       </c>
-      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="59"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>22000</v>
       </c>
-      <c r="H7" s="9">
-        <f>F7*G7</f>
-        <v>50599.999999999993</v>
-      </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -5027,9 +5452,10 @@
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
@@ -5037,9 +5463,9 @@
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
@@ -5047,9 +5473,9 @@
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
@@ -5057,9 +5483,10 @@
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -5067,9 +5494,10 @@
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
@@ -5077,1854 +5505,2038 @@
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="6"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="6"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="6"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="6"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="6"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="6"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="6"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="6"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="6"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="6"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="6"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="6"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="6"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="6"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="6"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="6"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="6"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="6"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="6"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="6"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="7"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="6"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="7"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="6"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="6"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="6"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="6"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="6"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="6"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="6"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="6"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="6"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="6"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="6"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="6"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="6"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="6"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="6"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="6"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="6"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="6"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="6"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="6"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="6"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="6"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="6"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="6"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="6"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="6"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="7"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="6"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="6"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="6"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="6"/>
+      <c r="G93" s="69"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="7"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="6"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="7"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="6"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="7"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="6"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="6"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="9"/>
       <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="7"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="6"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="6"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="6"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="7"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="6"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="6"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="6"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="6"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="6"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="9"/>
       <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="6"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="7"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="6"/>
+      <c r="G107" s="69"/>
+      <c r="H107" s="9"/>
       <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="6"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="7"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="6"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="9"/>
       <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="6"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="7"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="6"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="9"/>
       <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="6"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="7"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="6"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="6"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="6"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="6"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="9"/>
       <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="6"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="6"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="7"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="6"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="9"/>
       <c r="I117" s="6"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="6"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="7"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="6"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="9"/>
       <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="7"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="6"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="6"/>
+      <c r="G121" s="69"/>
+      <c r="H121" s="9"/>
       <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="7"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="6"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="7"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="6"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="9"/>
       <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="6"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="6"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="9"/>
       <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="6"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="6"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="9"/>
       <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="6"/>
+      <c r="G128" s="69"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="6"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="9"/>
       <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="6"/>
+      <c r="G130" s="69"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="6"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="9"/>
       <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="6"/>
+      <c r="G132" s="69"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="6"/>
+      <c r="G133" s="69"/>
+      <c r="H133" s="9"/>
       <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="6"/>
+      <c r="G134" s="69"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="6"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="7"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="6"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="9"/>
       <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="7"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="6"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="7"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="6"/>
+      <c r="G137" s="69"/>
+      <c r="H137" s="9"/>
       <c r="I137" s="6"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="6"/>
+      <c r="G138" s="69"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="7"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="6"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="9"/>
       <c r="I139" s="6"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="7"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="6"/>
+      <c r="G140" s="69"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="6"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="7"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="6"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="9"/>
       <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="7"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="6"/>
+      <c r="G142" s="69"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="6"/>
+      <c r="G143" s="69"/>
+      <c r="H143" s="9"/>
       <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="6"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="6"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="7"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="6"/>
+      <c r="G145" s="69"/>
+      <c r="H145" s="9"/>
       <c r="I145" s="6"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="7"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="6"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="6"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="7"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="6"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="9"/>
       <c r="I147" s="6"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="7"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="6"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="6"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="7"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="6"/>
+      <c r="G149" s="69"/>
+      <c r="H149" s="9"/>
       <c r="I149" s="6"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="7"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="6"/>
+      <c r="G150" s="69"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="6"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="6"/>
+      <c r="G151" s="69"/>
+      <c r="H151" s="9"/>
       <c r="I151" s="6"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="7"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="6"/>
+      <c r="G152" s="69"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="6"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="7"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="6"/>
+      <c r="G153" s="69"/>
+      <c r="H153" s="9"/>
       <c r="I153" s="6"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J153" s="6"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="7"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="6"/>
+      <c r="G154" s="69"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="6"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J154" s="6"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="7"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="6"/>
+      <c r="G155" s="69"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="6"/>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="7"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="6"/>
+      <c r="G156" s="69"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="6"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="7"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="6"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="9"/>
       <c r="I157" s="6"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="7"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="6"/>
+      <c r="G158" s="69"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="6"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="7"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="6"/>
+      <c r="G159" s="69"/>
+      <c r="H159" s="9"/>
       <c r="I159" s="6"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="7"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="6"/>
+      <c r="G160" s="69"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="6"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="7"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="6"/>
+      <c r="G161" s="69"/>
+      <c r="H161" s="9"/>
       <c r="I161" s="6"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="6"/>
+      <c r="G162" s="69"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="6"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="6"/>
+      <c r="G163" s="69"/>
+      <c r="H163" s="9"/>
       <c r="I163" s="6"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="7"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="6"/>
+      <c r="G164" s="69"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="6"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="7"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="6"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="9"/>
       <c r="I165" s="6"/>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="7"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="6"/>
+      <c r="G166" s="69"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="6"/>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="7"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="6"/>
+      <c r="G167" s="69"/>
+      <c r="H167" s="9"/>
       <c r="I167" s="6"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="6"/>
+      <c r="G168" s="69"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="6"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="7"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="6"/>
+      <c r="G169" s="69"/>
+      <c r="H169" s="9"/>
       <c r="I169" s="6"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="7"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="6"/>
+      <c r="G170" s="69"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="6"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="6"/>
+      <c r="G171" s="69"/>
+      <c r="H171" s="9"/>
       <c r="I171" s="6"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="7"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="6"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="6"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="7"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="6"/>
+      <c r="G173" s="69"/>
+      <c r="H173" s="9"/>
       <c r="I173" s="6"/>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="7"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="6"/>
+      <c r="G174" s="69"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="6"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="6"/>
+      <c r="G175" s="69"/>
+      <c r="H175" s="9"/>
       <c r="I175" s="6"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="7"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="6"/>
+      <c r="G176" s="69"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="6"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="7"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="6"/>
+      <c r="G177" s="69"/>
+      <c r="H177" s="9"/>
       <c r="I177" s="6"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="7"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="6"/>
+      <c r="G178" s="69"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="6"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="7"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="6"/>
+      <c r="G179" s="69"/>
+      <c r="H179" s="9"/>
       <c r="I179" s="6"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="6"/>
+      <c r="G180" s="69"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="6"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J180" s="6"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="7"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="6"/>
+      <c r="G181" s="69"/>
+      <c r="H181" s="9"/>
       <c r="I181" s="6"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J181" s="6"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="7"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="6"/>
+      <c r="G182" s="69"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="6"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J182" s="6"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="7"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="6"/>
+      <c r="G183" s="69"/>
+      <c r="H183" s="9"/>
       <c r="I183" s="6"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J183" s="6"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="6"/>
+      <c r="G184" s="69"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="6"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J184" s="6"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="7"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="6"/>
+      <c r="G185" s="69"/>
+      <c r="H185" s="9"/>
       <c r="I185" s="6"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J185" s="6"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="7"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="6"/>
+      <c r="G186" s="69"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="6"/>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="7"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="6"/>
+      <c r="G187" s="69"/>
+      <c r="H187" s="9"/>
       <c r="I187" s="6"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="7"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="6"/>
+      <c r="G188" s="69"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="6"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J188" s="6"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="6"/>
+      <c r="G189" s="69"/>
+      <c r="H189" s="9"/>
       <c r="I189" s="6"/>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J189" s="6"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="7"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="6"/>
+      <c r="G190" s="69"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="6"/>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J190" s="6"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="7"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="6"/>
+      <c r="G191" s="69"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="6"/>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J191" s="6"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="7"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="6"/>
+      <c r="G192" s="69"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="6"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J192" s="6"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="7"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="6"/>
+      <c r="G193" s="69"/>
+      <c r="H193" s="9"/>
       <c r="I193" s="6"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J193" s="6"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="7"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="6"/>
+      <c r="G194" s="69"/>
+      <c r="H194" s="9"/>
       <c r="I194" s="6"/>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J194" s="6"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="7"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="6"/>
+      <c r="G195" s="69"/>
+      <c r="H195" s="9"/>
       <c r="I195" s="6"/>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J195" s="6"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="7"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="6"/>
+      <c r="G196" s="69"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="6"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J196" s="6"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="7"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="6"/>
+      <c r="G197" s="69"/>
+      <c r="H197" s="9"/>
       <c r="I197" s="6"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J197" s="6"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="7"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="6"/>
+      <c r="G198" s="69"/>
+      <c r="H198" s="9"/>
       <c r="I198" s="6"/>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="7"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="6"/>
+      <c r="G199" s="69"/>
+      <c r="H199" s="9"/>
       <c r="I199" s="6"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="7"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="6"/>
+      <c r="G200" s="69"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6934,10 +7546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6953,675 +7565,668 @@
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62">
+        <f>F3*0.8</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="37">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="F6" s="37">
+        <v>2.9049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="48">
+        <v>1.584E-2</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="48">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D10" s="45">
+        <f>D6-D7</f>
+        <v>2.2559999999999997E-2</v>
+      </c>
+      <c r="F10" s="45">
+        <f>F6-F7</f>
+        <v>1.925E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="D11" s="46">
+        <f>D44</f>
+        <v>1.7424000000000002E-2</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="40">
+        <f>F44</f>
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="43">
+        <f>IF(C36=4,1.2, IF(C36=-4,1.1,1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12" s="51">
+        <f>SUM(D10:D11)</f>
+        <v>3.9983999999999999E-2</v>
+      </c>
+      <c r="E12" s="53">
+        <f>IF(E36=4,1.2, IF(E36=-4,1.1,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="51">
+        <f>SUM(F10:F11)</f>
+        <v>3.3950000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="37">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="F3" s="37">
-        <v>2.9049999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="48">
-        <v>1.584E-2</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="48">
-        <v>9.7999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="45">
-        <f>D3-D4</f>
-        <v>2.2559999999999997E-2</v>
-      </c>
-      <c r="F7" s="45">
-        <f>F3-F4</f>
-        <v>1.925E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="46">
-        <f>D43</f>
-        <v>1.7424000000000002E-2</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="40">
-        <f>F43</f>
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="43">
-        <f>IF(C35=4,1.2, IF(C35=-4,1.1,1))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D9" s="51">
-        <f>SUM(D7:D8)</f>
-        <v>3.9983999999999999E-2</v>
-      </c>
-      <c r="E9" s="53">
-        <f>IF(E35=4,1.2, IF(E35=-4,1.1,1))</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="51">
-        <f>SUM(F7:F8)</f>
-        <v>3.3950000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="55">
-        <v>0.08</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65">
-        <f>D11+0.02</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="50" t="str">
-        <f>D6</f>
+      <c r="C14" s="19"/>
+      <c r="D14" s="50" t="str">
+        <f>D5</f>
         <v>US</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="4" t="str">
-        <f>F6</f>
+      <c r="E14" s="50"/>
+      <c r="F14" s="4" t="str">
+        <f>F5</f>
         <v>China</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
-      <c r="B15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="23">
-        <f t="shared" ref="C15:E18" si="0">IF(LEFT(D15,1)="H",1,IF(LEFT(D15,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="23">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="B15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="23">
+        <f t="shared" ref="C16:E19" si="0">IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>42</v>
+      <c r="F16" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>44</v>
+      <c r="D17" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
-      <c r="B18" s="20" t="s">
-        <v>45</v>
+      <c r="B18" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>46</v>
+      <c r="D18" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>47</v>
+        <v>-1</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="28" t="s">
-        <v>48</v>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="23">
-        <f>IF(LEFT(D19,1)="H",2,IF(LEFT(D19,1)="C",-1,0))</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="D19" s="29" t="str">
-        <f>IF(SUM(C15:C18)&gt;=3, "Hot", IF(SUM(C15:C18)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D19" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="23">
-        <f>IF(LEFT(F19,1)="H",2,IF(LEFT(F19,1)="C",-1,0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="29" t="str">
-        <f>IF(SUM(E15:E18)&gt;=3, "Hot", IF(SUM(E15:E18)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
+      <c r="F19" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
-      <c r="B20" s="22" t="s">
-        <v>49</v>
+      <c r="B20" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="23">
-        <f t="shared" ref="C20:E23" si="1">IF(LEFT(D20,1)="H",1,IF(LEFT(D20,1)="C",-1,0))</f>
+        <f>IF(LEFT(D20,1)="H",2,IF(LEFT(D20,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>50</v>
+      <c r="D20" s="29" t="str">
+        <f>IF(SUM(C16:C19)&gt;=3, "Hot", IF(SUM(C16:C19)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
       <c r="E20" s="23">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>50</v>
+        <f>IF(LEFT(F20,1)="H",2,IF(LEFT(F20,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="29" t="str">
+        <f>IF(SUM(E16:E19)&gt;=3, "Hot", IF(SUM(E16:E19)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
       <c r="B21" s="22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C21:E24" si="1">IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E21" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C22" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>54</v>
+      <c r="D22" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>47</v>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" s="23">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
-      <c r="B24" s="28" t="s">
-        <v>57</v>
+      <c r="B24" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="23">
-        <f>IF(LEFT(D24,1)="H",2,IF(LEFT(D24,1)="C",-1,0))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D24" s="30" t="str">
-        <f>IF(SUM(C20:C23)&gt;=3, "Hot", IF(SUM(C20:C23)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D24" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E24" s="23">
-        <f>IF(LEFT(F24,1)="H",2,IF(LEFT(F24,1)="C",-1,0))</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="F24" s="30" t="str">
-        <f>IF(SUM(E20:E23)&gt;=3, "Hot", IF(SUM(E20:E23)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="F24" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
-      <c r="B25" s="22" t="s">
-        <v>58</v>
+      <c r="B25" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="23">
-        <f t="shared" ref="C25:E28" si="2">IF(LEFT(D25,1)="H",1,IF(LEFT(D25,1)="C",-1,0))</f>
+        <f>IF(LEFT(D25,1)="H",2,IF(LEFT(D25,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>59</v>
+      <c r="D25" s="30" t="str">
+        <f>IF(SUM(C21:C24)&gt;=3, "Hot", IF(SUM(C21:C24)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
       <c r="E25" s="23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>60</v>
+        <f>IF(LEFT(F25,1)="H",2,IF(LEFT(F25,1)="C",-1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="30" t="str">
+        <f>IF(SUM(E21:E24)&gt;=3, "Hot", IF(SUM(E21:E24)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
       <c r="B26" s="22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C26" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C26:E29" si="2">IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E26" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C27" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E27" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C28" s="23">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
-      <c r="B29" s="28" t="s">
-        <v>67</v>
+      <c r="B29" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="23">
-        <f>IF(LEFT(D29,1)="H",2,IF(LEFT(D29,1)="C",-1,0))</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="D29" s="30" t="str">
-        <f>IF(SUM(C25:C28)&gt;=3, "Hot", IF(SUM(C25:C28)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D29" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="E29" s="23">
-        <f>IF(LEFT(F29,1)="H",2,IF(LEFT(F29,1)="C",-1,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="30" t="str">
-        <f>IF(SUM(E25:E28)&gt;=3, "Hot", IF(SUM(E25:E28)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
+      <c r="F29" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
-      <c r="B30" s="22" t="s">
-        <v>68</v>
+      <c r="B30" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="23">
-        <f t="shared" ref="C30:E33" si="3">IF(LEFT(D30,1)="H",1,IF(LEFT(D30,1)="C",-1,0))</f>
+        <f>IF(LEFT(D30,1)="H",2,IF(LEFT(D30,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>69</v>
+      <c r="D30" s="30" t="str">
+        <f>IF(SUM(C26:C29)&gt;=3, "Hot", IF(SUM(C26:C29)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
       </c>
       <c r="E30" s="23">
-        <f t="shared" si="3"/>
+        <f>IF(LEFT(F30,1)="H",2,IF(LEFT(F30,1)="C",-1,0))</f>
         <v>0</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>70</v>
+      <c r="F30" s="30" t="str">
+        <f>IF(SUM(E26:E29)&gt;=3, "Hot", IF(SUM(E26:E29)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20"/>
       <c r="B31" s="22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C31" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C31:E34" si="3">IF(LEFT(D31,1)="H",1,IF(LEFT(D31,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E31" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20"/>
       <c r="B32" s="22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C32" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E32" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
       <c r="B33" s="22" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C33" s="23">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E33" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
-      <c r="B34" s="28" t="s">
-        <v>77</v>
+      <c r="B34" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="C34" s="23">
-        <f>IF(LEFT(D34,1)="H",2,IF(LEFT(D34,1)="C",-1,0))</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="D34" s="30" t="str">
-        <f>IF(SUM(C30:C33)&gt;=3, "Hot", IF(SUM(C30:C33)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
+      <c r="D34" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="E34" s="23">
-        <f>IF(LEFT(F34,1)="H",2,IF(LEFT(F34,1)="C",-1,0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F34" s="30" t="str">
-        <f>IF(SUM(E30:E33)&gt;=3, "Hot", IF(SUM(E30:E33)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
+      <c r="F34" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
-      <c r="B35" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="42">
-        <f>SUM(C19,C24,C29,C34)</f>
-        <v>-4</v>
-      </c>
-      <c r="D35" s="32" t="str">
-        <f>IF(OR(C35=4,C35=-4),"In extreme",IF(C35=0,"In equilibrium",IF(OR(C35&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>In extreme</v>
-      </c>
-      <c r="E35" s="42">
-        <f>SUM(E19,E24,E29,E34)</f>
+      <c r="B35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="23">
+        <f>IF(LEFT(D35,1)="H",2,IF(LEFT(D35,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
-      <c r="F35" s="32" t="str">
-        <f>IF(OR(E35=4,E35=-4),"In extreme",IF(E35=0,"In equilibrium",IF(OR(E35&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>Relatively pessimistic</v>
+      <c r="D35" s="30" t="str">
+        <f>IF(SUM(C31:C34)&gt;=3, "Hot", IF(SUM(C31:C34)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Cold</v>
+      </c>
+      <c r="E35" s="23">
+        <f>IF(LEFT(F35,1)="H",2,IF(LEFT(F35,1)="C",-1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="30" t="str">
+        <f>IF(SUM(E31:E34)&gt;=3, "Hot", IF(SUM(E31:E34)&lt;=-3,"Cold", "Mixed"))</f>
+        <v>Mixed</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
+      <c r="B36" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="42">
+        <f>SUM(C20,C25,C30,C35)</f>
+        <v>-4</v>
+      </c>
+      <c r="D36" s="32" t="str">
+        <f>IF(OR(C36=4,C36=-4),"In extreme",IF(C36=0,"In equilibrium",IF(OR(C36&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>In extreme</v>
+      </c>
+      <c r="E36" s="42">
+        <f>SUM(E20,E25,E30,E35)</f>
+        <v>-1</v>
+      </c>
+      <c r="F36" s="32" t="str">
+        <f>IF(OR(E36=4,E36=-4),"In extreme",IF(E36=0,"In equilibrium",IF(OR(E36&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
+        <v>Relatively pessimistic</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
-      <c r="B37" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="39" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="36">
-        <f>IF(LEFT(D38,1)="H",2,IF(LEFT(D38,1)="C",0,1))</f>
+      <c r="B38" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="36">
+        <f>IF(LEFT(D39,1)="H",2,IF(LEFT(D39,1)="C",0,1))</f>
         <v>0</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="36">
-        <f>IF(LEFT(F38,1)="H",2,IF(LEFT(F38,1)="C",0,1))</f>
+      <c r="D39" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="36">
+        <f>IF(LEFT(F39,1)="H",2,IF(LEFT(F39,1)="C",0,1))</f>
         <v>2</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="36">
-        <f t="shared" ref="C39:E42" si="4">IF(LEFT(D39,1)="H",2,IF(LEFT(D39,1)="C",0,1))</f>
+      <c r="F39" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="36">
+        <f t="shared" ref="C40:E43" si="4">IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="str">
-        <f>IF(D4&gt;=3%, "Hot - High", IF(D4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+      <c r="D40" s="31" t="str">
+        <f>IF(D7&gt;=3%, "Hot - High", IF(D7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>Mixed - Dormant</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E40" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F39" s="31" t="str">
-        <f>IF(F4&gt;=3%, "Hot - High", IF(F4&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
+      <c r="F40" s="31" t="str">
+        <f>IF(F7&gt;=3%, "Hot - High", IF(F7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
         <v>Cold - Low</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="31" t="str">
-        <f>D16</f>
-        <v>Cold - Negative</v>
-      </c>
-      <c r="E40" s="36">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="F40" s="31" t="str">
-        <f>F16</f>
-        <v>Hot - Positive</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C41" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D41" s="31" t="str">
-        <f>D22</f>
-        <v>Cold - High</v>
+        <f>D17</f>
+        <v>Cold - Negative</v>
       </c>
       <c r="E41" s="36">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="31" t="str">
-        <f>F22</f>
-        <v>Mixed</v>
+        <f>F17</f>
+        <v>Hot - Positive</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C42" s="36">
         <f t="shared" si="4"/>
@@ -7629,104 +8234,125 @@
       </c>
       <c r="D42" s="31" t="str">
         <f>D23</f>
-        <v>Cold - Wide</v>
+        <v>Cold - High</v>
       </c>
       <c r="E42" s="36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="31" t="str">
         <f>F23</f>
+        <v>Mixed</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="31" t="str">
+        <f>D24</f>
         <v>Cold - Wide</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="44">
-        <f>SUM(C38:C42)/10</f>
+      <c r="E43" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="31" t="str">
+        <f>F24</f>
+        <v>Cold - Wide</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="44">
+        <f>SUM(C39:C43)/10</f>
         <v>0.1</v>
       </c>
-      <c r="D43" s="51">
-        <f>D4*(1+C43)</f>
+      <c r="D44" s="51">
+        <f>D7*(1+C44)</f>
         <v>1.7424000000000002E-2</v>
       </c>
-      <c r="E43" s="52">
-        <f>SUM(E38:E42)/10</f>
+      <c r="E44" s="52">
+        <f>SUM(E39:E43)/10</f>
         <v>0.5</v>
       </c>
-      <c r="F43" s="51">
-        <f>F4*(1+E43)</f>
+      <c r="F44" s="51">
+        <f>F7*(1+E44)</f>
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>88</v>
+      <c r="B46" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D42 F40:F42" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 F18" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D43 F41:F43" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 F19" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
       <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38 F38" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39 F39" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
       <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D23 F23" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
+    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
       <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D20 F20" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
+    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
       <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D31 F31" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
+    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
       <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
 New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D15 F15" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
+    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
       <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
+    <dataValidation type="list" allowBlank="1" sqref="D18 F18" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
       <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
+    <dataValidation type="list" allowBlank="1" sqref="D28 F28" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
       <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
+    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
       <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D28 F28" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
+    <dataValidation type="list" allowBlank="1" sqref="D29 F29" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
       <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D33 F33" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
+    <dataValidation type="list" allowBlank="1" sqref="D34 F34" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
       <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D25 F25" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
+    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
       <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D30 F30" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
+    <dataValidation type="list" allowBlank="1" sqref="D31 F31" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
       <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
+    <dataValidation type="list" allowBlank="1" sqref="D33 F33" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
       <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
+    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
       <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
+    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
       <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
+    <dataValidation type="list" allowBlank="1" sqref="D23 F23" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
       <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="F35 D35 D11" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+    <dataValidation allowBlank="1" sqref="F36 D36 D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A95E317-5B7C-4501-A7BF-C0F303F9C417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C1652-C8D1-4128-9EAB-34FEC58E2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$T$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>Price Ceiling</t>
+  </si>
+  <si>
+    <t>Next Action Price</t>
+  </si>
+  <si>
+    <t>Next Action Shares</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1373,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:S200"/>
+  <dimension ref="A2:U200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1381,11 +1387,13 @@
     <col min="4" max="4" width="18.81640625" customWidth="1"/>
     <col min="5" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="17" width="14.453125" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="9" max="15" width="14.453125" customWidth="1"/>
+    <col min="16" max="17" width="16.6328125" customWidth="1"/>
+    <col min="18" max="19" width="14.453125" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1406,8 +1414,10 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="F3" s="68" t="s">
         <v>98</v>
       </c>
@@ -1420,12 +1430,14 @@
       </c>
       <c r="L3" s="67"/>
       <c r="M3" s="67"/>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="56"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>103</v>
       </c>
@@ -1460,25 +1472,31 @@
         <v>107</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="P4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>86</v>
       </c>
@@ -1512,23 +1530,25 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7">
+        <v>10.533252019479391</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19.628261569994095</v>
+      </c>
+      <c r="O5" s="7">
         <v>10</v>
       </c>
-      <c r="N5" s="7">
-        <v>10.533252019479391</v>
-      </c>
-      <c r="O5" s="7">
-        <v>19.628261569994095</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="6">
         <v>3.7138250391206357E-2</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
@@ -1562,23 +1582,25 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7">
+        <v>22.854887685632036</v>
+      </c>
+      <c r="N6" s="7">
+        <v>88.264955272628072</v>
+      </c>
+      <c r="O6" s="7">
         <v>17.28</v>
       </c>
-      <c r="N6" s="7">
-        <v>22.854887685632036</v>
-      </c>
-      <c r="O6" s="7">
-        <v>88.264955272628072</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="6">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
@@ -1610,23 +1632,25 @@
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7">
+        <v>30.215789550020695</v>
+      </c>
+      <c r="N7" s="7">
+        <v>50.125813062581891</v>
+      </c>
+      <c r="O7" s="7">
         <v>40</v>
       </c>
-      <c r="N7" s="7">
-        <v>30.215789550020695</v>
-      </c>
-      <c r="O7" s="7">
-        <v>50.125813062581891</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="6">
         <v>4.2113086692893716E-2</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1641,15 +1665,17 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="6">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="6">
         <v>5.528677051101695E-2</v>
       </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1664,15 +1690,17 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="6">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="6">
         <v>0.10996205272796702</v>
       </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1687,15 +1715,17 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="6">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="6">
         <v>2.1249172080193519E-2</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1710,15 +1740,17 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="6">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="6">
         <v>5.8859502535343992E-2</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8">
+      <c r="S11" s="8"/>
+      <c r="T11" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1733,15 +1765,17 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="6">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="6">
         <v>0</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1756,15 +1790,17 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="6">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="6">
         <v>2.2000179208441571E-2</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8">
+      <c r="S13" s="8"/>
+      <c r="T13" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1779,11 +1815,13 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1798,11 +1836,13 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1812,14 +1852,14 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1829,14 +1869,14 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1846,13 +1886,13 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="M18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1862,13 +1902,13 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="M19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1878,13 +1918,13 @@
       <c r="H20" s="6"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="M20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1894,13 +1934,13 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="M21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1910,14 +1950,14 @@
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1927,14 +1967,14 @@
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P23" s="7"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1949,11 +1989,13 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1968,11 +2010,13 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P25" s="7"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1987,11 +2031,13 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P26" s="7"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2006,11 +2052,13 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P27" s="7"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2025,11 +2073,13 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P28" s="7"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2044,11 +2094,13 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2063,11 +2115,13 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2082,11 +2136,13 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P31" s="7"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2101,11 +2157,13 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2120,11 +2178,13 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2139,11 +2199,13 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P34" s="7"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2158,11 +2220,13 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P35" s="7"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2177,11 +2241,13 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P36" s="7"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2196,11 +2262,13 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P37" s="7"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2215,11 +2283,13 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P38" s="7"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2234,11 +2304,13 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P39" s="7"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2253,11 +2325,13 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P40" s="7"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2272,11 +2346,13 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P41" s="7"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2291,11 +2367,13 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P42" s="7"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2310,11 +2388,13 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P43" s="7"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2329,11 +2409,13 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P44" s="7"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2348,11 +2430,13 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P45" s="7"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2367,11 +2451,13 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P46" s="7"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2386,11 +2472,13 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P47" s="7"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2405,11 +2493,13 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P48" s="7"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2424,11 +2514,13 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P49" s="7"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2443,11 +2535,13 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P50" s="7"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2462,11 +2556,13 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P51" s="7"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2481,11 +2577,13 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P52" s="7"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2500,11 +2598,13 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P53" s="7"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2519,11 +2619,13 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P54" s="7"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2538,11 +2640,13 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P55" s="7"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2557,11 +2661,13 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P56" s="7"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2576,11 +2682,13 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P57" s="7"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2595,11 +2703,13 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P58" s="7"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2614,11 +2724,13 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P59" s="7"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2633,11 +2745,13 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="7"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P60" s="7"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2652,11 +2766,13 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="7"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P61" s="7"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2671,11 +2787,13 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P62" s="7"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2690,11 +2808,13 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P63" s="7"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2709,11 +2829,13 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P64" s="7"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2728,11 +2850,13 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P65" s="7"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -2747,11 +2871,13 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P66" s="7"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2766,11 +2892,13 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="7"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P67" s="7"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2785,11 +2913,13 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P68" s="7"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2804,11 +2934,13 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P69" s="7"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2823,11 +2955,13 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P70" s="7"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2842,11 +2976,13 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P71" s="7"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -2861,11 +2997,13 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P72" s="7"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -2880,11 +3018,13 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P73" s="7"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2899,11 +3039,13 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P74" s="7"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -2918,11 +3060,13 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P75" s="7"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2937,11 +3081,13 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P76" s="7"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2956,11 +3102,13 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P77" s="7"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2975,11 +3123,13 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P78" s="7"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2994,11 +3144,13 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
       <c r="O79" s="7"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P79" s="7"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3013,11 +3165,13 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P80" s="7"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3032,11 +3186,13 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P81" s="7"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3051,11 +3207,13 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P82" s="7"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -3070,11 +3228,13 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="7"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P83" s="7"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3089,11 +3249,13 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P84" s="7"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3108,11 +3270,13 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P85" s="7"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3127,11 +3291,13 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P86" s="7"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3146,11 +3312,13 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P87" s="7"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -3165,11 +3333,13 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P88" s="7"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3184,11 +3354,13 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="O89" s="7"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P89" s="7"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3203,11 +3375,13 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P90" s="7"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3222,11 +3396,13 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P91" s="7"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -3241,11 +3417,13 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="O92" s="7"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P92" s="7"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3260,11 +3438,13 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
       <c r="O93" s="7"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P93" s="7"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3279,11 +3459,13 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="O94" s="7"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P94" s="7"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3298,11 +3480,13 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P95" s="7"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3317,11 +3501,13 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P96" s="7"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3336,11 +3522,13 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P97" s="7"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3355,11 +3543,13 @@
       <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P98" s="7"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3374,11 +3564,13 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P99" s="7"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3393,11 +3585,13 @@
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P100" s="7"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -3412,11 +3606,13 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P101" s="7"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3431,11 +3627,13 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P102" s="7"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3450,11 +3648,13 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
-      <c r="P103" s="6"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P103" s="7"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3469,11 +3669,13 @@
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P104" s="7"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3488,11 +3690,13 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P105" s="7"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3507,11 +3711,13 @@
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P106" s="7"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3526,11 +3732,13 @@
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P107" s="7"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3545,11 +3753,13 @@
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P108" s="7"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3564,11 +3774,13 @@
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P109" s="7"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3583,11 +3795,13 @@
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P110" s="7"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3602,11 +3816,13 @@
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
       <c r="O111" s="7"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P111" s="7"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3621,11 +3837,13 @@
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P112" s="7"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3640,11 +3858,13 @@
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P113" s="7"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -3659,11 +3879,13 @@
       <c r="M114" s="7"/>
       <c r="N114" s="7"/>
       <c r="O114" s="7"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P114" s="7"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3678,11 +3900,13 @@
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P115" s="7"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3697,11 +3921,13 @@
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P116" s="7"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3716,11 +3942,13 @@
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
       <c r="O117" s="7"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P117" s="7"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3735,11 +3963,13 @@
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
       <c r="O118" s="7"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P118" s="7"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3754,11 +3984,13 @@
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P119" s="7"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3773,11 +4005,13 @@
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P120" s="7"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -3792,11 +4026,13 @@
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P121" s="7"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -3811,11 +4047,13 @@
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P122" s="7"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
+    </row>
+    <row r="123" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -3830,11 +4068,13 @@
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P123" s="7"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="6"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3849,11 +4089,13 @@
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P124" s="7"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="6"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3868,11 +4110,13 @@
       <c r="M125" s="7"/>
       <c r="N125" s="7"/>
       <c r="O125" s="7"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P125" s="7"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3887,11 +4131,13 @@
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
       <c r="O126" s="7"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P126" s="7"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="6"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3906,11 +4152,13 @@
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
       <c r="O127" s="7"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P127" s="7"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="6"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3925,11 +4173,13 @@
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
       <c r="O128" s="7"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P128" s="7"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3944,11 +4194,13 @@
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
       <c r="O129" s="7"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P129" s="7"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="6"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="8"/>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3963,11 +4215,13 @@
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
       <c r="O130" s="7"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P130" s="7"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="8"/>
+      <c r="T130" s="8"/>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3982,11 +4236,13 @@
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
       <c r="O131" s="7"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P131" s="7"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4001,11 +4257,13 @@
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
       <c r="O132" s="7"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P132" s="7"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4020,11 +4278,13 @@
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
       <c r="O133" s="7"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P133" s="7"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="8"/>
+      <c r="T133" s="8"/>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4039,11 +4299,13 @@
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="8"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P134" s="7"/>
+      <c r="Q134" s="9"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="8"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4058,11 +4320,13 @@
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
       <c r="O135" s="7"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="8"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P135" s="7"/>
+      <c r="Q135" s="9"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="8"/>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -4077,11 +4341,13 @@
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
       <c r="O136" s="7"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="8"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P136" s="7"/>
+      <c r="Q136" s="9"/>
+      <c r="R136" s="6"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -4096,11 +4362,13 @@
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
       <c r="O137" s="7"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P137" s="7"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="8"/>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -4115,11 +4383,13 @@
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
       <c r="O138" s="7"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="8"/>
-      <c r="R138" s="8"/>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P138" s="7"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="8"/>
+    </row>
+    <row r="139" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -4134,11 +4404,13 @@
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="8"/>
-      <c r="R139" s="8"/>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P139" s="7"/>
+      <c r="Q139" s="9"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="8"/>
+      <c r="T139" s="8"/>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -4153,11 +4425,13 @@
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="8"/>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P140" s="7"/>
+      <c r="Q140" s="9"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="8"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -4172,11 +4446,13 @@
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="8"/>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P141" s="7"/>
+      <c r="Q141" s="9"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="8"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -4191,11 +4467,13 @@
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
       <c r="O142" s="7"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="8"/>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P142" s="7"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="8"/>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -4210,11 +4488,13 @@
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="8"/>
-      <c r="R143" s="8"/>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P143" s="7"/>
+      <c r="Q143" s="9"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="8"/>
+      <c r="T143" s="8"/>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4229,11 +4509,13 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
       <c r="O144" s="7"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="8"/>
-      <c r="R144" s="8"/>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P144" s="7"/>
+      <c r="Q144" s="9"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="8"/>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4248,11 +4530,13 @@
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
       <c r="O145" s="7"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="8"/>
-    </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P145" s="7"/>
+      <c r="Q145" s="9"/>
+      <c r="R145" s="6"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="8"/>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -4267,11 +4551,13 @@
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
       <c r="O146" s="7"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="8"/>
-      <c r="R146" s="8"/>
-    </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P146" s="7"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="8"/>
+    </row>
+    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4286,11 +4572,13 @@
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
       <c r="O147" s="7"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="8"/>
-      <c r="R147" s="8"/>
-    </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P147" s="7"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+    </row>
+    <row r="148" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -4305,11 +4593,13 @@
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
       <c r="O148" s="7"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="8"/>
-    </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P148" s="7"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4324,11 +4614,13 @@
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
       <c r="O149" s="7"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="8"/>
-      <c r="R149" s="8"/>
-    </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P149" s="7"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4343,11 +4635,13 @@
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
       <c r="O150" s="7"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="8"/>
-      <c r="R150" s="8"/>
-    </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P150" s="7"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -4362,11 +4656,13 @@
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
       <c r="O151" s="7"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="8"/>
-      <c r="R151" s="8"/>
-    </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P151" s="7"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -4381,11 +4677,13 @@
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
       <c r="O152" s="7"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="8"/>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P152" s="7"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
+    </row>
+    <row r="153" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -4400,11 +4698,13 @@
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P153" s="7"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="8"/>
+    </row>
+    <row r="154" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -4419,11 +4719,13 @@
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
       <c r="O154" s="7"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="8"/>
-      <c r="R154" s="8"/>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P154" s="7"/>
+      <c r="Q154" s="9"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="8"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -4438,11 +4740,13 @@
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="8"/>
-      <c r="R155" s="8"/>
-    </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P155" s="7"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="8"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4457,11 +4761,13 @@
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="8"/>
-      <c r="R156" s="8"/>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P156" s="7"/>
+      <c r="Q156" s="9"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="8"/>
+      <c r="T156" s="8"/>
+    </row>
+    <row r="157" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -4476,11 +4782,13 @@
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
       <c r="O157" s="7"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="8"/>
-      <c r="R157" s="8"/>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P157" s="7"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="8"/>
+    </row>
+    <row r="158" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -4495,11 +4803,13 @@
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
       <c r="O158" s="7"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="8"/>
-      <c r="R158" s="8"/>
-    </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P158" s="7"/>
+      <c r="Q158" s="9"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="8"/>
+    </row>
+    <row r="159" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -4514,11 +4824,13 @@
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
       <c r="O159" s="7"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="8"/>
-      <c r="R159" s="8"/>
-    </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P159" s="7"/>
+      <c r="Q159" s="9"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="8"/>
+    </row>
+    <row r="160" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -4533,11 +4845,13 @@
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="8"/>
-      <c r="R160" s="8"/>
-    </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P160" s="7"/>
+      <c r="Q160" s="9"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="8"/>
+      <c r="T160" s="8"/>
+    </row>
+    <row r="161" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -4552,11 +4866,13 @@
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
       <c r="O161" s="7"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="8"/>
-      <c r="R161" s="8"/>
-    </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P161" s="7"/>
+      <c r="Q161" s="9"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="8"/>
+      <c r="T161" s="8"/>
+    </row>
+    <row r="162" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -4571,11 +4887,13 @@
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
       <c r="O162" s="7"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="8"/>
-      <c r="R162" s="8"/>
-    </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P162" s="7"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="8"/>
+    </row>
+    <row r="163" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -4590,11 +4908,13 @@
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
       <c r="O163" s="7"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="8"/>
-    </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P163" s="7"/>
+      <c r="Q163" s="9"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="8"/>
+    </row>
+    <row r="164" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4609,11 +4929,13 @@
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
       <c r="O164" s="7"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="8"/>
-      <c r="R164" s="8"/>
-    </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P164" s="7"/>
+      <c r="Q164" s="9"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="8"/>
+      <c r="T164" s="8"/>
+    </row>
+    <row r="165" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4628,11 +4950,13 @@
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="8"/>
-      <c r="R165" s="8"/>
-    </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P165" s="7"/>
+      <c r="Q165" s="9"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="8"/>
+      <c r="T165" s="8"/>
+    </row>
+    <row r="166" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -4647,11 +4971,13 @@
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="8"/>
-      <c r="R166" s="8"/>
-    </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P166" s="7"/>
+      <c r="Q166" s="9"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="8"/>
+      <c r="T166" s="8"/>
+    </row>
+    <row r="167" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -4666,11 +4992,13 @@
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="8"/>
-      <c r="R167" s="8"/>
-    </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P167" s="7"/>
+      <c r="Q167" s="9"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="8"/>
+      <c r="T167" s="8"/>
+    </row>
+    <row r="168" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -4685,11 +5013,13 @@
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="8"/>
-      <c r="R168" s="8"/>
-    </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P168" s="7"/>
+      <c r="Q168" s="9"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="8"/>
+      <c r="T168" s="8"/>
+    </row>
+    <row r="169" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -4704,11 +5034,13 @@
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="8"/>
-      <c r="R169" s="8"/>
-    </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P169" s="7"/>
+      <c r="Q169" s="9"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="8"/>
+      <c r="T169" s="8"/>
+    </row>
+    <row r="170" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -4723,11 +5055,13 @@
       <c r="M170" s="7"/>
       <c r="N170" s="7"/>
       <c r="O170" s="7"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="8"/>
-      <c r="R170" s="8"/>
-    </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P170" s="7"/>
+      <c r="Q170" s="9"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="8"/>
+      <c r="T170" s="8"/>
+    </row>
+    <row r="171" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -4742,11 +5076,13 @@
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
       <c r="O171" s="7"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="8"/>
-      <c r="R171" s="8"/>
-    </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P171" s="7"/>
+      <c r="Q171" s="9"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="8"/>
+      <c r="T171" s="8"/>
+    </row>
+    <row r="172" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -4761,11 +5097,13 @@
       <c r="M172" s="7"/>
       <c r="N172" s="7"/>
       <c r="O172" s="7"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="8"/>
-      <c r="R172" s="8"/>
-    </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P172" s="7"/>
+      <c r="Q172" s="9"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="8"/>
+      <c r="T172" s="8"/>
+    </row>
+    <row r="173" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -4780,11 +5118,13 @@
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
       <c r="O173" s="7"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="8"/>
-      <c r="R173" s="8"/>
-    </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P173" s="7"/>
+      <c r="Q173" s="9"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="8"/>
+      <c r="T173" s="8"/>
+    </row>
+    <row r="174" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -4799,11 +5139,13 @@
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
       <c r="O174" s="7"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="8"/>
-      <c r="R174" s="8"/>
-    </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P174" s="7"/>
+      <c r="Q174" s="9"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="8"/>
+      <c r="T174" s="8"/>
+    </row>
+    <row r="175" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -4818,11 +5160,13 @@
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
       <c r="O175" s="7"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="8"/>
-      <c r="R175" s="8"/>
-    </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P175" s="7"/>
+      <c r="Q175" s="9"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="8"/>
+      <c r="T175" s="8"/>
+    </row>
+    <row r="176" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -4837,11 +5181,13 @@
       <c r="M176" s="7"/>
       <c r="N176" s="7"/>
       <c r="O176" s="7"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="8"/>
-      <c r="R176" s="8"/>
-    </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P176" s="7"/>
+      <c r="Q176" s="9"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="8"/>
+      <c r="T176" s="8"/>
+    </row>
+    <row r="177" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -4856,11 +5202,13 @@
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
       <c r="O177" s="7"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="8"/>
-      <c r="R177" s="8"/>
-    </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P177" s="7"/>
+      <c r="Q177" s="9"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="8"/>
+      <c r="T177" s="8"/>
+    </row>
+    <row r="178" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -4875,11 +5223,13 @@
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
       <c r="O178" s="7"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="8"/>
-      <c r="R178" s="8"/>
-    </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P178" s="7"/>
+      <c r="Q178" s="9"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="8"/>
+      <c r="T178" s="8"/>
+    </row>
+    <row r="179" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -4894,11 +5244,13 @@
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
       <c r="O179" s="7"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="8"/>
-      <c r="R179" s="8"/>
-    </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P179" s="7"/>
+      <c r="Q179" s="9"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="8"/>
+      <c r="T179" s="8"/>
+    </row>
+    <row r="180" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -4913,11 +5265,13 @@
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
       <c r="O180" s="7"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="8"/>
-      <c r="R180" s="8"/>
-    </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P180" s="7"/>
+      <c r="Q180" s="9"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="8"/>
+      <c r="T180" s="8"/>
+    </row>
+    <row r="181" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -4932,11 +5286,13 @@
       <c r="M181" s="7"/>
       <c r="N181" s="7"/>
       <c r="O181" s="7"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="8"/>
-      <c r="R181" s="8"/>
-    </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P181" s="7"/>
+      <c r="Q181" s="9"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="8"/>
+      <c r="T181" s="8"/>
+    </row>
+    <row r="182" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
@@ -4951,11 +5307,13 @@
       <c r="M182" s="7"/>
       <c r="N182" s="7"/>
       <c r="O182" s="7"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="8"/>
-      <c r="R182" s="8"/>
-    </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P182" s="7"/>
+      <c r="Q182" s="9"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="8"/>
+      <c r="T182" s="8"/>
+    </row>
+    <row r="183" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
@@ -4970,11 +5328,13 @@
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
       <c r="O183" s="7"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="8"/>
-      <c r="R183" s="8"/>
-    </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P183" s="7"/>
+      <c r="Q183" s="9"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="8"/>
+      <c r="T183" s="8"/>
+    </row>
+    <row r="184" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -4989,11 +5349,13 @@
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
       <c r="O184" s="7"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="8"/>
-      <c r="R184" s="8"/>
-    </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P184" s="7"/>
+      <c r="Q184" s="9"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="8"/>
+      <c r="T184" s="8"/>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
@@ -5008,11 +5370,13 @@
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
       <c r="O185" s="7"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="8"/>
-      <c r="R185" s="8"/>
-    </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P185" s="7"/>
+      <c r="Q185" s="9"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="8"/>
+      <c r="T185" s="8"/>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5027,11 +5391,13 @@
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
       <c r="O186" s="7"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="8"/>
-      <c r="R186" s="8"/>
-    </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P186" s="7"/>
+      <c r="Q186" s="9"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="8"/>
+      <c r="T186" s="8"/>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5046,11 +5412,13 @@
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
       <c r="O187" s="7"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="8"/>
-      <c r="R187" s="8"/>
-    </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P187" s="7"/>
+      <c r="Q187" s="9"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="8"/>
+      <c r="T187" s="8"/>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5065,11 +5433,13 @@
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
       <c r="O188" s="7"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="8"/>
-      <c r="R188" s="8"/>
-    </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P188" s="7"/>
+      <c r="Q188" s="9"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="8"/>
+      <c r="T188" s="8"/>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -5084,11 +5454,13 @@
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
       <c r="O189" s="7"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="8"/>
-      <c r="R189" s="8"/>
-    </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P189" s="7"/>
+      <c r="Q189" s="9"/>
+      <c r="R189" s="6"/>
+      <c r="S189" s="8"/>
+      <c r="T189" s="8"/>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5103,11 +5475,13 @@
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
       <c r="O190" s="7"/>
-      <c r="P190" s="6"/>
-      <c r="Q190" s="8"/>
-      <c r="R190" s="8"/>
-    </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P190" s="7"/>
+      <c r="Q190" s="9"/>
+      <c r="R190" s="6"/>
+      <c r="S190" s="8"/>
+      <c r="T190" s="8"/>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5122,11 +5496,13 @@
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
       <c r="O191" s="7"/>
-      <c r="P191" s="6"/>
-      <c r="Q191" s="8"/>
-      <c r="R191" s="8"/>
-    </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P191" s="7"/>
+      <c r="Q191" s="9"/>
+      <c r="R191" s="6"/>
+      <c r="S191" s="8"/>
+      <c r="T191" s="8"/>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5141,11 +5517,13 @@
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
       <c r="O192" s="7"/>
-      <c r="P192" s="6"/>
-      <c r="Q192" s="8"/>
-      <c r="R192" s="8"/>
-    </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P192" s="7"/>
+      <c r="Q192" s="9"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="8"/>
+      <c r="T192" s="8"/>
+    </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5160,11 +5538,13 @@
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="8"/>
-      <c r="R193" s="8"/>
-    </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P193" s="7"/>
+      <c r="Q193" s="9"/>
+      <c r="R193" s="6"/>
+      <c r="S193" s="8"/>
+      <c r="T193" s="8"/>
+    </row>
+    <row r="194" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -5179,11 +5559,13 @@
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
       <c r="O194" s="7"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="8"/>
-      <c r="R194" s="8"/>
-    </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P194" s="7"/>
+      <c r="Q194" s="9"/>
+      <c r="R194" s="6"/>
+      <c r="S194" s="8"/>
+      <c r="T194" s="8"/>
+    </row>
+    <row r="195" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
@@ -5198,11 +5580,13 @@
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
       <c r="O195" s="7"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="8"/>
-      <c r="R195" s="8"/>
-    </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P195" s="7"/>
+      <c r="Q195" s="9"/>
+      <c r="R195" s="6"/>
+      <c r="S195" s="8"/>
+      <c r="T195" s="8"/>
+    </row>
+    <row r="196" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
@@ -5217,11 +5601,13 @@
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
       <c r="O196" s="7"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="8"/>
-      <c r="R196" s="8"/>
-    </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P196" s="7"/>
+      <c r="Q196" s="9"/>
+      <c r="R196" s="6"/>
+      <c r="S196" s="8"/>
+      <c r="T196" s="8"/>
+    </row>
+    <row r="197" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
@@ -5236,11 +5622,13 @@
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
       <c r="O197" s="7"/>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="8"/>
-      <c r="R197" s="8"/>
-    </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P197" s="7"/>
+      <c r="Q197" s="9"/>
+      <c r="R197" s="6"/>
+      <c r="S197" s="8"/>
+      <c r="T197" s="8"/>
+    </row>
+    <row r="198" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
@@ -5255,11 +5643,13 @@
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
       <c r="O198" s="7"/>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="8"/>
-      <c r="R198" s="8"/>
-    </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P198" s="7"/>
+      <c r="Q198" s="9"/>
+      <c r="R198" s="6"/>
+      <c r="S198" s="8"/>
+      <c r="T198" s="8"/>
+    </row>
+    <row r="199" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
@@ -5274,11 +5664,13 @@
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
       <c r="O199" s="7"/>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="8"/>
-      <c r="R199" s="8"/>
-    </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P199" s="7"/>
+      <c r="Q199" s="9"/>
+      <c r="R199" s="6"/>
+      <c r="S199" s="8"/>
+      <c r="T199" s="8"/>
+    </row>
+    <row r="200" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
@@ -5293,15 +5685,17 @@
       <c r="M200" s="7"/>
       <c r="N200" s="7"/>
       <c r="O200" s="7"/>
-      <c r="P200" s="6"/>
-      <c r="Q200" s="8"/>
-      <c r="R200" s="8"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="9"/>
+      <c r="R200" s="6"/>
+      <c r="S200" s="8"/>
+      <c r="T200" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:R4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B4:T4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="K3:O3"/>
     <mergeCell ref="F3:J3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C1652-C8D1-4128-9EAB-34FEC58E2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBE151-1012-4F98-802F-A9B7D0DE6DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -344,12 +344,6 @@
   </si>
   <si>
     <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Net Non-Op</t>
-  </si>
-  <si>
-    <t>Op. Assets</t>
   </si>
   <si>
     <t>LFY Dividend</t>
@@ -563,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,12 +597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,9 +993,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,7 +1012,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1039,7 +1024,10 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1373,27 +1361,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:U200"/>
+  <dimension ref="A2:V200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
     <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="15" width="14.453125" customWidth="1"/>
-    <col min="16" max="17" width="16.6328125" customWidth="1"/>
-    <col min="18" max="19" width="14.453125" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="16.7265625" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1401,11 +1388,11 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -1414,4289 +1401,3451 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="F3" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="67" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D3" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" s="56"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="55"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.21431272400196813</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.7138250391206357E-2</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
+        <v>45001</v>
+      </c>
+      <c r="Q5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>10.199999809265137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.21431272400196813</v>
-      </c>
-      <c r="I5" s="7">
-        <f>F5-J5</f>
-        <v>4.8969228596705037</v>
-      </c>
-      <c r="J5" s="7">
-        <v>5.303076949594633</v>
-      </c>
-      <c r="K5" s="7">
-        <v>12.732006873311873</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
-        <v>10.533252019479391</v>
-      </c>
-      <c r="N5" s="7">
-        <v>19.628261569994095</v>
-      </c>
-      <c r="O5" s="7">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="6">
-        <v>3.7138250391206357E-2</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7">
+        <v>20.5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.3735588650440953</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8">
+        <v>45001</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>20.5</v>
-      </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="7">
+        <v>21.850000381469727</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6">
-        <v>0.3735588650440953</v>
-      </c>
-      <c r="I6" s="7">
-        <f>F6-J6</f>
-        <v>3.7958895743863792</v>
-      </c>
-      <c r="J6" s="7">
-        <v>16.704110425613621</v>
-      </c>
-      <c r="K6" s="7">
-        <v>27.975883710030505</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
-        <v>22.854887685632036</v>
-      </c>
-      <c r="N6" s="7">
-        <v>88.264955272628072</v>
-      </c>
-      <c r="O6" s="7">
-        <v>17.28</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="6">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>4.2113086692893716E-2</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
         <v>45001</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7">
-        <v>21.850000381469727</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7">
-        <f>F7-J7</f>
-        <v>-8.0901652308962895</v>
-      </c>
-      <c r="J7" s="7">
-        <v>29.940165612366016</v>
-      </c>
-      <c r="K7" s="7">
-        <v>43.321863507906812</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
-        <v>30.215789550020695</v>
-      </c>
-      <c r="N7" s="7">
-        <v>50.125813062581891</v>
-      </c>
-      <c r="O7" s="7">
-        <v>40</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="6">
-        <v>4.2113086692893716E-2</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="6">
-        <v>5.528677051101695E-2</v>
-      </c>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8">
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="6">
-        <v>0.10996205272796702</v>
-      </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8">
+      <c r="N9" s="9"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="6">
-        <v>2.1249172080193519E-2</v>
-      </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8">
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="6">
-        <v>5.8859502535343992E-2</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8">
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="6">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8">
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="6">
-        <v>2.2000179208441571E-2</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8">
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N24" s="9"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N25" s="9"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N26" s="9"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N28" s="9"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N29" s="9"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N31" s="9"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N32" s="9"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N33" s="9"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N35" s="9"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N36" s="9"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N37" s="9"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N38" s="9"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N39" s="9"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N40" s="9"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N41" s="9"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N42" s="9"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N43" s="9"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N44" s="9"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N45" s="9"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N46" s="9"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N47" s="9"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N48" s="9"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N49" s="9"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N50" s="9"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N51" s="9"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N52" s="9"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N53" s="9"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N54" s="9"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N55" s="9"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N56" s="9"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N57" s="9"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N58" s="9"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N59" s="9"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N60" s="9"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="9"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N61" s="9"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N62" s="9"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N63" s="9"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N64" s="9"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N65" s="9"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N66" s="9"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N67" s="9"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N68" s="9"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N69" s="9"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N70" s="9"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N71" s="9"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N72" s="9"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N73" s="9"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N74" s="9"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N75" s="9"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N76" s="9"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N77" s="9"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N78" s="9"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N79" s="9"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N80" s="9"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N81" s="9"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N82" s="9"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N83" s="9"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N84" s="9"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N85" s="9"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N86" s="9"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N87" s="9"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="9"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N88" s="9"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N89" s="9"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N90" s="9"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N91" s="9"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N92" s="9"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="9"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N93" s="9"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N94" s="9"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N95" s="9"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N96" s="9"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N97" s="9"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N98" s="9"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N99" s="9"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N100" s="9"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N101" s="9"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N102" s="9"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="6"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N103" s="9"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="6"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N104" s="9"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="9"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N105" s="9"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N106" s="9"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N107" s="9"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N108" s="9"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N109" s="9"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N110" s="9"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N111" s="9"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N112" s="9"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="9"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N113" s="9"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N114" s="9"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N115" s="9"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N116" s="9"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="9"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N117" s="9"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N118" s="9"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N119" s="9"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N120" s="9"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N121" s="9"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N122" s="9"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N123" s="9"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N124" s="9"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="9"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N125" s="9"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="9"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="8"/>
-      <c r="T126" s="8"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N126" s="9"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="9"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N127" s="9"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="9"/>
-      <c r="R128" s="6"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N128" s="9"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="9"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="8"/>
-      <c r="T129" s="8"/>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N129" s="9"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="9"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="8"/>
-      <c r="T130" s="8"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N130" s="9"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N131" s="9"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N132" s="9"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N133" s="9"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="8"/>
-      <c r="T134" s="8"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N134" s="9"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N135" s="9"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="8"/>
-      <c r="T136" s="8"/>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N136" s="9"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="8"/>
-      <c r="T137" s="8"/>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N137" s="9"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+    </row>
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="8"/>
-      <c r="T138" s="8"/>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N138" s="9"/>
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+    </row>
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="8"/>
-      <c r="T139" s="8"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N139" s="9"/>
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+    </row>
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="8"/>
-      <c r="T140" s="8"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N140" s="9"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+    </row>
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="8"/>
-      <c r="T141" s="8"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N141" s="9"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+    </row>
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="8"/>
-      <c r="T142" s="8"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N142" s="9"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+    </row>
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="8"/>
-      <c r="T143" s="8"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N143" s="9"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="8"/>
-      <c r="T144" s="8"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N144" s="9"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+    </row>
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="8"/>
-      <c r="T145" s="8"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N145" s="9"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+    </row>
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="8"/>
-      <c r="T146" s="8"/>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N146" s="9"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+    </row>
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="8"/>
-      <c r="T147" s="8"/>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N147" s="9"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+    </row>
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="7"/>
-      <c r="O148" s="7"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="8"/>
-      <c r="T148" s="8"/>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N148" s="9"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+    </row>
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="9"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="8"/>
-      <c r="T149" s="8"/>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N149" s="9"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+    </row>
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
-      <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="9"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="8"/>
-      <c r="T150" s="8"/>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N150" s="9"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+    </row>
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="9"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="8"/>
-      <c r="T151" s="8"/>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N151" s="9"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+    </row>
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="9"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="8"/>
-      <c r="T152" s="8"/>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N152" s="9"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="9"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="8"/>
-      <c r="T153" s="8"/>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N153" s="9"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+    </row>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="9"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="8"/>
-      <c r="T154" s="8"/>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N154" s="9"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+    </row>
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="9"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="8"/>
-      <c r="T155" s="8"/>
-    </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N155" s="9"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+    </row>
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
-      <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="9"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="8"/>
-      <c r="T156" s="8"/>
-    </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N156" s="9"/>
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+    </row>
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="9"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="8"/>
-      <c r="T157" s="8"/>
-    </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N157" s="9"/>
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+    </row>
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
-      <c r="N158" s="7"/>
-      <c r="O158" s="7"/>
-      <c r="P158" s="7"/>
-      <c r="Q158" s="9"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="8"/>
-      <c r="T158" s="8"/>
-    </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N158" s="9"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+    </row>
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
-      <c r="N159" s="7"/>
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="9"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="8"/>
-      <c r="T159" s="8"/>
-    </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N159" s="9"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+    </row>
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="7"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="9"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="8"/>
-      <c r="T160" s="8"/>
-    </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N160" s="9"/>
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+    </row>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
-      <c r="N161" s="7"/>
-      <c r="O161" s="7"/>
-      <c r="P161" s="7"/>
-      <c r="Q161" s="9"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="8"/>
-      <c r="T161" s="8"/>
-    </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N161" s="9"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+    </row>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
-      <c r="N162" s="7"/>
-      <c r="O162" s="7"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="9"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="8"/>
-      <c r="T162" s="8"/>
-    </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N162" s="9"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+    </row>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
-      <c r="O163" s="7"/>
-      <c r="P163" s="7"/>
-      <c r="Q163" s="9"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="8"/>
-      <c r="T163" s="8"/>
-    </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N163" s="9"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+    </row>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="9"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="8"/>
-      <c r="T164" s="8"/>
-    </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N164" s="9"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+    </row>
+    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
-      <c r="N165" s="7"/>
-      <c r="O165" s="7"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="9"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="8"/>
-      <c r="T165" s="8"/>
-    </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N165" s="9"/>
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+    </row>
+    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
-      <c r="N166" s="7"/>
-      <c r="O166" s="7"/>
-      <c r="P166" s="7"/>
-      <c r="Q166" s="9"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="8"/>
-      <c r="T166" s="8"/>
-    </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N166" s="9"/>
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+    </row>
+    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="9"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="8"/>
-      <c r="T167" s="8"/>
-    </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N167" s="9"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+    </row>
+    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="9"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="8"/>
-      <c r="T168" s="8"/>
-    </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N168" s="9"/>
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
-      <c r="N169" s="7"/>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="9"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="8"/>
-      <c r="T169" s="8"/>
-    </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N169" s="9"/>
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+    </row>
+    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="9"/>
-      <c r="R170" s="6"/>
-      <c r="S170" s="8"/>
-      <c r="T170" s="8"/>
-    </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N170" s="9"/>
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+    </row>
+    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="9"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="8"/>
-      <c r="T171" s="8"/>
-    </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N171" s="9"/>
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+    </row>
+    <row r="172" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
-      <c r="N172" s="7"/>
-      <c r="O172" s="7"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="9"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="8"/>
-      <c r="T172" s="8"/>
-    </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N172" s="9"/>
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+    </row>
+    <row r="173" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="9"/>
-      <c r="R173" s="6"/>
-      <c r="S173" s="8"/>
-      <c r="T173" s="8"/>
-    </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N173" s="9"/>
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+    </row>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="9"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="8"/>
-      <c r="T174" s="8"/>
-    </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N174" s="9"/>
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+    </row>
+    <row r="175" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="9"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="8"/>
-      <c r="T175" s="8"/>
-    </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N175" s="9"/>
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+    </row>
+    <row r="176" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="9"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="8"/>
-      <c r="T176" s="8"/>
-    </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N176" s="9"/>
+      <c r="O176" s="8"/>
+      <c r="P176" s="8"/>
+    </row>
+    <row r="177" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="6"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
-      <c r="P177" s="7"/>
-      <c r="Q177" s="9"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="8"/>
-      <c r="T177" s="8"/>
-    </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N177" s="9"/>
+      <c r="O177" s="8"/>
+      <c r="P177" s="8"/>
+    </row>
+    <row r="178" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="6"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
-      <c r="N178" s="7"/>
-      <c r="O178" s="7"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="9"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="8"/>
-      <c r="T178" s="8"/>
-    </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N178" s="9"/>
+      <c r="O178" s="8"/>
+      <c r="P178" s="8"/>
+    </row>
+    <row r="179" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="6"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="9"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="8"/>
-      <c r="T179" s="8"/>
-    </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N179" s="9"/>
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+    </row>
+    <row r="180" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="6"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="9"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="8"/>
-      <c r="T180" s="8"/>
-    </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N180" s="9"/>
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+    </row>
+    <row r="181" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="6"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="9"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="8"/>
-      <c r="T181" s="8"/>
-    </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N181" s="9"/>
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+    </row>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
-      <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="9"/>
-      <c r="R182" s="6"/>
-      <c r="S182" s="8"/>
-      <c r="T182" s="8"/>
-    </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N182" s="9"/>
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="6"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="9"/>
-      <c r="R183" s="6"/>
-      <c r="S183" s="8"/>
-      <c r="T183" s="8"/>
-    </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N183" s="9"/>
+      <c r="O183" s="8"/>
+      <c r="P183" s="8"/>
+    </row>
+    <row r="184" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="6"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="9"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="8"/>
-      <c r="T184" s="8"/>
-    </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N184" s="9"/>
+      <c r="O184" s="8"/>
+      <c r="P184" s="8"/>
+    </row>
+    <row r="185" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="6"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="9"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="8"/>
-      <c r="T185" s="8"/>
-    </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N185" s="9"/>
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="6"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="9"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="8"/>
-      <c r="T186" s="8"/>
-    </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N186" s="9"/>
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+    </row>
+    <row r="187" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="6"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="9"/>
-      <c r="R187" s="6"/>
-      <c r="S187" s="8"/>
-      <c r="T187" s="8"/>
-    </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N187" s="9"/>
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+    </row>
+    <row r="188" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="6"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="9"/>
-      <c r="R188" s="6"/>
-      <c r="S188" s="8"/>
-      <c r="T188" s="8"/>
-    </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N188" s="9"/>
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+    </row>
+    <row r="189" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="9"/>
-      <c r="R189" s="6"/>
-      <c r="S189" s="8"/>
-      <c r="T189" s="8"/>
-    </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N189" s="9"/>
+      <c r="O189" s="8"/>
+      <c r="P189" s="8"/>
+    </row>
+    <row r="190" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="6"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="9"/>
-      <c r="R190" s="6"/>
-      <c r="S190" s="8"/>
-      <c r="T190" s="8"/>
-    </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N190" s="9"/>
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+    </row>
+    <row r="191" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="6"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
-      <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
-      <c r="Q191" s="9"/>
-      <c r="R191" s="6"/>
-      <c r="S191" s="8"/>
-      <c r="T191" s="8"/>
-    </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N191" s="9"/>
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
+    </row>
+    <row r="192" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="6"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
-      <c r="N192" s="7"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="7"/>
-      <c r="Q192" s="9"/>
-      <c r="R192" s="6"/>
-      <c r="S192" s="8"/>
-      <c r="T192" s="8"/>
-    </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N192" s="9"/>
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="6"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
-      <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
-      <c r="Q193" s="9"/>
-      <c r="R193" s="6"/>
-      <c r="S193" s="8"/>
-      <c r="T193" s="8"/>
-    </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N193" s="9"/>
+      <c r="O193" s="8"/>
+      <c r="P193" s="8"/>
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="6"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
-      <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
-      <c r="P194" s="7"/>
-      <c r="Q194" s="9"/>
-      <c r="R194" s="6"/>
-      <c r="S194" s="8"/>
-      <c r="T194" s="8"/>
-    </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N194" s="9"/>
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="6"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
-      <c r="Q195" s="9"/>
-      <c r="R195" s="6"/>
-      <c r="S195" s="8"/>
-      <c r="T195" s="8"/>
-    </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N195" s="9"/>
+      <c r="O195" s="8"/>
+      <c r="P195" s="8"/>
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="6"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
-      <c r="N196" s="7"/>
-      <c r="O196" s="7"/>
-      <c r="P196" s="7"/>
-      <c r="Q196" s="9"/>
-      <c r="R196" s="6"/>
-      <c r="S196" s="8"/>
-      <c r="T196" s="8"/>
-    </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N196" s="9"/>
+      <c r="O196" s="8"/>
+      <c r="P196" s="8"/>
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="6"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
-      <c r="N197" s="7"/>
-      <c r="O197" s="7"/>
-      <c r="P197" s="7"/>
-      <c r="Q197" s="9"/>
-      <c r="R197" s="6"/>
-      <c r="S197" s="8"/>
-      <c r="T197" s="8"/>
-    </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N197" s="9"/>
+      <c r="O197" s="8"/>
+      <c r="P197" s="8"/>
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="6"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
-      <c r="N198" s="7"/>
-      <c r="O198" s="7"/>
-      <c r="P198" s="7"/>
-      <c r="Q198" s="9"/>
-      <c r="R198" s="6"/>
-      <c r="S198" s="8"/>
-      <c r="T198" s="8"/>
-    </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N198" s="9"/>
+      <c r="O198" s="8"/>
+      <c r="P198" s="8"/>
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="6"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
-      <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="Q199" s="9"/>
-      <c r="R199" s="6"/>
-      <c r="S199" s="8"/>
-      <c r="T199" s="8"/>
-    </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="N199" s="9"/>
+      <c r="O199" s="8"/>
+      <c r="P199" s="8"/>
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="6"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
-      <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="9"/>
-      <c r="R200" s="6"/>
-      <c r="S200" s="8"/>
-      <c r="T200" s="8"/>
+      <c r="N200" s="9"/>
+      <c r="O200" s="8"/>
+      <c r="P200" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:T4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B4:P4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5739,8 +4888,8 @@
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -5749,15 +4898,15 @@
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -5766,16 +4915,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -7971,17 +7120,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61">
         <f>F3*0.8</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64">
+      <c r="E3" s="62"/>
+      <c r="F3" s="63">
         <v>0.1</v>
       </c>
     </row>
@@ -8063,8 +7212,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="55" t="s">
-        <v>95</v>
+      <c r="B12" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="C12" s="43">
         <f>IF(C36=4,1.2, IF(C36=-4,1.1,1))</f>
@@ -8573,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBE151-1012-4F98-802F-A9B7D0DE6DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F5370-1F73-4ED8-8901-AE11DC3BAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -334,16 +334,10 @@
     <t>KERRY PPT</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>0083.HK</t>
   </si>
   <si>
     <t>SINO LAND</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
   </si>
   <si>
     <t>LFY Dividend</t>
@@ -868,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -996,7 +990,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1009,31 +1023,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1361,10 +1350,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V200"/>
+  <dimension ref="A2:Q200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1377,10 +1366,9 @@
     <col min="8" max="14" width="14.6328125" customWidth="1"/>
     <col min="15" max="15" width="14.453125" customWidth="1"/>
     <col min="16" max="16" width="16.7265625" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1400,30 +1388,29 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D3" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="66" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D3" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="55"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="61"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1438,48 +1425,45 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="D5" s="7">
         <v>10.199999809265137</v>
@@ -1505,13 +1489,10 @@
         <v>45001</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
@@ -1542,18 +1523,15 @@
         <v>45001</v>
       </c>
       <c r="Q6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="7">
         <v>21.850000381469727</v>
@@ -1577,13 +1555,10 @@
         <v>45001</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -1602,7 +1577,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -1621,7 +1596,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -1640,7 +1615,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -1659,7 +1634,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -1678,7 +1653,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -1697,7 +1672,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -1714,7 +1689,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1731,7 +1706,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -4880,7 +4855,7 @@
       <c r="I2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="60">
         <v>44902</v>
       </c>
     </row>
@@ -4888,8 +4863,8 @@
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -4898,15 +4873,15 @@
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -4915,16 +4890,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -4947,7 +4922,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="9">
@@ -4962,7 +4937,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="69"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="6"/>
@@ -4973,7 +4948,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="69"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="6"/>
@@ -4984,7 +4959,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="6"/>
@@ -4995,7 +4970,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="69"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -5006,7 +4981,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="9"/>
       <c r="J12" s="6"/>
     </row>
@@ -5016,7 +4991,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="69"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="9"/>
       <c r="J13" s="6"/>
     </row>
@@ -5026,7 +5001,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="9"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -5037,7 +5012,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="69"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="9"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -5048,7 +5023,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="9"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -5059,7 +5034,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="69"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="9"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -5070,7 +5045,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -5081,7 +5056,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="69"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -5092,7 +5067,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -5103,7 +5078,7 @@
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="69"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -5114,7 +5089,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="69"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -5125,7 +5100,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="69"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -5136,7 +5111,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="9"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -5147,7 +5122,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="69"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="9"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -5158,7 +5133,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="69"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="9"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -5169,7 +5144,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="69"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="9"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -5180,7 +5155,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="69"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="9"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -5191,7 +5166,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="69"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="9"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -5202,7 +5177,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="69"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="9"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -5213,7 +5188,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="69"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="9"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -5224,7 +5199,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="69"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="9"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -5235,7 +5210,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="69"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="9"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -5246,7 +5221,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="69"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="9"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -5257,7 +5232,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="69"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="9"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -5268,7 +5243,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="7"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="69"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="9"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -5279,7 +5254,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="7"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="69"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="9"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -5290,7 +5265,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="7"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="69"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="9"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -5301,7 +5276,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="69"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="9"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -5312,7 +5287,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="7"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="69"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="9"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -5323,7 +5298,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="7"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="69"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="9"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -5334,7 +5309,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="69"/>
+      <c r="G42" s="5"/>
       <c r="H42" s="9"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5345,7 +5320,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="69"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="9"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -5356,7 +5331,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="69"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="9"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -5367,7 +5342,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="69"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="9"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -5378,7 +5353,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="7"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="69"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="9"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5389,7 +5364,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="7"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="69"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="9"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -5400,7 +5375,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="7"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="69"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="9"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -5411,7 +5386,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="7"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="69"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="9"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -5422,7 +5397,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="69"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="9"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -5433,7 +5408,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="7"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="69"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="9"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -5444,7 +5419,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="7"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="69"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="9"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -5455,7 +5430,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="7"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="69"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="9"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -5466,7 +5441,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="7"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="69"/>
+      <c r="G54" s="5"/>
       <c r="H54" s="9"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -5477,7 +5452,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="69"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="9"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -5488,7 +5463,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="7"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="69"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="9"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -5499,7 +5474,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="7"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="69"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="9"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -5510,7 +5485,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="7"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="69"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="9"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -5521,7 +5496,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="7"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="69"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="9"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -5532,7 +5507,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="7"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="69"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="9"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -5543,7 +5518,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="7"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="69"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="9"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -5554,7 +5529,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="7"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="69"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="9"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -5565,7 +5540,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="7"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="69"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="9"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -5576,7 +5551,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="7"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="69"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="9"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -5587,7 +5562,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="7"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="69"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="9"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -5598,7 +5573,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="69"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="9"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -5609,7 +5584,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="7"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="69"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="9"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -5620,7 +5595,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="7"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="69"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -5631,7 +5606,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="7"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="69"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -5642,7 +5617,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="7"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="69"/>
+      <c r="G70" s="5"/>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -5653,7 +5628,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="7"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="69"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="9"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -5664,7 +5639,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="7"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="69"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="9"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -5675,7 +5650,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="7"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="69"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="9"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -5686,7 +5661,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="7"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="69"/>
+      <c r="G74" s="5"/>
       <c r="H74" s="9"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -5697,7 +5672,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="7"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="69"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="9"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -5708,7 +5683,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="7"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="69"/>
+      <c r="G76" s="5"/>
       <c r="H76" s="9"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -5719,7 +5694,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="7"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="69"/>
+      <c r="G77" s="5"/>
       <c r="H77" s="9"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -5730,7 +5705,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="7"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="69"/>
+      <c r="G78" s="5"/>
       <c r="H78" s="9"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -5741,7 +5716,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="7"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="69"/>
+      <c r="G79" s="5"/>
       <c r="H79" s="9"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -5752,7 +5727,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="7"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="69"/>
+      <c r="G80" s="5"/>
       <c r="H80" s="9"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -5763,7 +5738,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="7"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="69"/>
+      <c r="G81" s="5"/>
       <c r="H81" s="9"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -5774,7 +5749,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="7"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="69"/>
+      <c r="G82" s="5"/>
       <c r="H82" s="9"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -5785,7 +5760,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="69"/>
+      <c r="G83" s="5"/>
       <c r="H83" s="9"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -5796,7 +5771,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="7"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="69"/>
+      <c r="G84" s="5"/>
       <c r="H84" s="9"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -5807,7 +5782,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="69"/>
+      <c r="G85" s="5"/>
       <c r="H85" s="9"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -5818,7 +5793,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="69"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="9"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -5829,7 +5804,7 @@
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="69"/>
+      <c r="G87" s="5"/>
       <c r="H87" s="9"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -5840,7 +5815,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="69"/>
+      <c r="G88" s="5"/>
       <c r="H88" s="9"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -5851,7 +5826,7 @@
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="69"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="9"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -5862,7 +5837,7 @@
       <c r="D90" s="5"/>
       <c r="E90" s="7"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="69"/>
+      <c r="G90" s="5"/>
       <c r="H90" s="9"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -5873,7 +5848,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="69"/>
+      <c r="G91" s="5"/>
       <c r="H91" s="9"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -5884,7 +5859,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="69"/>
+      <c r="G92" s="5"/>
       <c r="H92" s="9"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -5895,7 +5870,7 @@
       <c r="D93" s="5"/>
       <c r="E93" s="7"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="69"/>
+      <c r="G93" s="5"/>
       <c r="H93" s="9"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -5906,7 +5881,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="7"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="69"/>
+      <c r="G94" s="5"/>
       <c r="H94" s="9"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -5917,7 +5892,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="7"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="69"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="9"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -5928,7 +5903,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="7"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="69"/>
+      <c r="G96" s="5"/>
       <c r="H96" s="9"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -5939,7 +5914,7 @@
       <c r="D97" s="5"/>
       <c r="E97" s="7"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="69"/>
+      <c r="G97" s="5"/>
       <c r="H97" s="9"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -5950,7 +5925,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="7"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="69"/>
+      <c r="G98" s="5"/>
       <c r="H98" s="9"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -5961,7 +5936,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="7"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="69"/>
+      <c r="G99" s="5"/>
       <c r="H99" s="9"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
@@ -5972,7 +5947,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="69"/>
+      <c r="G100" s="5"/>
       <c r="H100" s="9"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -5983,7 +5958,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="7"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="69"/>
+      <c r="G101" s="5"/>
       <c r="H101" s="9"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -5994,7 +5969,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="69"/>
+      <c r="G102" s="5"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -6005,7 +5980,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="69"/>
+      <c r="G103" s="5"/>
       <c r="H103" s="9"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -6016,7 +5991,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="69"/>
+      <c r="G104" s="5"/>
       <c r="H104" s="9"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -6027,7 +6002,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="69"/>
+      <c r="G105" s="5"/>
       <c r="H105" s="9"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -6038,7 +6013,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="69"/>
+      <c r="G106" s="5"/>
       <c r="H106" s="9"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -6049,7 +6024,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="7"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="69"/>
+      <c r="G107" s="5"/>
       <c r="H107" s="9"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
@@ -6060,7 +6035,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="69"/>
+      <c r="G108" s="5"/>
       <c r="H108" s="9"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -6071,7 +6046,7 @@
       <c r="D109" s="5"/>
       <c r="E109" s="7"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="69"/>
+      <c r="G109" s="5"/>
       <c r="H109" s="9"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -6082,7 +6057,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="69"/>
+      <c r="G110" s="5"/>
       <c r="H110" s="9"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -6093,7 +6068,7 @@
       <c r="D111" s="5"/>
       <c r="E111" s="7"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="69"/>
+      <c r="G111" s="5"/>
       <c r="H111" s="9"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -6104,7 +6079,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="69"/>
+      <c r="G112" s="5"/>
       <c r="H112" s="9"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -6115,7 +6090,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="7"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="69"/>
+      <c r="G113" s="5"/>
       <c r="H113" s="9"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -6126,7 +6101,7 @@
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="69"/>
+      <c r="G114" s="5"/>
       <c r="H114" s="9"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
@@ -6137,7 +6112,7 @@
       <c r="D115" s="5"/>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="69"/>
+      <c r="G115" s="5"/>
       <c r="H115" s="9"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -6148,7 +6123,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="69"/>
+      <c r="G116" s="5"/>
       <c r="H116" s="9"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
@@ -6159,7 +6134,7 @@
       <c r="D117" s="5"/>
       <c r="E117" s="7"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="69"/>
+      <c r="G117" s="5"/>
       <c r="H117" s="9"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
@@ -6170,7 +6145,7 @@
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="69"/>
+      <c r="G118" s="5"/>
       <c r="H118" s="9"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
@@ -6181,7 +6156,7 @@
       <c r="D119" s="5"/>
       <c r="E119" s="7"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="69"/>
+      <c r="G119" s="5"/>
       <c r="H119" s="9"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -6192,7 +6167,7 @@
       <c r="D120" s="5"/>
       <c r="E120" s="7"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="69"/>
+      <c r="G120" s="5"/>
       <c r="H120" s="9"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
@@ -6203,7 +6178,7 @@
       <c r="D121" s="5"/>
       <c r="E121" s="7"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="69"/>
+      <c r="G121" s="5"/>
       <c r="H121" s="9"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
@@ -6214,7 +6189,7 @@
       <c r="D122" s="5"/>
       <c r="E122" s="7"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="69"/>
+      <c r="G122" s="5"/>
       <c r="H122" s="9"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
@@ -6225,7 +6200,7 @@
       <c r="D123" s="5"/>
       <c r="E123" s="7"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="69"/>
+      <c r="G123" s="5"/>
       <c r="H123" s="9"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
@@ -6236,7 +6211,7 @@
       <c r="D124" s="5"/>
       <c r="E124" s="7"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="69"/>
+      <c r="G124" s="5"/>
       <c r="H124" s="9"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -6247,7 +6222,7 @@
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="69"/>
+      <c r="G125" s="5"/>
       <c r="H125" s="9"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -6258,7 +6233,7 @@
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="69"/>
+      <c r="G126" s="5"/>
       <c r="H126" s="9"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -6269,7 +6244,7 @@
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="69"/>
+      <c r="G127" s="5"/>
       <c r="H127" s="9"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -6280,7 +6255,7 @@
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="69"/>
+      <c r="G128" s="5"/>
       <c r="H128" s="9"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -6291,7 +6266,7 @@
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="69"/>
+      <c r="G129" s="5"/>
       <c r="H129" s="9"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -6302,7 +6277,7 @@
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="69"/>
+      <c r="G130" s="5"/>
       <c r="H130" s="9"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -6313,7 +6288,7 @@
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="69"/>
+      <c r="G131" s="5"/>
       <c r="H131" s="9"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -6324,7 +6299,7 @@
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="69"/>
+      <c r="G132" s="5"/>
       <c r="H132" s="9"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -6335,7 +6310,7 @@
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="69"/>
+      <c r="G133" s="5"/>
       <c r="H133" s="9"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
@@ -6346,7 +6321,7 @@
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="69"/>
+      <c r="G134" s="5"/>
       <c r="H134" s="9"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -6357,7 +6332,7 @@
       <c r="D135" s="5"/>
       <c r="E135" s="7"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="69"/>
+      <c r="G135" s="5"/>
       <c r="H135" s="9"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -6368,7 +6343,7 @@
       <c r="D136" s="5"/>
       <c r="E136" s="7"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="69"/>
+      <c r="G136" s="5"/>
       <c r="H136" s="9"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -6379,7 +6354,7 @@
       <c r="D137" s="5"/>
       <c r="E137" s="7"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="69"/>
+      <c r="G137" s="5"/>
       <c r="H137" s="9"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -6390,7 +6365,7 @@
       <c r="D138" s="5"/>
       <c r="E138" s="7"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="69"/>
+      <c r="G138" s="5"/>
       <c r="H138" s="9"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -6401,7 +6376,7 @@
       <c r="D139" s="5"/>
       <c r="E139" s="7"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="69"/>
+      <c r="G139" s="5"/>
       <c r="H139" s="9"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -6412,7 +6387,7 @@
       <c r="D140" s="5"/>
       <c r="E140" s="7"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="69"/>
+      <c r="G140" s="5"/>
       <c r="H140" s="9"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -6423,7 +6398,7 @@
       <c r="D141" s="5"/>
       <c r="E141" s="7"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="69"/>
+      <c r="G141" s="5"/>
       <c r="H141" s="9"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -6434,7 +6409,7 @@
       <c r="D142" s="5"/>
       <c r="E142" s="7"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="69"/>
+      <c r="G142" s="5"/>
       <c r="H142" s="9"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -6445,7 +6420,7 @@
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="69"/>
+      <c r="G143" s="5"/>
       <c r="H143" s="9"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -6456,7 +6431,7 @@
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="69"/>
+      <c r="G144" s="5"/>
       <c r="H144" s="9"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -6467,7 +6442,7 @@
       <c r="D145" s="5"/>
       <c r="E145" s="7"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="69"/>
+      <c r="G145" s="5"/>
       <c r="H145" s="9"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -6478,7 +6453,7 @@
       <c r="D146" s="5"/>
       <c r="E146" s="7"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="69"/>
+      <c r="G146" s="5"/>
       <c r="H146" s="9"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -6489,7 +6464,7 @@
       <c r="D147" s="5"/>
       <c r="E147" s="7"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="69"/>
+      <c r="G147" s="5"/>
       <c r="H147" s="9"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -6500,7 +6475,7 @@
       <c r="D148" s="5"/>
       <c r="E148" s="7"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="69"/>
+      <c r="G148" s="5"/>
       <c r="H148" s="9"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -6511,7 +6486,7 @@
       <c r="D149" s="5"/>
       <c r="E149" s="7"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="69"/>
+      <c r="G149" s="5"/>
       <c r="H149" s="9"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -6522,7 +6497,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="7"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="69"/>
+      <c r="G150" s="5"/>
       <c r="H150" s="9"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -6533,7 +6508,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="7"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="69"/>
+      <c r="G151" s="5"/>
       <c r="H151" s="9"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -6544,7 +6519,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="7"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="69"/>
+      <c r="G152" s="5"/>
       <c r="H152" s="9"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -6555,7 +6530,7 @@
       <c r="D153" s="5"/>
       <c r="E153" s="7"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="69"/>
+      <c r="G153" s="5"/>
       <c r="H153" s="9"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -6566,7 +6541,7 @@
       <c r="D154" s="5"/>
       <c r="E154" s="7"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="69"/>
+      <c r="G154" s="5"/>
       <c r="H154" s="9"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
@@ -6577,7 +6552,7 @@
       <c r="D155" s="5"/>
       <c r="E155" s="7"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="69"/>
+      <c r="G155" s="5"/>
       <c r="H155" s="9"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -6588,7 +6563,7 @@
       <c r="D156" s="5"/>
       <c r="E156" s="7"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="69"/>
+      <c r="G156" s="5"/>
       <c r="H156" s="9"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -6599,7 +6574,7 @@
       <c r="D157" s="5"/>
       <c r="E157" s="7"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="69"/>
+      <c r="G157" s="5"/>
       <c r="H157" s="9"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
@@ -6610,7 +6585,7 @@
       <c r="D158" s="5"/>
       <c r="E158" s="7"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="69"/>
+      <c r="G158" s="5"/>
       <c r="H158" s="9"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
@@ -6621,7 +6596,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="7"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="69"/>
+      <c r="G159" s="5"/>
       <c r="H159" s="9"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
@@ -6632,7 +6607,7 @@
       <c r="D160" s="5"/>
       <c r="E160" s="7"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="69"/>
+      <c r="G160" s="5"/>
       <c r="H160" s="9"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
@@ -6643,7 +6618,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="7"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="69"/>
+      <c r="G161" s="5"/>
       <c r="H161" s="9"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
@@ -6654,7 +6629,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="69"/>
+      <c r="G162" s="5"/>
       <c r="H162" s="9"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -6665,7 +6640,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="69"/>
+      <c r="G163" s="5"/>
       <c r="H163" s="9"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -6676,7 +6651,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="7"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="69"/>
+      <c r="G164" s="5"/>
       <c r="H164" s="9"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
@@ -6687,7 +6662,7 @@
       <c r="D165" s="5"/>
       <c r="E165" s="7"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="69"/>
+      <c r="G165" s="5"/>
       <c r="H165" s="9"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -6698,7 +6673,7 @@
       <c r="D166" s="5"/>
       <c r="E166" s="7"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="69"/>
+      <c r="G166" s="5"/>
       <c r="H166" s="9"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -6709,7 +6684,7 @@
       <c r="D167" s="5"/>
       <c r="E167" s="7"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="69"/>
+      <c r="G167" s="5"/>
       <c r="H167" s="9"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
@@ -6720,7 +6695,7 @@
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="69"/>
+      <c r="G168" s="5"/>
       <c r="H168" s="9"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -6731,7 +6706,7 @@
       <c r="D169" s="5"/>
       <c r="E169" s="7"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="69"/>
+      <c r="G169" s="5"/>
       <c r="H169" s="9"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -6742,7 +6717,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="7"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="69"/>
+      <c r="G170" s="5"/>
       <c r="H170" s="9"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
@@ -6753,7 +6728,7 @@
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="69"/>
+      <c r="G171" s="5"/>
       <c r="H171" s="9"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -6764,7 +6739,7 @@
       <c r="D172" s="5"/>
       <c r="E172" s="7"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="69"/>
+      <c r="G172" s="5"/>
       <c r="H172" s="9"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
@@ -6775,7 +6750,7 @@
       <c r="D173" s="5"/>
       <c r="E173" s="7"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="69"/>
+      <c r="G173" s="5"/>
       <c r="H173" s="9"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
@@ -6786,7 +6761,7 @@
       <c r="D174" s="5"/>
       <c r="E174" s="7"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="69"/>
+      <c r="G174" s="5"/>
       <c r="H174" s="9"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
@@ -6797,7 +6772,7 @@
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="69"/>
+      <c r="G175" s="5"/>
       <c r="H175" s="9"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
@@ -6808,7 +6783,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="7"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="69"/>
+      <c r="G176" s="5"/>
       <c r="H176" s="9"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
@@ -6819,7 +6794,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="7"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="69"/>
+      <c r="G177" s="5"/>
       <c r="H177" s="9"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -6830,7 +6805,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="7"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="69"/>
+      <c r="G178" s="5"/>
       <c r="H178" s="9"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
@@ -6841,7 +6816,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="7"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="69"/>
+      <c r="G179" s="5"/>
       <c r="H179" s="9"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
@@ -6852,7 +6827,7 @@
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="69"/>
+      <c r="G180" s="5"/>
       <c r="H180" s="9"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
@@ -6863,7 +6838,7 @@
       <c r="D181" s="5"/>
       <c r="E181" s="7"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="69"/>
+      <c r="G181" s="5"/>
       <c r="H181" s="9"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
@@ -6874,7 +6849,7 @@
       <c r="D182" s="5"/>
       <c r="E182" s="7"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="69"/>
+      <c r="G182" s="5"/>
       <c r="H182" s="9"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
@@ -6885,7 +6860,7 @@
       <c r="D183" s="5"/>
       <c r="E183" s="7"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="69"/>
+      <c r="G183" s="5"/>
       <c r="H183" s="9"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
@@ -6896,7 +6871,7 @@
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="69"/>
+      <c r="G184" s="5"/>
       <c r="H184" s="9"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
@@ -6907,7 +6882,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="7"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="69"/>
+      <c r="G185" s="5"/>
       <c r="H185" s="9"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
@@ -6918,7 +6893,7 @@
       <c r="D186" s="5"/>
       <c r="E186" s="7"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="69"/>
+      <c r="G186" s="5"/>
       <c r="H186" s="9"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
@@ -6929,7 +6904,7 @@
       <c r="D187" s="5"/>
       <c r="E187" s="7"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="69"/>
+      <c r="G187" s="5"/>
       <c r="H187" s="9"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
@@ -6940,7 +6915,7 @@
       <c r="D188" s="5"/>
       <c r="E188" s="7"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="69"/>
+      <c r="G188" s="5"/>
       <c r="H188" s="9"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
@@ -6951,7 +6926,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="69"/>
+      <c r="G189" s="5"/>
       <c r="H189" s="9"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
@@ -6962,7 +6937,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="7"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="69"/>
+      <c r="G190" s="5"/>
       <c r="H190" s="9"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -6973,7 +6948,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="7"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="69"/>
+      <c r="G191" s="5"/>
       <c r="H191" s="9"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -6984,7 +6959,7 @@
       <c r="D192" s="5"/>
       <c r="E192" s="7"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="69"/>
+      <c r="G192" s="5"/>
       <c r="H192" s="9"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -6995,7 +6970,7 @@
       <c r="D193" s="5"/>
       <c r="E193" s="7"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="69"/>
+      <c r="G193" s="5"/>
       <c r="H193" s="9"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -7006,7 +6981,7 @@
       <c r="D194" s="5"/>
       <c r="E194" s="7"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="69"/>
+      <c r="G194" s="5"/>
       <c r="H194" s="9"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
@@ -7017,7 +6992,7 @@
       <c r="D195" s="5"/>
       <c r="E195" s="7"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="69"/>
+      <c r="G195" s="5"/>
       <c r="H195" s="9"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
@@ -7028,7 +7003,7 @@
       <c r="D196" s="5"/>
       <c r="E196" s="7"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="69"/>
+      <c r="G196" s="5"/>
       <c r="H196" s="9"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
@@ -7039,7 +7014,7 @@
       <c r="D197" s="5"/>
       <c r="E197" s="7"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="69"/>
+      <c r="G197" s="5"/>
       <c r="H197" s="9"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
@@ -7050,7 +7025,7 @@
       <c r="D198" s="5"/>
       <c r="E198" s="7"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="69"/>
+      <c r="G198" s="5"/>
       <c r="H198" s="9"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
@@ -7061,7 +7036,7 @@
       <c r="D199" s="5"/>
       <c r="E199" s="7"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="69"/>
+      <c r="G199" s="5"/>
       <c r="H199" s="9"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -7072,7 +7047,7 @@
       <c r="D200" s="5"/>
       <c r="E200" s="7"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="69"/>
+      <c r="G200" s="5"/>
       <c r="H200" s="9"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
@@ -7120,17 +7095,16 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61">
+      <c r="A3" s="20"/>
+      <c r="B3" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="55">
         <f>F3*0.8</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63">
+      <c r="E3" s="56"/>
+      <c r="F3" s="57">
         <v>0.1</v>
       </c>
     </row>
@@ -7213,7 +7187,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="43">
         <f>IF(C36=4,1.2, IF(C36=-4,1.1,1))</f>
@@ -7722,7 +7696,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F5370-1F73-4ED8-8901-AE11DC3BAD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1818702-E2CD-4D92-AC47-5B76D958C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -404,10 +404,13 @@
     <t>Price Ceiling</t>
   </si>
   <si>
-    <t>Next Action Price</t>
-  </si>
-  <si>
-    <t>Next Action Shares</t>
+    <t>Next Sell Price</t>
+  </si>
+  <si>
+    <t>Next Buy Price</t>
+  </si>
+  <si>
+    <t>Next Buy Shares</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +1353,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q200"/>
+  <dimension ref="A2:R200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,12 +1366,12 @@
     <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="14" width="14.6328125" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" customWidth="1"/>
+    <col min="8" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1388,8 +1391,9 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D3" s="63" t="s">
         <v>94</v>
       </c>
@@ -1407,8 +1411,9 @@
         <v>100</v>
       </c>
       <c r="N3" s="61"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O3" s="61"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
@@ -1443,22 +1448,25 @@
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>85</v>
       </c>
@@ -1483,16 +1491,17 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
+      <c r="N5" s="7"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8">
         <v>45001</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
@@ -1517,16 +1526,17 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8">
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8">
         <v>45001</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>88</v>
       </c>
@@ -1549,16 +1559,17 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
+      <c r="N7" s="7"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8">
         <v>45001</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -1571,13 +1582,14 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8">
+      <c r="N8" s="7"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -1590,13 +1602,14 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
+      <c r="N9" s="7"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="7"/>
@@ -1609,13 +1622,14 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
+      <c r="N10" s="7"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -1628,13 +1642,14 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
+      <c r="N11" s="7"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
@@ -1647,13 +1662,14 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
+      <c r="N12" s="7"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
@@ -1666,13 +1682,14 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
+      <c r="N13" s="7"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
         <v>45001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="7"/>
@@ -1685,11 +1702,12 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1702,11 +1720,12 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -1715,11 +1734,12 @@
       <c r="G16" s="6"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -1728,11 +1748,12 @@
       <c r="G17" s="6"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1740,11 +1761,11 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="L18" s="7"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1752,11 +1773,11 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="L19" s="7"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="8"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -1764,11 +1785,11 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="L20" s="7"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="8"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -1776,11 +1797,11 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="L21" s="7"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -1789,11 +1810,12 @@
       <c r="G22" s="6"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="8"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -1802,11 +1824,12 @@
       <c r="G23" s="6"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="8"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -1819,11 +1842,12 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="8"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -1836,11 +1860,12 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="8"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -1853,11 +1878,12 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="8"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1870,11 +1896,12 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="8"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -1887,11 +1914,12 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="8"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -1904,11 +1932,12 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="8"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -1921,11 +1950,12 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="8"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -1938,11 +1968,12 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="8"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -1955,11 +1986,12 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="8"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -1972,11 +2004,12 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="8"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -1989,11 +2022,12 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="8"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -2006,11 +2040,12 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -2023,11 +2058,12 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="8"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q36" s="8"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -2040,11 +2076,12 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="8"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -2057,11 +2094,12 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="8"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -2074,11 +2112,12 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -2091,11 +2130,12 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q40" s="8"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -2108,11 +2148,12 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="8"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2125,11 +2166,12 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="8"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2142,11 +2184,12 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="8"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2159,11 +2202,12 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="8"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2176,11 +2220,12 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="8"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2193,11 +2238,12 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="8"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2210,11 +2256,12 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="8"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2227,11 +2274,12 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="8"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2244,11 +2292,12 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="8"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2261,11 +2310,12 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="8"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2278,11 +2328,12 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="9"/>
       <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2295,11 +2346,12 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="8"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="9"/>
       <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2312,11 +2364,12 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="8"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="9"/>
       <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2329,11 +2382,12 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="8"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2346,11 +2400,12 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="8"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2363,11 +2418,12 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="8"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q56" s="8"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2380,11 +2436,12 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="8"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="9"/>
       <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q57" s="8"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2397,11 +2454,12 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="8"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="9"/>
       <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2414,11 +2472,12 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="8"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2431,11 +2490,12 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="8"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="9"/>
       <c r="P60" s="8"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q60" s="8"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2448,11 +2508,12 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="8"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="9"/>
       <c r="P61" s="8"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q61" s="8"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2465,11 +2526,12 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="8"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="9"/>
       <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q62" s="8"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2482,11 +2544,12 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="8"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="9"/>
       <c r="P63" s="8"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q63" s="8"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2499,11 +2562,12 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="8"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="9"/>
       <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2516,11 +2580,12 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="8"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="9"/>
       <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q65" s="8"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2533,11 +2598,12 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="8"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="9"/>
       <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q66" s="8"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2550,11 +2616,12 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="8"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="9"/>
       <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q67" s="8"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2567,11 +2634,12 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="8"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="9"/>
       <c r="P68" s="8"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q68" s="8"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2584,11 +2652,12 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="8"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="9"/>
       <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q69" s="8"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2601,11 +2670,12 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="8"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="9"/>
       <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q70" s="8"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -2618,11 +2688,12 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="8"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="9"/>
       <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q71" s="8"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -2635,11 +2706,12 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="8"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q72" s="8"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -2652,11 +2724,12 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="8"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="9"/>
       <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q73" s="8"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -2669,11 +2742,12 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="8"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="9"/>
       <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q74" s="8"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -2686,11 +2760,12 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="8"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="9"/>
       <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q75" s="8"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -2703,11 +2778,12 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="8"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="9"/>
       <c r="P76" s="8"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -2720,11 +2796,12 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="8"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="9"/>
       <c r="P77" s="8"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -2737,11 +2814,12 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="8"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -2754,11 +2832,12 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="8"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="9"/>
       <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q79" s="8"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -2771,11 +2850,12 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="8"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="9"/>
       <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q80" s="8"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -2788,11 +2868,12 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="8"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="9"/>
       <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q81" s="8"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -2805,11 +2886,12 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="8"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="9"/>
       <c r="P82" s="8"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q82" s="8"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -2822,11 +2904,12 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="8"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="9"/>
       <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q83" s="8"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -2839,11 +2922,12 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="8"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="9"/>
       <c r="P84" s="8"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q84" s="8"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -2856,11 +2940,12 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="8"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="9"/>
       <c r="P85" s="8"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q85" s="8"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -2873,11 +2958,12 @@
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="8"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="9"/>
       <c r="P86" s="8"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q86" s="8"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -2890,11 +2976,12 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="8"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="9"/>
       <c r="P87" s="8"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q87" s="8"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -2907,11 +2994,12 @@
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
-      <c r="N88" s="9"/>
-      <c r="O88" s="8"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="9"/>
       <c r="P88" s="8"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q88" s="8"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -2924,11 +3012,12 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="8"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="9"/>
       <c r="P89" s="8"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q89" s="8"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -2941,11 +3030,12 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
-      <c r="N90" s="9"/>
-      <c r="O90" s="8"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="9"/>
       <c r="P90" s="8"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q90" s="8"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -2958,11 +3048,12 @@
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="8"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="9"/>
       <c r="P91" s="8"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q91" s="8"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -2975,11 +3066,12 @@
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="8"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="9"/>
       <c r="P92" s="8"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q92" s="8"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -2992,11 +3084,12 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
-      <c r="N93" s="9"/>
-      <c r="O93" s="8"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="9"/>
       <c r="P93" s="8"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q93" s="8"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -3009,11 +3102,12 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
-      <c r="N94" s="9"/>
-      <c r="O94" s="8"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="8"/>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q94" s="8"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3026,11 +3120,12 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="8"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="9"/>
       <c r="P95" s="8"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q95" s="8"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3043,11 +3138,12 @@
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="8"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="9"/>
       <c r="P96" s="8"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q96" s="8"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3060,11 +3156,12 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="8"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="9"/>
       <c r="P97" s="8"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q97" s="8"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3077,11 +3174,12 @@
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="8"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="9"/>
       <c r="P98" s="8"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q98" s="8"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3094,11 +3192,12 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
-      <c r="N99" s="9"/>
-      <c r="O99" s="8"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="9"/>
       <c r="P99" s="8"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q99" s="8"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3111,11 +3210,12 @@
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
-      <c r="N100" s="9"/>
-      <c r="O100" s="8"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="9"/>
       <c r="P100" s="8"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q100" s="8"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3128,11 +3228,12 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="8"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="9"/>
       <c r="P101" s="8"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q101" s="8"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3145,11 +3246,12 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="8"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="9"/>
       <c r="P102" s="8"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q102" s="8"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3162,11 +3264,12 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="8"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="9"/>
       <c r="P103" s="8"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q103" s="8"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3179,11 +3282,12 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="8"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="9"/>
       <c r="P104" s="8"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q104" s="8"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3196,11 +3300,12 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
-      <c r="N105" s="9"/>
-      <c r="O105" s="8"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="9"/>
       <c r="P105" s="8"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q105" s="8"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3213,11 +3318,12 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="9"/>
-      <c r="O106" s="8"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="9"/>
       <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q106" s="8"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3230,11 +3336,12 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="9"/>
-      <c r="O107" s="8"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="9"/>
       <c r="P107" s="8"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q107" s="8"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3247,11 +3354,12 @@
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="8"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="9"/>
       <c r="P108" s="8"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q108" s="8"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3264,11 +3372,12 @@
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="8"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="9"/>
       <c r="P109" s="8"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q109" s="8"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3281,11 +3390,12 @@
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="9"/>
-      <c r="O110" s="8"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="9"/>
       <c r="P110" s="8"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q110" s="8"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3298,11 +3408,12 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="8"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="9"/>
       <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q111" s="8"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3315,11 +3426,12 @@
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="8"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="9"/>
       <c r="P112" s="8"/>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q112" s="8"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3332,11 +3444,12 @@
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="8"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="9"/>
       <c r="P113" s="8"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q113" s="8"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3349,11 +3462,12 @@
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="8"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="9"/>
       <c r="P114" s="8"/>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q114" s="8"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3366,11 +3480,12 @@
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="9"/>
-      <c r="O115" s="8"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="9"/>
       <c r="P115" s="8"/>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q115" s="8"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3383,11 +3498,12 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="9"/>
-      <c r="O116" s="8"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="9"/>
       <c r="P116" s="8"/>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q116" s="8"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3400,11 +3516,12 @@
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
-      <c r="N117" s="9"/>
-      <c r="O117" s="8"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="9"/>
       <c r="P117" s="8"/>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q117" s="8"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -3417,11 +3534,12 @@
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
-      <c r="N118" s="9"/>
-      <c r="O118" s="8"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="9"/>
       <c r="P118" s="8"/>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q118" s="8"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -3434,11 +3552,12 @@
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="8"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="9"/>
       <c r="P119" s="8"/>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q119" s="8"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -3451,11 +3570,12 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="8"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="9"/>
       <c r="P120" s="8"/>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q120" s="8"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -3468,11 +3588,12 @@
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="8"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="9"/>
       <c r="P121" s="8"/>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q121" s="8"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -3485,11 +3606,12 @@
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="8"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="9"/>
       <c r="P122" s="8"/>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q122" s="8"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -3502,11 +3624,12 @@
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="8"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="9"/>
       <c r="P123" s="8"/>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q123" s="8"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -3519,11 +3642,12 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="8"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="9"/>
       <c r="P124" s="8"/>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q124" s="8"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -3536,11 +3660,12 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
-      <c r="N125" s="9"/>
-      <c r="O125" s="8"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="9"/>
       <c r="P125" s="8"/>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q125" s="8"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -3553,11 +3678,12 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
-      <c r="N126" s="9"/>
-      <c r="O126" s="8"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="9"/>
       <c r="P126" s="8"/>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q126" s="8"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -3570,11 +3696,12 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
-      <c r="N127" s="9"/>
-      <c r="O127" s="8"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="9"/>
       <c r="P127" s="8"/>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q127" s="8"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -3587,11 +3714,12 @@
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="8"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="9"/>
       <c r="P128" s="8"/>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q128" s="8"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -3604,11 +3732,12 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="8"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="9"/>
       <c r="P129" s="8"/>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q129" s="8"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -3621,11 +3750,12 @@
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="8"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="9"/>
       <c r="P130" s="8"/>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q130" s="8"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -3638,11 +3768,12 @@
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="8"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="9"/>
       <c r="P131" s="8"/>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q131" s="8"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -3655,11 +3786,12 @@
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="8"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="9"/>
       <c r="P132" s="8"/>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q132" s="8"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -3672,11 +3804,12 @@
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="8"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="9"/>
       <c r="P133" s="8"/>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q133" s="8"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -3689,11 +3822,12 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="8"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="9"/>
       <c r="P134" s="8"/>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q134" s="8"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -3706,11 +3840,12 @@
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="8"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="9"/>
       <c r="P135" s="8"/>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q135" s="8"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -3723,11 +3858,12 @@
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="8"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="9"/>
       <c r="P136" s="8"/>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q136" s="8"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -3740,11 +3876,12 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="8"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="9"/>
       <c r="P137" s="8"/>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q137" s="8"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -3757,11 +3894,12 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="8"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="9"/>
       <c r="P138" s="8"/>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q138" s="8"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -3774,11 +3912,12 @@
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="8"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="9"/>
       <c r="P139" s="8"/>
-    </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q139" s="8"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -3791,11 +3930,12 @@
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="8"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="9"/>
       <c r="P140" s="8"/>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q140" s="8"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -3808,11 +3948,12 @@
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="8"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="9"/>
       <c r="P141" s="8"/>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q141" s="8"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -3825,11 +3966,12 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="8"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="9"/>
       <c r="P142" s="8"/>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q142" s="8"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -3842,11 +3984,12 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="8"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="9"/>
       <c r="P143" s="8"/>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q143" s="8"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -3859,11 +4002,12 @@
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="8"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="9"/>
       <c r="P144" s="8"/>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q144" s="8"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -3876,11 +4020,12 @@
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="8"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="9"/>
       <c r="P145" s="8"/>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q145" s="8"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -3893,11 +4038,12 @@
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="8"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="9"/>
       <c r="P146" s="8"/>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q146" s="8"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -3910,11 +4056,12 @@
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="8"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="9"/>
       <c r="P147" s="8"/>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q147" s="8"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -3927,11 +4074,12 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="8"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="9"/>
       <c r="P148" s="8"/>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q148" s="8"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -3944,11 +4092,12 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="8"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="9"/>
       <c r="P149" s="8"/>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q149" s="8"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -3961,11 +4110,12 @@
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
-      <c r="N150" s="9"/>
-      <c r="O150" s="8"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="9"/>
       <c r="P150" s="8"/>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q150" s="8"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -3978,11 +4128,12 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
-      <c r="N151" s="9"/>
-      <c r="O151" s="8"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="9"/>
       <c r="P151" s="8"/>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q151" s="8"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -3995,11 +4146,12 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="8"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="9"/>
       <c r="P152" s="8"/>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q152" s="8"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4012,11 +4164,12 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
-      <c r="N153" s="9"/>
-      <c r="O153" s="8"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="9"/>
       <c r="P153" s="8"/>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q153" s="8"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4029,11 +4182,12 @@
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
-      <c r="N154" s="9"/>
-      <c r="O154" s="8"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="9"/>
       <c r="P154" s="8"/>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q154" s="8"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4046,11 +4200,12 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="8"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="9"/>
       <c r="P155" s="8"/>
-    </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q155" s="8"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4063,11 +4218,12 @@
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
-      <c r="N156" s="9"/>
-      <c r="O156" s="8"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="9"/>
       <c r="P156" s="8"/>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q156" s="8"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4080,11 +4236,12 @@
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
-      <c r="N157" s="9"/>
-      <c r="O157" s="8"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="9"/>
       <c r="P157" s="8"/>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q157" s="8"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4097,11 +4254,12 @@
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
-      <c r="N158" s="9"/>
-      <c r="O158" s="8"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="9"/>
       <c r="P158" s="8"/>
-    </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q158" s="8"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4114,11 +4272,12 @@
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
-      <c r="N159" s="9"/>
-      <c r="O159" s="8"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="9"/>
       <c r="P159" s="8"/>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q159" s="8"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4131,11 +4290,12 @@
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
-      <c r="N160" s="9"/>
-      <c r="O160" s="8"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="9"/>
       <c r="P160" s="8"/>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q160" s="8"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4148,11 +4308,12 @@
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
-      <c r="N161" s="9"/>
-      <c r="O161" s="8"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="9"/>
       <c r="P161" s="8"/>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q161" s="8"/>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4165,11 +4326,12 @@
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
-      <c r="N162" s="9"/>
-      <c r="O162" s="8"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="9"/>
       <c r="P162" s="8"/>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q162" s="8"/>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4182,11 +4344,12 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="7"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="8"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="9"/>
       <c r="P163" s="8"/>
-    </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q163" s="8"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4199,11 +4362,12 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
-      <c r="N164" s="9"/>
-      <c r="O164" s="8"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="9"/>
       <c r="P164" s="8"/>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q164" s="8"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4216,11 +4380,12 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7"/>
-      <c r="N165" s="9"/>
-      <c r="O165" s="8"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="9"/>
       <c r="P165" s="8"/>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q165" s="8"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4233,11 +4398,12 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7"/>
-      <c r="N166" s="9"/>
-      <c r="O166" s="8"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="9"/>
       <c r="P166" s="8"/>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q166" s="8"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4250,11 +4416,12 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7"/>
-      <c r="N167" s="9"/>
-      <c r="O167" s="8"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="9"/>
       <c r="P167" s="8"/>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q167" s="8"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4267,11 +4434,12 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7"/>
-      <c r="N168" s="9"/>
-      <c r="O168" s="8"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="9"/>
       <c r="P168" s="8"/>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q168" s="8"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4284,11 +4452,12 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
-      <c r="N169" s="9"/>
-      <c r="O169" s="8"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="9"/>
       <c r="P169" s="8"/>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q169" s="8"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -4301,11 +4470,12 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
       <c r="M170" s="7"/>
-      <c r="N170" s="9"/>
-      <c r="O170" s="8"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="9"/>
       <c r="P170" s="8"/>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q170" s="8"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -4318,11 +4488,12 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
-      <c r="N171" s="9"/>
-      <c r="O171" s="8"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="9"/>
       <c r="P171" s="8"/>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q171" s="8"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -4335,11 +4506,12 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
-      <c r="N172" s="9"/>
-      <c r="O172" s="8"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="9"/>
       <c r="P172" s="8"/>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q172" s="8"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -4352,11 +4524,12 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7"/>
-      <c r="N173" s="9"/>
-      <c r="O173" s="8"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="9"/>
       <c r="P173" s="8"/>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q173" s="8"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -4369,11 +4542,12 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
-      <c r="N174" s="9"/>
-      <c r="O174" s="8"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="9"/>
       <c r="P174" s="8"/>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q174" s="8"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -4386,11 +4560,12 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7"/>
-      <c r="N175" s="9"/>
-      <c r="O175" s="8"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="9"/>
       <c r="P175" s="8"/>
-    </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q175" s="8"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -4403,11 +4578,12 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
       <c r="M176" s="7"/>
-      <c r="N176" s="9"/>
-      <c r="O176" s="8"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="9"/>
       <c r="P176" s="8"/>
-    </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q176" s="8"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -4420,11 +4596,12 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="9"/>
-      <c r="O177" s="8"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="9"/>
       <c r="P177" s="8"/>
-    </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q177" s="8"/>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -4437,11 +4614,12 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
       <c r="M178" s="7"/>
-      <c r="N178" s="9"/>
-      <c r="O178" s="8"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="9"/>
       <c r="P178" s="8"/>
-    </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q178" s="8"/>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -4454,11 +4632,12 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="9"/>
-      <c r="O179" s="8"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="9"/>
       <c r="P179" s="8"/>
-    </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q179" s="8"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -4471,11 +4650,12 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
       <c r="M180" s="7"/>
-      <c r="N180" s="9"/>
-      <c r="O180" s="8"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="9"/>
       <c r="P180" s="8"/>
-    </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q180" s="8"/>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -4488,11 +4668,12 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
       <c r="M181" s="7"/>
-      <c r="N181" s="9"/>
-      <c r="O181" s="8"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="9"/>
       <c r="P181" s="8"/>
-    </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q181" s="8"/>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -4505,11 +4686,12 @@
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
       <c r="M182" s="7"/>
-      <c r="N182" s="9"/>
-      <c r="O182" s="8"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="9"/>
       <c r="P182" s="8"/>
-    </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q182" s="8"/>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -4522,11 +4704,12 @@
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
       <c r="M183" s="7"/>
-      <c r="N183" s="9"/>
-      <c r="O183" s="8"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="9"/>
       <c r="P183" s="8"/>
-    </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q183" s="8"/>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -4539,11 +4722,12 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="9"/>
-      <c r="O184" s="8"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="9"/>
       <c r="P184" s="8"/>
-    </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q184" s="8"/>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -4556,11 +4740,12 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7"/>
-      <c r="N185" s="9"/>
-      <c r="O185" s="8"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="9"/>
       <c r="P185" s="8"/>
-    </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q185" s="8"/>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -4573,11 +4758,12 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7"/>
-      <c r="N186" s="9"/>
-      <c r="O186" s="8"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="9"/>
       <c r="P186" s="8"/>
-    </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q186" s="8"/>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -4590,11 +4776,12 @@
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
-      <c r="N187" s="9"/>
-      <c r="O187" s="8"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="9"/>
       <c r="P187" s="8"/>
-    </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q187" s="8"/>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -4607,11 +4794,12 @@
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
       <c r="M188" s="7"/>
-      <c r="N188" s="9"/>
-      <c r="O188" s="8"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="9"/>
       <c r="P188" s="8"/>
-    </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q188" s="8"/>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -4624,11 +4812,12 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7"/>
-      <c r="N189" s="9"/>
-      <c r="O189" s="8"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="9"/>
       <c r="P189" s="8"/>
-    </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q189" s="8"/>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -4641,11 +4830,12 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7"/>
-      <c r="N190" s="9"/>
-      <c r="O190" s="8"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="9"/>
       <c r="P190" s="8"/>
-    </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q190" s="8"/>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -4658,11 +4848,12 @@
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
       <c r="M191" s="7"/>
-      <c r="N191" s="9"/>
-      <c r="O191" s="8"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="9"/>
       <c r="P191" s="8"/>
-    </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q191" s="8"/>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -4675,11 +4866,12 @@
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
       <c r="M192" s="7"/>
-      <c r="N192" s="9"/>
-      <c r="O192" s="8"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="9"/>
       <c r="P192" s="8"/>
-    </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q192" s="8"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -4692,11 +4884,12 @@
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
       <c r="M193" s="7"/>
-      <c r="N193" s="9"/>
-      <c r="O193" s="8"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="9"/>
       <c r="P193" s="8"/>
-    </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q193" s="8"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -4709,11 +4902,12 @@
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
-      <c r="N194" s="9"/>
-      <c r="O194" s="8"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="9"/>
       <c r="P194" s="8"/>
-    </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q194" s="8"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -4726,11 +4920,12 @@
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
       <c r="M195" s="7"/>
-      <c r="N195" s="9"/>
-      <c r="O195" s="8"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="9"/>
       <c r="P195" s="8"/>
-    </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q195" s="8"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -4743,11 +4938,12 @@
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
       <c r="M196" s="7"/>
-      <c r="N196" s="9"/>
-      <c r="O196" s="8"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="9"/>
       <c r="P196" s="8"/>
-    </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q196" s="8"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -4760,11 +4956,12 @@
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
       <c r="M197" s="7"/>
-      <c r="N197" s="9"/>
-      <c r="O197" s="8"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="9"/>
       <c r="P197" s="8"/>
-    </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q197" s="8"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -4777,11 +4974,12 @@
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
       <c r="M198" s="7"/>
-      <c r="N198" s="9"/>
-      <c r="O198" s="8"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="9"/>
       <c r="P198" s="8"/>
-    </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q198" s="8"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -4794,11 +4992,12 @@
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
       <c r="M199" s="7"/>
-      <c r="N199" s="9"/>
-      <c r="O199" s="8"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="9"/>
       <c r="P199" s="8"/>
-    </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q199" s="8"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -4811,14 +5010,15 @@
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
       <c r="M200" s="7"/>
-      <c r="N200" s="9"/>
-      <c r="O200" s="8"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="9"/>
       <c r="P200" s="8"/>
+      <c r="Q200" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:P4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B4:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1818702-E2CD-4D92-AC47-5B76D958C90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0C029-0B13-432E-8DAA-FF2C72A47371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -328,25 +328,7 @@
     <t># To-do with insights from "Big Debt Cycle"</t>
   </si>
   <si>
-    <t>0683.HK</t>
-  </si>
-  <si>
-    <t>KERRY PPT</t>
-  </si>
-  <si>
-    <t>0083.HK</t>
-  </si>
-  <si>
-    <t>SINO LAND</t>
-  </si>
-  <si>
     <t>LFY Dividend</t>
-  </si>
-  <si>
-    <t>1972.HK</t>
-  </si>
-  <si>
-    <t>SWIREPROPERTIES</t>
   </si>
   <si>
     <t>Hot - Stimulative</t>
@@ -411,6 +393,66 @@
   </si>
   <si>
     <t>Next Buy Shares</t>
+  </si>
+  <si>
+    <t>0071.HK</t>
+  </si>
+  <si>
+    <t>MIRAMAR HOTEL</t>
+  </si>
+  <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>0303.HK</t>
+  </si>
+  <si>
+    <t>VTECH HOLDINGS</t>
+  </si>
+  <si>
+    <t>0411.HK</t>
+  </si>
+  <si>
+    <t>LAM SOON (HK)</t>
+  </si>
+  <si>
+    <t>0683.HK</t>
+  </si>
+  <si>
+    <t>KERRY PPT</t>
+  </si>
+  <si>
+    <t>0697.HK</t>
+  </si>
+  <si>
+    <t>SHOUCHENG</t>
+  </si>
+  <si>
+    <t>0981.HK</t>
+  </si>
+  <si>
+    <t>SMIC</t>
+  </si>
+  <si>
+    <t>1766.HK</t>
+  </si>
+  <si>
+    <t>CRRC</t>
+  </si>
+  <si>
+    <t>6186.HK</t>
+  </si>
+  <si>
+    <t>CHINA FEIHE</t>
+  </si>
+  <si>
+    <t>6601.HK</t>
+  </si>
+  <si>
+    <t>CHEERWIN GP</t>
   </si>
 </sst>
 </file>
@@ -865,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1005,6 +1047,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,7 +1401,7 @@
   <dimension ref="A2:R200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,28 +1439,28 @@
       <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1430,37 +1475,37 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>3</v>
@@ -1468,34 +1513,52 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D5" s="7">
-        <v>10.199999809265137</v>
+        <v>1.7</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>0.21431272400196813</v>
+        <v>0.12206854873404213</v>
       </c>
       <c r="G5" s="6">
-        <v>3.7138250391206357E-2</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="8"/>
+        <v>1.1158166666400236E-2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.9483303871937554</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.2296482660346575</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.0775165328478717</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.8886513934980651</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1.6620132262782974</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22000</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2.0278062216275172</v>
+      </c>
+      <c r="P5" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q5" s="8">
-        <v>45001</v>
+        <v>44985</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>11</v>
@@ -1503,209 +1566,480 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7">
-        <v>20.5</v>
+        <v>17.22</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>0.3735588650440953</v>
+        <v>4.2991766123109704E-2</v>
       </c>
       <c r="G6" s="6">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.2226635952971314</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27.060406724369123</v>
+      </c>
+      <c r="J6" s="7">
+        <v>19.682318212639949</v>
+      </c>
+      <c r="K6" s="7">
+        <v>17.893016556945408</v>
+      </c>
+      <c r="L6" s="7">
+        <v>15.745854570111959</v>
+      </c>
+      <c r="M6" s="7">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4000</v>
+      </c>
+      <c r="O6" s="9">
+        <v>32.909970516533505</v>
+      </c>
+      <c r="P6" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q6" s="8">
-        <v>45001</v>
-      </c>
-      <c r="R6" s="5" t="s">
+        <v>45169</v>
+      </c>
+      <c r="R6" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D7" s="7">
-        <v>21.850000381469727</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>2.3069380794082356E-2</v>
+      </c>
       <c r="G7" s="6">
-        <v>4.2113086692893716E-2</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="8"/>
+        <v>2.7450980392156866E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9.5559451156208368</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12.321356439649353</v>
+      </c>
+      <c r="J7" s="7">
+        <v>11.45530768409964</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10.413916076454218</v>
+      </c>
+      <c r="L7" s="7">
+        <v>9.1642461472797123</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6000</v>
+      </c>
+      <c r="O7" s="9">
+        <v>11.828122756595914</v>
+      </c>
+      <c r="P7" s="8">
+        <v>44742</v>
+      </c>
       <c r="Q7" s="8">
-        <v>45001</v>
-      </c>
-      <c r="R7" s="5" t="s">
+        <v>45169</v>
+      </c>
+      <c r="R7" s="61" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9.89</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6.6959924720443043E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5.6622851365015166E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10.429776905912007</v>
+      </c>
+      <c r="I8" s="7">
+        <v>11.339169963600042</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10.945223365548518</v>
+      </c>
+      <c r="K8" s="7">
+        <v>9.9502030595895619</v>
+      </c>
+      <c r="L8" s="7">
+        <v>8.7561786924388141</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>6000</v>
+      </c>
+      <c r="O8" s="9">
+        <v>12.347246296726411</v>
+      </c>
+      <c r="P8" s="8">
+        <v>44742</v>
+      </c>
       <c r="Q8" s="8">
-        <v>45001</v>
+        <v>45169</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5.79</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-1.9596390754508836E-2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5.2983855596097584E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2.9745483042866798</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8.3630583045042393</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6.2555368975313934</v>
+      </c>
+      <c r="K9" s="7">
+        <v>5.6868517250285393</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5.0044295180251144</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8000</v>
+      </c>
+      <c r="O9" s="9">
+        <v>7.1487507635842036</v>
+      </c>
+      <c r="P9" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q9" s="8">
-        <v>45001</v>
+        <v>44985</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-2.4660886809838273E-2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4.0517241379310343E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11.129157195902177</v>
+      </c>
+      <c r="I10" s="7">
+        <v>13.228473799887135</v>
+      </c>
+      <c r="J10" s="7">
+        <v>12.473933713005875</v>
+      </c>
+      <c r="K10" s="7">
+        <v>11.33993973909625</v>
+      </c>
+      <c r="L10" s="7">
+        <v>9.9791469704047007</v>
+      </c>
+      <c r="M10" s="7">
+        <v>11</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9000</v>
+      </c>
+      <c r="O10" s="9">
+        <v>13.597424398249455</v>
+      </c>
+      <c r="P10" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q10" s="8">
-        <v>45001</v>
+        <v>44985</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="7">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-0.13981095852038475</v>
+      </c>
+      <c r="G11" s="6">
+        <v>6.9587628865979398E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>15.177942172348047</v>
+      </c>
+      <c r="I11" s="7">
+        <v>20.816330621780622</v>
+      </c>
+      <c r="J11" s="7">
+        <v>18.627667404704535</v>
+      </c>
+      <c r="K11" s="7">
+        <v>16.934243095185941</v>
+      </c>
+      <c r="L11" s="7">
+        <v>14.902133923763628</v>
+      </c>
+      <c r="M11" s="7">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4000</v>
+      </c>
+      <c r="O11" s="9">
+        <v>19</v>
+      </c>
+      <c r="P11" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q11" s="8">
-        <v>45001</v>
+        <v>44985</v>
+      </c>
+      <c r="R11" s="61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="8"/>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6">
+        <v>-0.25276914666689843</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.9449643724922825E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.6880303094017581</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6.4969104511932816</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3.4821188071990479</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3.1655625519991344</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2.7856950457592382</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>20000</v>
+      </c>
+      <c r="O12" s="9">
+        <v>5.5537197980657282</v>
+      </c>
+      <c r="P12" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q12" s="8">
-        <v>45001</v>
+        <v>45077</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-0.31184281437199868</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7.0571428571428577E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.1292911759018582</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.4849033947043617</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1.3792750748490024</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1.2538864316809111</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.1034200598792019</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60000</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="P13" s="8">
+        <v>44561</v>
+      </c>
       <c r="Q13" s="8">
-        <v>45001</v>
+        <v>44985</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43.8</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-0.38071109170969952</v>
+      </c>
+      <c r="G14" s="6">
+        <v>8.422999015672461E-2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>21.393082362102046</v>
+      </c>
+      <c r="I14" s="7">
+        <v>38.139943462432178</v>
+      </c>
+      <c r="J14" s="7">
+        <v>31.504854183115157</v>
+      </c>
+      <c r="K14" s="7">
+        <v>28.640776530104684</v>
+      </c>
+      <c r="L14" s="7">
+        <v>25.203883346492127</v>
+      </c>
+      <c r="M14" s="7">
+        <v>28.640776530104684</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3000</v>
+      </c>
+      <c r="O14" s="9">
+        <v>44.050238385337359</v>
+      </c>
+      <c r="P14" s="8">
+        <v>44651</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>45077</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -1724,6 +2058,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
+      <c r="R15" s="61"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
@@ -1732,104 +2067,152 @@
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="7"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="9"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="7"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="9"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="7"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="9"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="7"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="9"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="9"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="9"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -1846,8 +2229,9 @@
       <c r="O24" s="9"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -1864,8 +2248,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -1882,8 +2267,9 @@
       <c r="O26" s="9"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1900,8 +2286,9 @@
       <c r="O27" s="9"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -1918,8 +2305,9 @@
       <c r="O28" s="9"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -1936,8 +2324,9 @@
       <c r="O29" s="9"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -1954,8 +2343,9 @@
       <c r="O30" s="9"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -1972,8 +2362,9 @@
       <c r="O31" s="9"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -1990,8 +2381,9 @@
       <c r="O32" s="9"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -2008,8 +2400,9 @@
       <c r="O33" s="9"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -2026,8 +2419,9 @@
       <c r="O34" s="9"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -2044,8 +2438,9 @@
       <c r="O35" s="9"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -2062,8 +2457,9 @@
       <c r="O36" s="9"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -2080,8 +2476,9 @@
       <c r="O37" s="9"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -2098,8 +2495,9 @@
       <c r="O38" s="9"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -2116,8 +2514,9 @@
       <c r="O39" s="9"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -2134,8 +2533,9 @@
       <c r="O40" s="9"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -2152,8 +2552,9 @@
       <c r="O41" s="9"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2170,8 +2571,9 @@
       <c r="O42" s="9"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2188,8 +2590,9 @@
       <c r="O43" s="9"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2206,8 +2609,9 @@
       <c r="O44" s="9"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2224,8 +2628,9 @@
       <c r="O45" s="9"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2242,8 +2647,9 @@
       <c r="O46" s="9"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2260,8 +2666,9 @@
       <c r="O47" s="9"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2278,8 +2685,9 @@
       <c r="O48" s="9"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2296,8 +2704,9 @@
       <c r="O49" s="9"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2314,8 +2723,9 @@
       <c r="O50" s="9"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2332,8 +2742,9 @@
       <c r="O51" s="9"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2350,8 +2761,9 @@
       <c r="O52" s="9"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2368,8 +2780,9 @@
       <c r="O53" s="9"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2386,8 +2799,9 @@
       <c r="O54" s="9"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2404,8 +2818,9 @@
       <c r="O55" s="9"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2422,8 +2837,9 @@
       <c r="O56" s="9"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2440,8 +2856,9 @@
       <c r="O57" s="9"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2458,8 +2875,9 @@
       <c r="O58" s="9"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2476,8 +2894,9 @@
       <c r="O59" s="9"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2494,8 +2913,9 @@
       <c r="O60" s="9"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2512,8 +2932,9 @@
       <c r="O61" s="9"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2530,8 +2951,9 @@
       <c r="O62" s="9"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2548,8 +2970,9 @@
       <c r="O63" s="9"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2566,8 +2989,9 @@
       <c r="O64" s="9"/>
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -2584,8 +3008,9 @@
       <c r="O65" s="9"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -2602,8 +3027,9 @@
       <c r="O66" s="9"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R66" s="5"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -2620,8 +3046,9 @@
       <c r="O67" s="9"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -2638,8 +3065,9 @@
       <c r="O68" s="9"/>
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -2656,8 +3084,9 @@
       <c r="O69" s="9"/>
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -2674,8 +3103,9 @@
       <c r="O70" s="9"/>
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -2692,8 +3122,9 @@
       <c r="O71" s="9"/>
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R71" s="5"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -2710,8 +3141,9 @@
       <c r="O72" s="9"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R72" s="5"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -2728,8 +3160,9 @@
       <c r="O73" s="9"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -2746,8 +3179,9 @@
       <c r="O74" s="9"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R74" s="5"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -2764,8 +3198,9 @@
       <c r="O75" s="9"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R75" s="5"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -2782,8 +3217,9 @@
       <c r="O76" s="9"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R76" s="5"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -2800,8 +3236,9 @@
       <c r="O77" s="9"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R77" s="5"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -2818,8 +3255,9 @@
       <c r="O78" s="9"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R78" s="5"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -2836,8 +3274,9 @@
       <c r="O79" s="9"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R79" s="5"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -2854,8 +3293,9 @@
       <c r="O80" s="9"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R80" s="5"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -2872,8 +3312,9 @@
       <c r="O81" s="9"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R81" s="5"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -2890,8 +3331,9 @@
       <c r="O82" s="9"/>
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R82" s="5"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -2908,8 +3350,9 @@
       <c r="O83" s="9"/>
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R83" s="5"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -2926,8 +3369,9 @@
       <c r="O84" s="9"/>
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R84" s="5"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -2944,8 +3388,9 @@
       <c r="O85" s="9"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R85" s="5"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -2962,8 +3407,9 @@
       <c r="O86" s="9"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R86" s="5"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -2980,8 +3426,9 @@
       <c r="O87" s="9"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R87" s="5"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -2998,8 +3445,9 @@
       <c r="O88" s="9"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R88" s="5"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -3016,8 +3464,9 @@
       <c r="O89" s="9"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R89" s="5"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -3034,8 +3483,9 @@
       <c r="O90" s="9"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R90" s="5"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -3052,8 +3502,9 @@
       <c r="O91" s="9"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R91" s="5"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -3070,8 +3521,9 @@
       <c r="O92" s="9"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R92" s="5"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -3088,8 +3540,9 @@
       <c r="O93" s="9"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R93" s="5"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -3106,8 +3559,9 @@
       <c r="O94" s="9"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R94" s="5"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3124,8 +3578,9 @@
       <c r="O95" s="9"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R95" s="5"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3142,8 +3597,9 @@
       <c r="O96" s="9"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R96" s="5"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3160,8 +3616,9 @@
       <c r="O97" s="9"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R97" s="5"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3178,8 +3635,9 @@
       <c r="O98" s="9"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R98" s="5"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3196,8 +3654,9 @@
       <c r="O99" s="9"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R99" s="5"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3214,8 +3673,9 @@
       <c r="O100" s="9"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R100" s="5"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3232,8 +3692,9 @@
       <c r="O101" s="9"/>
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R101" s="5"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3250,8 +3711,9 @@
       <c r="O102" s="9"/>
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R102" s="5"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3268,8 +3730,9 @@
       <c r="O103" s="9"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R103" s="5"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3286,8 +3749,9 @@
       <c r="O104" s="9"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R104" s="5"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3304,8 +3768,9 @@
       <c r="O105" s="9"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R105" s="5"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3322,8 +3787,9 @@
       <c r="O106" s="9"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R106" s="5"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3340,8 +3806,9 @@
       <c r="O107" s="9"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R107" s="5"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3358,8 +3825,9 @@
       <c r="O108" s="9"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R108" s="5"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3376,8 +3844,9 @@
       <c r="O109" s="9"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R109" s="5"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3394,8 +3863,9 @@
       <c r="O110" s="9"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R110" s="5"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3412,8 +3882,9 @@
       <c r="O111" s="9"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R111" s="5"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3430,8 +3901,9 @@
       <c r="O112" s="9"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R112" s="5"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3448,8 +3920,9 @@
       <c r="O113" s="9"/>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R113" s="5"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3466,8 +3939,9 @@
       <c r="O114" s="9"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R114" s="5"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3484,8 +3958,9 @@
       <c r="O115" s="9"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R115" s="5"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3502,8 +3977,9 @@
       <c r="O116" s="9"/>
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R116" s="5"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3520,8 +3996,9 @@
       <c r="O117" s="9"/>
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R117" s="5"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -3538,8 +4015,9 @@
       <c r="O118" s="9"/>
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R118" s="5"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -3556,8 +4034,9 @@
       <c r="O119" s="9"/>
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R119" s="5"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -3574,8 +4053,9 @@
       <c r="O120" s="9"/>
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R120" s="5"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -3592,8 +4072,9 @@
       <c r="O121" s="9"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R121" s="5"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -3610,8 +4091,9 @@
       <c r="O122" s="9"/>
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R122" s="5"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -3628,8 +4110,9 @@
       <c r="O123" s="9"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R123" s="5"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -3646,8 +4129,9 @@
       <c r="O124" s="9"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R124" s="5"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -3664,8 +4148,9 @@
       <c r="O125" s="9"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R125" s="5"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -3682,8 +4167,9 @@
       <c r="O126" s="9"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R126" s="5"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -3700,8 +4186,9 @@
       <c r="O127" s="9"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R127" s="5"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -3718,8 +4205,9 @@
       <c r="O128" s="9"/>
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R128" s="5"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -3736,8 +4224,9 @@
       <c r="O129" s="9"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R129" s="5"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -3754,8 +4243,9 @@
       <c r="O130" s="9"/>
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R130" s="5"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -3772,8 +4262,9 @@
       <c r="O131" s="9"/>
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R131" s="5"/>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -3790,8 +4281,9 @@
       <c r="O132" s="9"/>
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R132" s="5"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -3808,8 +4300,9 @@
       <c r="O133" s="9"/>
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R133" s="5"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -3826,8 +4319,9 @@
       <c r="O134" s="9"/>
       <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R134" s="5"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -3844,8 +4338,9 @@
       <c r="O135" s="9"/>
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R135" s="5"/>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -3862,8 +4357,9 @@
       <c r="O136" s="9"/>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R136" s="5"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -3880,8 +4376,9 @@
       <c r="O137" s="9"/>
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R137" s="5"/>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -3898,8 +4395,9 @@
       <c r="O138" s="9"/>
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R138" s="5"/>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -3916,8 +4414,9 @@
       <c r="O139" s="9"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R139" s="5"/>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -3934,8 +4433,9 @@
       <c r="O140" s="9"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R140" s="5"/>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -3952,8 +4452,9 @@
       <c r="O141" s="9"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R141" s="5"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -3970,8 +4471,9 @@
       <c r="O142" s="9"/>
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R142" s="5"/>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -3988,8 +4490,9 @@
       <c r="O143" s="9"/>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R143" s="5"/>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -4006,8 +4509,9 @@
       <c r="O144" s="9"/>
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R144" s="5"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -4024,8 +4528,9 @@
       <c r="O145" s="9"/>
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R145" s="5"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -4042,8 +4547,9 @@
       <c r="O146" s="9"/>
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R146" s="5"/>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -4060,8 +4566,9 @@
       <c r="O147" s="9"/>
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R147" s="5"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -4078,8 +4585,9 @@
       <c r="O148" s="9"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R148" s="5"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -4096,8 +4604,9 @@
       <c r="O149" s="9"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R149" s="5"/>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -4114,8 +4623,9 @@
       <c r="O150" s="9"/>
       <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R150" s="5"/>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -4132,8 +4642,9 @@
       <c r="O151" s="9"/>
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R151" s="5"/>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -4150,8 +4661,9 @@
       <c r="O152" s="9"/>
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R152" s="5"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4168,8 +4680,9 @@
       <c r="O153" s="9"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R153" s="5"/>
+    </row>
+    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4186,8 +4699,9 @@
       <c r="O154" s="9"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R154" s="5"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4204,8 +4718,9 @@
       <c r="O155" s="9"/>
       <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R155" s="5"/>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4222,8 +4737,9 @@
       <c r="O156" s="9"/>
       <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
-    </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R156" s="5"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4240,8 +4756,9 @@
       <c r="O157" s="9"/>
       <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
-    </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R157" s="5"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4258,8 +4775,9 @@
       <c r="O158" s="9"/>
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R158" s="5"/>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4276,8 +4794,9 @@
       <c r="O159" s="9"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R159" s="5"/>
+    </row>
+    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4294,8 +4813,9 @@
       <c r="O160" s="9"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R160" s="5"/>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4312,8 +4832,9 @@
       <c r="O161" s="9"/>
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
-    </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R161" s="5"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4330,8 +4851,9 @@
       <c r="O162" s="9"/>
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R162" s="5"/>
+    </row>
+    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4348,8 +4870,9 @@
       <c r="O163" s="9"/>
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R163" s="5"/>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4366,8 +4889,9 @@
       <c r="O164" s="9"/>
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R164" s="5"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4384,8 +4908,9 @@
       <c r="O165" s="9"/>
       <c r="P165" s="8"/>
       <c r="Q165" s="8"/>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R165" s="5"/>
+    </row>
+    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4402,8 +4927,9 @@
       <c r="O166" s="9"/>
       <c r="P166" s="8"/>
       <c r="Q166" s="8"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R166" s="5"/>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4420,8 +4946,9 @@
       <c r="O167" s="9"/>
       <c r="P167" s="8"/>
       <c r="Q167" s="8"/>
-    </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R167" s="5"/>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4438,8 +4965,9 @@
       <c r="O168" s="9"/>
       <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
-    </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R168" s="5"/>
+    </row>
+    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4456,8 +4984,9 @@
       <c r="O169" s="9"/>
       <c r="P169" s="8"/>
       <c r="Q169" s="8"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R169" s="5"/>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -4474,8 +5003,9 @@
       <c r="O170" s="9"/>
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
-    </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R170" s="5"/>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -4492,8 +5022,9 @@
       <c r="O171" s="9"/>
       <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
-    </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R171" s="5"/>
+    </row>
+    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -4510,8 +5041,9 @@
       <c r="O172" s="9"/>
       <c r="P172" s="8"/>
       <c r="Q172" s="8"/>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R172" s="5"/>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -4528,8 +5060,9 @@
       <c r="O173" s="9"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
-    </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R173" s="5"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -4546,8 +5079,9 @@
       <c r="O174" s="9"/>
       <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R174" s="5"/>
+    </row>
+    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -4564,8 +5098,9 @@
       <c r="O175" s="9"/>
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
-    </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R175" s="5"/>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -4582,8 +5117,9 @@
       <c r="O176" s="9"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R176" s="5"/>
+    </row>
+    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -4600,8 +5136,9 @@
       <c r="O177" s="9"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R177" s="5"/>
+    </row>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -4618,8 +5155,9 @@
       <c r="O178" s="9"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R178" s="5"/>
+    </row>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -4636,8 +5174,9 @@
       <c r="O179" s="9"/>
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R179" s="5"/>
+    </row>
+    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -4654,8 +5193,9 @@
       <c r="O180" s="9"/>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R180" s="5"/>
+    </row>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -4672,8 +5212,9 @@
       <c r="O181" s="9"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R181" s="5"/>
+    </row>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -4690,8 +5231,9 @@
       <c r="O182" s="9"/>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R182" s="5"/>
+    </row>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -4708,8 +5250,9 @@
       <c r="O183" s="9"/>
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R183" s="5"/>
+    </row>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -4726,8 +5269,9 @@
       <c r="O184" s="9"/>
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R184" s="5"/>
+    </row>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -4744,8 +5288,9 @@
       <c r="O185" s="9"/>
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R185" s="5"/>
+    </row>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -4762,8 +5307,9 @@
       <c r="O186" s="9"/>
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R186" s="5"/>
+    </row>
+    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -4780,8 +5326,9 @@
       <c r="O187" s="9"/>
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R187" s="5"/>
+    </row>
+    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -4798,8 +5345,9 @@
       <c r="O188" s="9"/>
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R188" s="5"/>
+    </row>
+    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -4816,8 +5364,9 @@
       <c r="O189" s="9"/>
       <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R189" s="5"/>
+    </row>
+    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -4834,8 +5383,9 @@
       <c r="O190" s="9"/>
       <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R190" s="5"/>
+    </row>
+    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -4852,8 +5402,9 @@
       <c r="O191" s="9"/>
       <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R191" s="5"/>
+    </row>
+    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -4870,8 +5421,9 @@
       <c r="O192" s="9"/>
       <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R192" s="5"/>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -4888,8 +5440,9 @@
       <c r="O193" s="9"/>
       <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R193" s="5"/>
+    </row>
+    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -4906,8 +5459,9 @@
       <c r="O194" s="9"/>
       <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R194" s="5"/>
+    </row>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -4924,8 +5478,9 @@
       <c r="O195" s="9"/>
       <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R195" s="5"/>
+    </row>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -4942,8 +5497,9 @@
       <c r="O196" s="9"/>
       <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R196" s="5"/>
+    </row>
+    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -4960,8 +5516,9 @@
       <c r="O197" s="9"/>
       <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R197" s="5"/>
+    </row>
+    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -4978,8 +5535,9 @@
       <c r="O198" s="9"/>
       <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -4996,8 +5554,9 @@
       <c r="O199" s="9"/>
       <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="R199" s="5"/>
+    </row>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -5014,9 +5573,14 @@
       <c r="O200" s="9"/>
       <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
+      <c r="R200" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B4:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:Q14">
+      <sortCondition descending="1" ref="F4"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="H3:L3"/>
@@ -5063,8 +5627,8 @@
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -5073,15 +5637,15 @@
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -5090,16 +5654,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -7297,7 +7861,7 @@
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="58" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D3" s="55">
         <f>F3*0.8</f>
@@ -7387,7 +7951,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C12" s="43">
         <f>IF(C36=4,1.2, IF(C36=-4,1.1,1))</f>
@@ -7896,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0C029-0B13-432E-8DAA-FF2C72A47371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84AEAE38-750C-4889-8BA4-B64E99B6999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -395,6 +395,12 @@
     <t>Next Buy Shares</t>
   </si>
   <si>
+    <t>6601.HK</t>
+  </si>
+  <si>
+    <t>CHEERWIN GP</t>
+  </si>
+  <si>
     <t>0071.HK</t>
   </si>
   <si>
@@ -447,12 +453,6 @@
   </si>
   <si>
     <t>CHINA FEIHE</t>
-  </si>
-  <si>
-    <t>6601.HK</t>
-  </si>
-  <si>
-    <t>CHEERWIN GP</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1401,7 +1412,7 @@
   <dimension ref="A2:R200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B6" sqref="B6:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1513,46 +1524,46 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>1.7</v>
+        <v>11.6</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>0.12206854873404213</v>
+        <v>-2.4660886809838273E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>1.1158166666400236E-2</v>
+        <v>4.0517241379310343E-2</v>
       </c>
       <c r="H5" s="7">
-        <v>1.9483303871937554</v>
+        <v>11.129157195902177</v>
       </c>
       <c r="I5" s="7">
-        <v>2.2296482660346575</v>
+        <v>13.228473799887135</v>
       </c>
       <c r="J5" s="7">
-        <v>2.0775165328478717</v>
+        <v>12.473933713005875</v>
       </c>
       <c r="K5" s="7">
-        <v>1.8886513934980651</v>
+        <v>11.33993973909625</v>
       </c>
       <c r="L5" s="7">
-        <v>1.6620132262782974</v>
+        <v>9.9791469704047007</v>
       </c>
       <c r="M5" s="7">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O5" s="9">
-        <v>2.0278062216275172</v>
+        <v>13.597424398249455</v>
       </c>
       <c r="P5" s="8">
         <v>44561</v>
@@ -1566,49 +1577,49 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>17.22</v>
+        <v>9.89</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>4.2991766123109704E-2</v>
+        <v>6.6959924720443043E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>5.6622851365015166E-2</v>
       </c>
       <c r="H6" s="7">
-        <v>7.2226635952971314</v>
+        <v>10.429776905912007</v>
       </c>
       <c r="I6" s="7">
-        <v>27.060406724369123</v>
+        <v>11.339169963600042</v>
       </c>
       <c r="J6" s="7">
-        <v>19.682318212639949</v>
+        <v>10.945223365548518</v>
       </c>
       <c r="K6" s="7">
-        <v>17.893016556945408</v>
+        <v>9.9502030595895619</v>
       </c>
       <c r="L6" s="7">
-        <v>15.745854570111959</v>
+        <v>8.7561786924388141</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="N6" s="7">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O6" s="9">
-        <v>32.909970516533505</v>
+        <v>12.347246296726411</v>
       </c>
       <c r="P6" s="8">
-        <v>44561</v>
+        <v>44742</v>
       </c>
       <c r="Q6" s="8">
         <v>45169</v>
@@ -1625,46 +1636,46 @@
         <v>108</v>
       </c>
       <c r="D7" s="7">
-        <v>10.199999999999999</v>
+        <v>43.8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6">
-        <v>2.3069380794082356E-2</v>
+        <v>-0.38071109170969952</v>
       </c>
       <c r="G7" s="6">
-        <v>2.7450980392156866E-2</v>
+        <v>8.422999015672461E-2</v>
       </c>
       <c r="H7" s="7">
-        <v>9.5559451156208368</v>
+        <v>21.393082362102046</v>
       </c>
       <c r="I7" s="7">
-        <v>12.321356439649353</v>
+        <v>38.139943462432178</v>
       </c>
       <c r="J7" s="7">
-        <v>11.45530768409964</v>
+        <v>31.504854183115157</v>
       </c>
       <c r="K7" s="7">
-        <v>10.413916076454218</v>
+        <v>28.640776530104684</v>
       </c>
       <c r="L7" s="7">
-        <v>9.1642461472797123</v>
+        <v>25.203883346492127</v>
       </c>
       <c r="M7" s="7">
-        <v>9.5</v>
+        <v>28.640776530104684</v>
       </c>
       <c r="N7" s="7">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O7" s="9">
-        <v>11.828122756595914</v>
+        <v>44.050238385337359</v>
       </c>
       <c r="P7" s="8">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="Q7" s="8">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="R7" s="61" t="s">
         <v>11</v>
@@ -1672,46 +1683,46 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7">
-        <v>9.89</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>6.6959924720443043E-3</v>
+        <v>2.3069380794082356E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>5.6622851365015166E-2</v>
+        <v>2.7450980392156866E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>10.429776905912007</v>
+        <v>9.5559451156208368</v>
       </c>
       <c r="I8" s="7">
-        <v>11.339169963600042</v>
+        <v>12.321356439649353</v>
       </c>
       <c r="J8" s="7">
-        <v>10.945223365548518</v>
+        <v>11.45530768409964</v>
       </c>
       <c r="K8" s="7">
-        <v>9.9502030595895619</v>
+        <v>10.413916076454218</v>
       </c>
       <c r="L8" s="7">
-        <v>8.7561786924388141</v>
+        <v>9.1642461472797123</v>
       </c>
       <c r="M8" s="7">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="N8" s="7">
         <v>6000</v>
       </c>
       <c r="O8" s="9">
-        <v>12.347246296726411</v>
+        <v>11.828122756595914</v>
       </c>
       <c r="P8" s="8">
         <v>44742</v>
@@ -1725,46 +1736,46 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D9" s="7">
-        <v>5.79</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>-1.9596390754508836E-2</v>
+        <v>-0.13981095852038475</v>
       </c>
       <c r="G9" s="6">
-        <v>5.2983855596097584E-2</v>
+        <v>6.9587628865979398E-2</v>
       </c>
       <c r="H9" s="7">
-        <v>2.9745483042866798</v>
+        <v>15.177942172348047</v>
       </c>
       <c r="I9" s="7">
-        <v>8.3630583045042393</v>
+        <v>20.816330621780622</v>
       </c>
       <c r="J9" s="7">
-        <v>6.2555368975313934</v>
+        <v>18.627667404704535</v>
       </c>
       <c r="K9" s="7">
-        <v>5.6868517250285393</v>
+        <v>16.934243095185941</v>
       </c>
       <c r="L9" s="7">
-        <v>5.0044295180251144</v>
+        <v>14.902133923763628</v>
       </c>
       <c r="M9" s="7">
-        <v>4.8</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O9" s="9">
-        <v>7.1487507635842036</v>
+        <v>19</v>
       </c>
       <c r="P9" s="8">
         <v>44561</v>
@@ -1778,46 +1789,46 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>11.6</v>
+        <v>1.75</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>-2.4660886809838273E-2</v>
+        <v>-0.31184281437199868</v>
       </c>
       <c r="G10" s="6">
-        <v>4.0517241379310343E-2</v>
+        <v>7.0571428571428577E-2</v>
       </c>
       <c r="H10" s="7">
-        <v>11.129157195902177</v>
+        <v>1.1292911759018582</v>
       </c>
       <c r="I10" s="7">
-        <v>13.228473799887135</v>
+        <v>1.4849033947043617</v>
       </c>
       <c r="J10" s="7">
-        <v>12.473933713005875</v>
+        <v>1.3792750748490024</v>
       </c>
       <c r="K10" s="7">
-        <v>11.33993973909625</v>
+        <v>1.2538864316809111</v>
       </c>
       <c r="L10" s="7">
-        <v>9.9791469704047007</v>
+        <v>1.1034200598792019</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N10" s="7">
-        <v>9000</v>
+        <v>60000</v>
       </c>
       <c r="O10" s="9">
-        <v>13.597424398249455</v>
+        <v>1.9</v>
       </c>
       <c r="P10" s="8">
         <v>44561</v>
@@ -1831,37 +1842,37 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7">
-        <v>19.399999999999999</v>
+        <v>17.22</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6">
-        <v>-0.13981095852038475</v>
+        <v>4.2991766123109704E-2</v>
       </c>
       <c r="G11" s="6">
-        <v>6.9587628865979398E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>15.177942172348047</v>
+        <v>7.2226635952971314</v>
       </c>
       <c r="I11" s="7">
-        <v>20.816330621780622</v>
+        <v>27.060406724369123</v>
       </c>
       <c r="J11" s="7">
-        <v>18.627667404704535</v>
+        <v>19.682318212639949</v>
       </c>
       <c r="K11" s="7">
-        <v>16.934243095185941</v>
+        <v>17.893016556945408</v>
       </c>
       <c r="L11" s="7">
-        <v>14.902133923763628</v>
+        <v>15.745854570111959</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -1870,13 +1881,13 @@
         <v>4000</v>
       </c>
       <c r="O11" s="9">
-        <v>19</v>
+        <v>32.909970516533505</v>
       </c>
       <c r="P11" s="8">
         <v>44561</v>
       </c>
       <c r="Q11" s="8">
-        <v>44985</v>
+        <v>45169</v>
       </c>
       <c r="R11" s="61" t="s">
         <v>11</v>
@@ -1884,10 +1895,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7">
         <v>4.1100000000000003</v>
@@ -1937,46 +1948,46 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>1.75</v>
+        <v>5.79</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-0.31184281437199868</v>
+        <v>-1.9596390754508836E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>7.0571428571428577E-2</v>
+        <v>5.2983855596097584E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>1.1292911759018582</v>
+        <v>2.9745483042866798</v>
       </c>
       <c r="I13" s="7">
-        <v>1.4849033947043617</v>
+        <v>8.3630583045042393</v>
       </c>
       <c r="J13" s="7">
-        <v>1.3792750748490024</v>
+        <v>6.2555368975313934</v>
       </c>
       <c r="K13" s="7">
-        <v>1.2538864316809111</v>
+        <v>5.6868517250285393</v>
       </c>
       <c r="L13" s="7">
-        <v>1.1034200598792019</v>
+        <v>5.0044295180251144</v>
       </c>
       <c r="M13" s="7">
-        <v>1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="N13" s="7">
-        <v>60000</v>
+        <v>8000</v>
       </c>
       <c r="O13" s="9">
-        <v>1.9</v>
+        <v>7.1487507635842036</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1990,52 +2001,52 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="7">
-        <v>43.8</v>
+        <v>1.7</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6">
-        <v>-0.38071109170969952</v>
+        <v>0.12206854873404213</v>
       </c>
       <c r="G14" s="6">
-        <v>8.422999015672461E-2</v>
+        <v>1.1158166666400236E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>21.393082362102046</v>
+        <v>1.9483303871937554</v>
       </c>
       <c r="I14" s="7">
-        <v>38.139943462432178</v>
+        <v>2.2296482660346575</v>
       </c>
       <c r="J14" s="7">
-        <v>31.504854183115157</v>
+        <v>2.0775165328478717</v>
       </c>
       <c r="K14" s="7">
-        <v>28.640776530104684</v>
+        <v>1.8886513934980651</v>
       </c>
       <c r="L14" s="7">
-        <v>25.203883346492127</v>
+        <v>1.6620132262782974</v>
       </c>
       <c r="M14" s="7">
-        <v>28.640776530104684</v>
+        <v>1.6</v>
       </c>
       <c r="N14" s="7">
-        <v>3000</v>
+        <v>22000</v>
       </c>
       <c r="O14" s="9">
-        <v>44.050238385337359</v>
+        <v>2.0278062216275172</v>
       </c>
       <c r="P14" s="8">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="Q14" s="8">
-        <v>45077</v>
+        <v>44985</v>
       </c>
       <c r="R14" s="61" t="s">
         <v>11</v>
@@ -2110,7 +2121,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="5"/>
       <c r="O18" s="9"/>
       <c r="P18" s="8"/>
@@ -2129,7 +2140,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="5"/>
       <c r="O19" s="9"/>
       <c r="P19" s="8"/>
@@ -2148,7 +2159,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="5"/>
       <c r="O20" s="9"/>
       <c r="P20" s="8"/>
@@ -2167,7 +2178,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="7"/>
       <c r="N21" s="5"/>
       <c r="O21" s="9"/>
       <c r="P21" s="8"/>
@@ -5586,6 +5597,11 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
+  <conditionalFormatting sqref="M5:M200">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$D$5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5596,7 +5612,7 @@
   <dimension ref="A2:J200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7831,7 +7847,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84AEAE38-750C-4889-8BA4-B64E99B6999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A9A1C9-9D3D-4133-BA85-D8C8B43D8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -1078,18 +1078,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1412,7 +1401,7 @@
   <dimension ref="A2:R200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:R14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5597,11 +5586,6 @@
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="D3:F3"/>
   </mergeCells>
-  <conditionalFormatting sqref="M5:M200">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$D$5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A9A1C9-9D3D-4133-BA85-D8C8B43D8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874DA840-5D19-40A2-A906-3F9874B3FBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
     <sheet name="Current_Holdings" sheetId="3" r:id="rId2"/>
-    <sheet name="Discount rates" sheetId="4" r:id="rId3"/>
+    <sheet name="Macro" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Current_Holdings!$B$6:$J$6</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>CHINA FEIHE</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1401,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R200"/>
+  <dimension ref="A2:S200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,9 +1417,10 @@
     <col min="8" max="15" width="14.6328125" customWidth="1"/>
     <col min="16" max="16" width="14.453125" customWidth="1"/>
     <col min="17" max="17" width="16.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1437,8 +1441,9 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D3" s="64" t="s">
         <v>88</v>
       </c>
@@ -1458,7 +1463,7 @@
       <c r="N3" s="62"/>
       <c r="O3" s="62"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>93</v>
       </c>
@@ -1510,8 +1515,11 @@
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S4" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>103</v>
       </c>
@@ -1563,8 +1571,9 @@
       <c r="R5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
@@ -1616,8 +1625,9 @@
       <c r="R6" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="61"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>107</v>
       </c>
@@ -1669,8 +1679,9 @@
       <c r="R7" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7" s="61"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>109</v>
       </c>
@@ -1722,8 +1733,9 @@
       <c r="R8" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>111</v>
       </c>
@@ -1775,8 +1787,9 @@
       <c r="R9" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="61"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>113</v>
       </c>
@@ -1828,8 +1841,9 @@
       <c r="R10" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10" s="61"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>115</v>
       </c>
@@ -1881,8 +1895,9 @@
       <c r="R11" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S11" s="61"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>117</v>
       </c>
@@ -1934,8 +1949,9 @@
       <c r="R12" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12" s="61"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>119</v>
       </c>
@@ -1987,8 +2003,9 @@
       <c r="R13" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S13" s="61"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>101</v>
       </c>
@@ -2040,8 +2057,9 @@
       <c r="R14" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14" s="61"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -2059,8 +2077,9 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="61"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15" s="61"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="7"/>
@@ -2078,8 +2097,9 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
@@ -2097,8 +2117,9 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -2116,8 +2137,9 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -2135,8 +2157,9 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
@@ -2154,8 +2177,9 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="7"/>
@@ -2173,8 +2197,9 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7"/>
@@ -2192,8 +2217,9 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -2211,8 +2237,9 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -2230,8 +2257,9 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -2249,8 +2277,9 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -2268,8 +2297,9 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="5"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -2287,8 +2317,9 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -2306,8 +2337,9 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="5"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -2325,8 +2357,9 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -2344,8 +2377,9 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="5"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -2363,8 +2397,9 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="5"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -2382,8 +2417,9 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="5"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -2401,8 +2437,9 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="5"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -2420,8 +2457,9 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="5"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S34" s="5"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -2439,8 +2477,9 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="5"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S35" s="5"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -2458,8 +2497,9 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="5"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S36" s="5"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -2477,8 +2517,9 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="5"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S37" s="5"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
@@ -2496,8 +2537,9 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="5"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S38" s="5"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
@@ -2515,8 +2557,9 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="5"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -2534,8 +2577,9 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="5"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -2553,8 +2597,9 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="5"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
@@ -2572,8 +2617,9 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -2591,8 +2637,9 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="5"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -2610,8 +2657,9 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="5"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -2629,8 +2677,9 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="5"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -2648,8 +2697,9 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="5"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
@@ -2667,8 +2717,9 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="5"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
@@ -2686,8 +2737,9 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="5"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -2705,8 +2757,9 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="5"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="7"/>
@@ -2724,8 +2777,9 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="5"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -2743,8 +2797,9 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="5"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
@@ -2762,8 +2817,9 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
@@ -2781,8 +2837,9 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
@@ -2800,8 +2857,9 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -2819,8 +2877,9 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -2838,8 +2897,9 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -2857,8 +2917,9 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
@@ -2876,8 +2937,9 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
@@ -2895,8 +2957,9 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
@@ -2914,8 +2977,9 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
@@ -2933,8 +2997,9 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -2952,8 +3017,9 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
@@ -2971,8 +3037,9 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="7"/>
@@ -2990,8 +3057,9 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -3009,8 +3077,9 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
@@ -3028,8 +3097,9 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
@@ -3047,8 +3117,9 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
@@ -3066,8 +3137,9 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="7"/>
@@ -3085,8 +3157,9 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7"/>
@@ -3104,8 +3177,9 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="7"/>
@@ -3123,8 +3197,9 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
@@ -3142,8 +3217,9 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="5"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
@@ -3161,8 +3237,9 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="5"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="7"/>
@@ -3180,8 +3257,9 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="5"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="7"/>
@@ -3199,8 +3277,9 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="5"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7"/>
@@ -3218,8 +3297,9 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="5"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="7"/>
@@ -3237,8 +3317,9 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="5"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="7"/>
@@ -3256,8 +3337,9 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="5"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7"/>
@@ -3275,8 +3357,9 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="5"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="7"/>
@@ -3294,8 +3377,9 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="5"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="7"/>
@@ -3313,8 +3397,9 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="5"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="7"/>
@@ -3332,8 +3417,9 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="5"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="7"/>
@@ -3351,8 +3437,9 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="5"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="7"/>
@@ -3370,8 +3457,9 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="5"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7"/>
@@ -3389,8 +3477,9 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="5"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="7"/>
@@ -3408,8 +3497,9 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="5"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="7"/>
@@ -3427,8 +3517,9 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="5"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="7"/>
@@ -3446,8 +3537,9 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="5"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7"/>
@@ -3465,8 +3557,9 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="5"/>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7"/>
@@ -3484,8 +3577,9 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="5"/>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="7"/>
@@ -3503,8 +3597,9 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="5"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="7"/>
@@ -3522,8 +3617,9 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="5"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="7"/>
@@ -3541,8 +3637,9 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="5"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="7"/>
@@ -3560,8 +3657,9 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="5"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="7"/>
@@ -3579,8 +3677,9 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="5"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="7"/>
@@ -3598,8 +3697,9 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="5"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="7"/>
@@ -3617,8 +3717,9 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="5"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
@@ -3636,8 +3737,9 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="5"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="7"/>
@@ -3655,8 +3757,9 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="5"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
@@ -3674,8 +3777,9 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="5"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7"/>
@@ -3693,8 +3797,9 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="5"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="7"/>
@@ -3712,8 +3817,9 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="5"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="7"/>
@@ -3731,8 +3837,9 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="5"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="7"/>
@@ -3750,8 +3857,9 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="5"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="7"/>
@@ -3769,8 +3877,9 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="5"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="7"/>
@@ -3788,8 +3897,9 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="5"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="7"/>
@@ -3807,8 +3917,9 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="5"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="7"/>
@@ -3826,8 +3937,9 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="5"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="7"/>
@@ -3845,8 +3957,9 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="5"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="7"/>
@@ -3864,8 +3977,9 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="5"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7"/>
@@ -3883,8 +3997,9 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="5"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="7"/>
@@ -3902,8 +4017,9 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="5"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="7"/>
@@ -3921,8 +4037,9 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="5"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="7"/>
@@ -3940,8 +4057,9 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="5"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7"/>
@@ -3959,8 +4077,9 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="5"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="7"/>
@@ -3978,8 +4097,9 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="5"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="7"/>
@@ -3997,8 +4117,9 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="5"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="7"/>
@@ -4016,8 +4137,9 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="5"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7"/>
@@ -4035,8 +4157,9 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="5"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="7"/>
@@ -4054,8 +4177,9 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="5"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="7"/>
@@ -4073,8 +4197,9 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="5"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="7"/>
@@ -4092,8 +4217,9 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="5"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S122" s="5"/>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="7"/>
@@ -4111,8 +4237,9 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="5"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S123" s="5"/>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="7"/>
@@ -4130,8 +4257,9 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="5"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S124" s="5"/>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="7"/>
@@ -4149,8 +4277,9 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="5"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S125" s="5"/>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="7"/>
@@ -4168,8 +4297,9 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="5"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S126" s="5"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7"/>
@@ -4187,8 +4317,9 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="5"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S127" s="5"/>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7"/>
@@ -4206,8 +4337,9 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="5"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="7"/>
@@ -4225,8 +4357,9 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="5"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S129" s="5"/>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="7"/>
@@ -4244,8 +4377,9 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="5"/>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S130" s="5"/>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="7"/>
@@ -4263,8 +4397,9 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="5"/>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S131" s="5"/>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="7"/>
@@ -4282,8 +4417,9 @@
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
       <c r="R132" s="5"/>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S132" s="5"/>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="7"/>
@@ -4301,8 +4437,9 @@
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
       <c r="R133" s="5"/>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S133" s="5"/>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="7"/>
@@ -4320,8 +4457,9 @@
       <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
       <c r="R134" s="5"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S134" s="5"/>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="7"/>
@@ -4339,8 +4477,9 @@
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
       <c r="R135" s="5"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S135" s="5"/>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="7"/>
@@ -4358,8 +4497,9 @@
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
       <c r="R136" s="5"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S136" s="5"/>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="7"/>
@@ -4377,8 +4517,9 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
       <c r="R137" s="5"/>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S137" s="5"/>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="7"/>
@@ -4396,8 +4537,9 @@
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
       <c r="R138" s="5"/>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S138" s="5"/>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="7"/>
@@ -4415,8 +4557,9 @@
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
       <c r="R139" s="5"/>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S139" s="5"/>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="7"/>
@@ -4434,8 +4577,9 @@
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="5"/>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S140" s="5"/>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="7"/>
@@ -4453,8 +4597,9 @@
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
       <c r="R141" s="5"/>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S141" s="5"/>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="7"/>
@@ -4472,8 +4617,9 @@
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
       <c r="R142" s="5"/>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S142" s="5"/>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="7"/>
@@ -4491,8 +4637,9 @@
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
       <c r="R143" s="5"/>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S143" s="5"/>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="7"/>
@@ -4510,8 +4657,9 @@
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
       <c r="R144" s="5"/>
-    </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S144" s="5"/>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="7"/>
@@ -4529,8 +4677,9 @@
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
       <c r="R145" s="5"/>
-    </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S145" s="5"/>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="7"/>
@@ -4548,8 +4697,9 @@
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
       <c r="R146" s="5"/>
-    </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S146" s="5"/>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="7"/>
@@ -4567,8 +4717,9 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="5"/>
-    </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S147" s="5"/>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="7"/>
@@ -4586,8 +4737,9 @@
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="5"/>
-    </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S148" s="5"/>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="7"/>
@@ -4605,8 +4757,9 @@
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="5"/>
-    </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S149" s="5"/>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="7"/>
@@ -4624,8 +4777,9 @@
       <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
       <c r="R150" s="5"/>
-    </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S150" s="5"/>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="7"/>
@@ -4643,8 +4797,9 @@
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
       <c r="R151" s="5"/>
-    </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S151" s="5"/>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="7"/>
@@ -4662,8 +4817,9 @@
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
       <c r="R152" s="5"/>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S152" s="5"/>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="7"/>
@@ -4681,8 +4837,9 @@
       <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
       <c r="R153" s="5"/>
-    </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S153" s="5"/>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="7"/>
@@ -4700,8 +4857,9 @@
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
       <c r="R154" s="5"/>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S154" s="5"/>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="7"/>
@@ -4719,8 +4877,9 @@
       <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
       <c r="R155" s="5"/>
-    </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S155" s="5"/>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="7"/>
@@ -4738,8 +4897,9 @@
       <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
       <c r="R156" s="5"/>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S156" s="5"/>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="7"/>
@@ -4757,8 +4917,9 @@
       <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
       <c r="R157" s="5"/>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S157" s="5"/>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="7"/>
@@ -4776,8 +4937,9 @@
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
       <c r="R158" s="5"/>
-    </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S158" s="5"/>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="7"/>
@@ -4795,8 +4957,9 @@
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="5"/>
-    </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S159" s="5"/>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="7"/>
@@ -4814,8 +4977,9 @@
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
       <c r="R160" s="5"/>
-    </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S160" s="5"/>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="7"/>
@@ -4833,8 +4997,9 @@
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
       <c r="R161" s="5"/>
-    </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S161" s="5"/>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="7"/>
@@ -4852,8 +5017,9 @@
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
       <c r="R162" s="5"/>
-    </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S162" s="5"/>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="7"/>
@@ -4871,8 +5037,9 @@
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
       <c r="R163" s="5"/>
-    </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S163" s="5"/>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="7"/>
@@ -4890,8 +5057,9 @@
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
       <c r="R164" s="5"/>
-    </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S164" s="5"/>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="7"/>
@@ -4909,8 +5077,9 @@
       <c r="P165" s="8"/>
       <c r="Q165" s="8"/>
       <c r="R165" s="5"/>
-    </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S165" s="5"/>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="7"/>
@@ -4928,8 +5097,9 @@
       <c r="P166" s="8"/>
       <c r="Q166" s="8"/>
       <c r="R166" s="5"/>
-    </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S166" s="5"/>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="7"/>
@@ -4947,8 +5117,9 @@
       <c r="P167" s="8"/>
       <c r="Q167" s="8"/>
       <c r="R167" s="5"/>
-    </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S167" s="5"/>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="7"/>
@@ -4966,8 +5137,9 @@
       <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
       <c r="R168" s="5"/>
-    </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S168" s="5"/>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="7"/>
@@ -4985,8 +5157,9 @@
       <c r="P169" s="8"/>
       <c r="Q169" s="8"/>
       <c r="R169" s="5"/>
-    </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S169" s="5"/>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="7"/>
@@ -5004,8 +5177,9 @@
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
       <c r="R170" s="5"/>
-    </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S170" s="5"/>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="7"/>
@@ -5023,8 +5197,9 @@
       <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
       <c r="R171" s="5"/>
-    </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S171" s="5"/>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="7"/>
@@ -5042,8 +5217,9 @@
       <c r="P172" s="8"/>
       <c r="Q172" s="8"/>
       <c r="R172" s="5"/>
-    </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S172" s="5"/>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="7"/>
@@ -5061,8 +5237,9 @@
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="5"/>
-    </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S173" s="5"/>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="7"/>
@@ -5080,8 +5257,9 @@
       <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
       <c r="R174" s="5"/>
-    </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S174" s="5"/>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="7"/>
@@ -5099,8 +5277,9 @@
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
       <c r="R175" s="5"/>
-    </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S175" s="5"/>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="7"/>
@@ -5118,8 +5297,9 @@
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
       <c r="R176" s="5"/>
-    </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S176" s="5"/>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
@@ -5137,8 +5317,9 @@
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
       <c r="R177" s="5"/>
-    </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S177" s="5"/>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="7"/>
@@ -5156,8 +5337,9 @@
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
       <c r="R178" s="5"/>
-    </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S178" s="5"/>
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="7"/>
@@ -5175,8 +5357,9 @@
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
       <c r="R179" s="5"/>
-    </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S179" s="5"/>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="7"/>
@@ -5194,8 +5377,9 @@
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
       <c r="R180" s="5"/>
-    </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S180" s="5"/>
+    </row>
+    <row r="181" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="7"/>
@@ -5213,8 +5397,9 @@
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
       <c r="R181" s="5"/>
-    </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S181" s="5"/>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="7"/>
@@ -5232,8 +5417,9 @@
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="5"/>
-    </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S182" s="5"/>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="7"/>
@@ -5251,8 +5437,9 @@
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
       <c r="R183" s="5"/>
-    </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S183" s="5"/>
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="7"/>
@@ -5270,8 +5457,9 @@
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
       <c r="R184" s="5"/>
-    </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S184" s="5"/>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="7"/>
@@ -5289,8 +5477,9 @@
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
       <c r="R185" s="5"/>
-    </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S185" s="5"/>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="7"/>
@@ -5308,8 +5497,9 @@
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
       <c r="R186" s="5"/>
-    </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S186" s="5"/>
+    </row>
+    <row r="187" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="7"/>
@@ -5327,8 +5517,9 @@
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="5"/>
-    </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S187" s="5"/>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="7"/>
@@ -5346,8 +5537,9 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
       <c r="R188" s="5"/>
-    </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S188" s="5"/>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="7"/>
@@ -5365,8 +5557,9 @@
       <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
       <c r="R189" s="5"/>
-    </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S189" s="5"/>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="7"/>
@@ -5384,8 +5577,9 @@
       <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
       <c r="R190" s="5"/>
-    </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S190" s="5"/>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="7"/>
@@ -5403,8 +5597,9 @@
       <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
       <c r="R191" s="5"/>
-    </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S191" s="5"/>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="7"/>
@@ -5422,8 +5617,9 @@
       <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
       <c r="R192" s="5"/>
-    </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S192" s="5"/>
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="7"/>
@@ -5441,8 +5637,9 @@
       <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
       <c r="R193" s="5"/>
-    </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S193" s="5"/>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="7"/>
@@ -5460,8 +5657,9 @@
       <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
       <c r="R194" s="5"/>
-    </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S194" s="5"/>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="7"/>
@@ -5479,8 +5677,9 @@
       <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
       <c r="R195" s="5"/>
-    </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S195" s="5"/>
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="7"/>
@@ -5498,8 +5697,9 @@
       <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="5"/>
-    </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S196" s="5"/>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="7"/>
@@ -5517,8 +5717,9 @@
       <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="5"/>
-    </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S197" s="5"/>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="7"/>
@@ -5536,8 +5737,9 @@
       <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="5"/>
-    </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S198" s="5"/>
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="7"/>
@@ -5555,8 +5757,9 @@
       <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="5"/>
-    </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S199" s="5"/>
+    </row>
+    <row r="200" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="7"/>
@@ -5574,6 +5777,7 @@
       <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="5"/>
+      <c r="S200" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -7830,8 +8034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874DA840-5D19-40A2-A906-3F9874B3FBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44547203-38F1-4EF3-95E4-AE83FAE45F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -8035,7 +8035,7 @@
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44547203-38F1-4EF3-95E4-AE83FAE45F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA6BB4-B833-4665-9DBF-8FD5B91E63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>HK</t>
   </si>
 </sst>
 </file>
@@ -8032,10 +8035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
-  <dimension ref="A2:F47"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8046,9 +8049,11 @@
     <col min="4" max="4" width="32.7265625" customWidth="1"/>
     <col min="5" max="5" width="10.453125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="33" t="s">
         <v>29</v>
@@ -8061,8 +8066,11 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H2" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="58" t="s">
         <v>87</v>
@@ -8075,8 +8083,12 @@
       <c r="F3" s="57">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H3" s="55">
+        <f>F3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="33" t="s">
         <v>21</v>
@@ -8088,19 +8100,26 @@
       <c r="F5" s="38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="38" t="str">
+        <f>H2</f>
+        <v>HK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="37">
-        <v>3.8399999999999997E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="F6" s="37">
-        <v>2.9049999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="41" t="s">
         <v>25</v>
       </c>
@@ -8111,8 +8130,12 @@
       <c r="F7" s="48">
         <v>9.7999999999999997E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H7" s="48">
+        <f>F7</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="33" t="s">
         <v>26</v>
@@ -8125,21 +8148,36 @@
       <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f>H5</f>
+        <v>HK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="45">
         <f>D6-D7</f>
-        <v>2.2559999999999997E-2</v>
+        <v>2.0560000000000002E-2</v>
       </c>
       <c r="F10" s="45">
         <f>F6-F7</f>
-        <v>1.925E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4.02E-2</v>
+      </c>
+      <c r="G10" s="45">
+        <f t="shared" ref="G10:H10" si="0">G6-G7</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <f t="shared" si="0"/>
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="41" t="s">
         <v>28</v>
       </c>
@@ -8152,8 +8190,16 @@
         <f>F44</f>
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="40">
+        <f t="shared" ref="G11:H11" si="1">G44</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
         <v>85</v>
       </c>
@@ -8163,7 +8209,7 @@
       </c>
       <c r="D12" s="51">
         <f>SUM(D10:D11)</f>
-        <v>3.9983999999999999E-2</v>
+        <v>3.7984000000000004E-2</v>
       </c>
       <c r="E12" s="53">
         <f>IF(E36=4,1.2, IF(E36=-4,1.1,1))</f>
@@ -8171,10 +8217,18 @@
       </c>
       <c r="F12" s="51">
         <f>SUM(F10:F11)</f>
-        <v>3.3950000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="G12" s="51">
+        <f t="shared" ref="G12:H12" si="2">SUM(G10:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="51">
+        <f t="shared" si="2"/>
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
         <v>30</v>
@@ -8190,7 +8244,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>31</v>
@@ -8200,20 +8254,20 @@
       <c r="E15" s="22"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="23">
-        <f t="shared" ref="C16:E19" si="0">IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
+        <f t="shared" ref="C16:E19" si="3">IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -8226,14 +8280,14 @@
         <v>34</v>
       </c>
       <c r="C17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F17" s="25" t="s">
@@ -8246,14 +8300,14 @@
         <v>37</v>
       </c>
       <c r="C18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="F18" s="26" t="s">
@@ -8266,14 +8320,14 @@
         <v>39</v>
       </c>
       <c r="C19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="27" t="s">
@@ -8308,14 +8362,14 @@
         <v>43</v>
       </c>
       <c r="C21" s="23">
-        <f t="shared" ref="C21:E24" si="1">IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
+        <f t="shared" ref="C21:E24" si="4">IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F21" s="24" t="s">
@@ -8328,14 +8382,14 @@
         <v>45</v>
       </c>
       <c r="C22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F22" s="24" t="s">
@@ -8348,14 +8402,14 @@
         <v>47</v>
       </c>
       <c r="C23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23" s="27" t="s">
@@ -8368,14 +8422,14 @@
         <v>49</v>
       </c>
       <c r="C24" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="F24" s="27" t="s">
@@ -8410,14 +8464,14 @@
         <v>52</v>
       </c>
       <c r="C26" s="23">
-        <f t="shared" ref="C26:E29" si="2">IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
+        <f t="shared" ref="C26:E29" si="5">IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F26" s="24" t="s">
@@ -8430,14 +8484,14 @@
         <v>55</v>
       </c>
       <c r="C27" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -8450,14 +8504,14 @@
         <v>57</v>
       </c>
       <c r="C28" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F28" s="24" t="s">
@@ -8470,14 +8524,14 @@
         <v>59</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F29" s="24" t="s">
@@ -8512,14 +8566,14 @@
         <v>62</v>
       </c>
       <c r="C31" s="23">
-        <f t="shared" ref="C31:E34" si="3">IF(LEFT(D31,1)="H",1,IF(LEFT(D31,1)="C",-1,0))</f>
+        <f t="shared" ref="C31:E34" si="6">IF(LEFT(D31,1)="H",1,IF(LEFT(D31,1)="C",-1,0))</f>
         <v>-1</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F31" s="24" t="s">
@@ -8532,14 +8586,14 @@
         <v>65</v>
       </c>
       <c r="C32" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F32" s="24" t="s">
@@ -8552,14 +8606,14 @@
         <v>67</v>
       </c>
       <c r="C33" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F33" s="24" t="s">
@@ -8572,14 +8626,14 @@
         <v>69</v>
       </c>
       <c r="C34" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F34" s="24" t="s">
@@ -8672,7 +8726,7 @@
         <v>76</v>
       </c>
       <c r="C40" s="36">
-        <f t="shared" ref="C40:E43" si="4">IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
+        <f t="shared" ref="C40:E43" si="7">IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
         <v>1</v>
       </c>
       <c r="D40" s="31" t="str">
@@ -8680,7 +8734,7 @@
         <v>Mixed - Dormant</v>
       </c>
       <c r="E40" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F40" s="31" t="str">
@@ -8693,7 +8747,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D41" s="31" t="str">
@@ -8701,7 +8755,7 @@
         <v>Cold - Negative</v>
       </c>
       <c r="E41" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F41" s="31" t="str">
@@ -8714,7 +8768,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D42" s="31" t="str">
@@ -8722,7 +8776,7 @@
         <v>Cold - High</v>
       </c>
       <c r="E42" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F42" s="31" t="str">
@@ -8735,7 +8789,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D43" s="31" t="str">
@@ -8743,7 +8797,7 @@
         <v>Cold - Wide</v>
       </c>
       <c r="E43" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F43" s="31" t="str">

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DA6BB4-B833-4665-9DBF-8FD5B91E63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DC8333-D129-4989-B74B-839961074CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -103,251 +103,10 @@
     <t>Nominal Default-free rate  (use 10Y Treasury yield if available) =</t>
   </si>
   <si>
-    <t>- Expected core inflation rate (use 10Y TIPS if available) =</t>
-  </si>
-  <si>
-    <t>Discount rate:</t>
-  </si>
-  <si>
-    <t>⇒ Real risk-free rate +</t>
-  </si>
-  <si>
-    <t>+ Interest Rate Risk Premium</t>
-  </si>
-  <si>
     <t>Required Margin of Safety:</t>
   </si>
   <si>
-    <t>Current Environment Assessment</t>
-  </si>
-  <si>
-    <t>PART I: Market Sentiment Assessment</t>
-  </si>
-  <si>
-    <t>1. Economy:</t>
-  </si>
-  <si>
-    <t>Cold - Sluggish</t>
-  </si>
-  <si>
-    <t>2. Outlook:</t>
-  </si>
-  <si>
-    <t>Cold - Negative</t>
-  </si>
-  <si>
-    <t>Hot - Positive</t>
-  </si>
-  <si>
-    <t>3. Lenders:</t>
-  </si>
-  <si>
-    <t>Cold - Reticent</t>
-  </si>
-  <si>
-    <t>4. Likelihood of distress</t>
-  </si>
-  <si>
-    <t>Cold - Rising</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>Macro Sentiment</t>
-  </si>
-  <si>
-    <t>5. Financing:</t>
-  </si>
-  <si>
-    <t>Cold - Scarce</t>
-  </si>
-  <si>
-    <t>6. Terms:</t>
-  </si>
-  <si>
-    <t>Cold - Restrictive</t>
-  </si>
-  <si>
-    <t>7. Interest rates:</t>
-  </si>
-  <si>
-    <t>Cold - High</t>
-  </si>
-  <si>
-    <t>8. Yield Spreads:</t>
-  </si>
-  <si>
-    <t>Cold - Wide</t>
-  </si>
-  <si>
-    <t>Avalibility of Money</t>
-  </si>
-  <si>
-    <t>10. Asset owners:</t>
-  </si>
-  <si>
-    <t>Cold - Rushing for the exits</t>
-  </si>
-  <si>
-    <t>Hot - Happy to hold</t>
-  </si>
-  <si>
-    <t>15. Asset prices:</t>
-  </si>
-  <si>
-    <t>Cold - Low</t>
-  </si>
-  <si>
-    <t>9. Investors:</t>
-  </si>
-  <si>
-    <t>Cold - Pessimistic</t>
-  </si>
-  <si>
-    <t>11. Sellers:</t>
-  </si>
-  <si>
-    <t>Cold - Many</t>
-  </si>
-  <si>
-    <t>Investment Sentiment</t>
-  </si>
-  <si>
-    <t>12. Markets:</t>
-  </si>
-  <si>
-    <t>Cold - "Worse is yet to come"</t>
-  </si>
-  <si>
-    <t>Mixed - "Market has bottomed"</t>
-  </si>
-  <si>
-    <t>13. Funds:</t>
-  </si>
-  <si>
-    <t>Cold - Only the best can raise money</t>
-  </si>
-  <si>
-    <t>14. Recent performance/Prospective returns:</t>
-  </si>
-  <si>
-    <t>Hot - Strong</t>
-  </si>
-  <si>
-    <t>16. Popular qualities:</t>
-  </si>
-  <si>
-    <t>Cold - Caution and discipline</t>
-  </si>
-  <si>
-    <t>Capital market Sentiment</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒ Financial market</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>risk:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Is the market sentiment not in extreme?</t>
-    </r>
-  </si>
-  <si>
-    <t>PART II: Interest Rate Risk Assessment</t>
-  </si>
-  <si>
-    <t>1. Central bank behavior</t>
-  </si>
-  <si>
-    <t>Cold - Tightening</t>
-  </si>
-  <si>
-    <t>2. Inflation</t>
-  </si>
-  <si>
-    <t>3. Economic outlook</t>
-  </si>
-  <si>
-    <t>4. Interest rates</t>
-  </si>
-  <si>
-    <t>5. Yield spreads</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Interest rate risk premium</t>
-    </r>
-  </si>
-  <si>
-    <t>PART III: Country Risk Assessment</t>
-  </si>
-  <si>
-    <t># To-do with insights from "Big Debt Cycle"</t>
-  </si>
-  <si>
     <t>LFY Dividend</t>
-  </si>
-  <si>
-    <t>Hot - Stimulative</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">⇒ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Adj. Rf</t>
-    </r>
   </si>
   <si>
     <t>Next Review Date</t>
@@ -468,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,69 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -602,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,12 +322,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
     <fill>
@@ -658,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -758,47 +449,6 @@
     </border>
     <border>
       <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="dotted">
@@ -808,80 +458,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -913,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -954,117 +530,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1447,28 +947,28 @@
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="63" t="s">
+      <c r="D3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1483,51 +983,51 @@
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
         <v>11.6</v>
@@ -1578,10 +1078,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
         <v>9.89</v>
@@ -1625,17 +1125,17 @@
       <c r="Q6" s="8">
         <v>45169</v>
       </c>
-      <c r="R6" s="61" t="s">
+      <c r="R6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="61"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
         <v>43.8</v>
@@ -1679,17 +1179,17 @@
       <c r="Q7" s="8">
         <v>45077</v>
       </c>
-      <c r="R7" s="61" t="s">
+      <c r="R7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="61"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
         <v>10.199999999999999</v>
@@ -1733,17 +1233,17 @@
       <c r="Q8" s="8">
         <v>45169</v>
       </c>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="61"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
         <v>19.399999999999999</v>
@@ -1787,17 +1287,17 @@
       <c r="Q9" s="8">
         <v>44985</v>
       </c>
-      <c r="R9" s="61" t="s">
+      <c r="R9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="61"/>
+      <c r="S9" s="28"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
         <v>1.75</v>
@@ -1841,17 +1341,17 @@
       <c r="Q10" s="8">
         <v>44985</v>
       </c>
-      <c r="R10" s="61" t="s">
+      <c r="R10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="28"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
         <v>17.22</v>
@@ -1895,17 +1395,17 @@
       <c r="Q11" s="8">
         <v>45169</v>
       </c>
-      <c r="R11" s="61" t="s">
+      <c r="R11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="61"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
         <v>4.1100000000000003</v>
@@ -1949,17 +1449,17 @@
       <c r="Q12" s="8">
         <v>45077</v>
       </c>
-      <c r="R12" s="61" t="s">
+      <c r="R12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
         <v>5.79</v>
@@ -2003,17 +1503,17 @@
       <c r="Q13" s="8">
         <v>44985</v>
       </c>
-      <c r="R13" s="61" t="s">
+      <c r="R13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="61"/>
+      <c r="S13" s="28"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
         <v>1.7</v>
@@ -2057,10 +1557,10 @@
       <c r="Q14" s="8">
         <v>44985</v>
       </c>
-      <c r="R14" s="61" t="s">
+      <c r="R14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="61"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -2079,8 +1579,8 @@
       <c r="O15" s="9"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
@@ -5826,7 +5326,7 @@
       <c r="I2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="60">
+      <c r="J2" s="27">
         <v>44902</v>
       </c>
     </row>
@@ -5834,8 +5334,8 @@
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -5844,15 +5344,15 @@
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -5861,16 +5361,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -8035,10 +7535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB6B1BF-BEDD-44AB-AFC3-888836F1C221}">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8055,8 +7555,8 @@
   <sheetData>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="33" t="s">
-        <v>29</v>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
@@ -8067,40 +7567,40 @@
         <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="A3" s="18"/>
+      <c r="B3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="22">
         <f>F3*0.8</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57">
+      <c r="E3" s="23"/>
+      <c r="F3" s="24">
         <v>0.1</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="22">
         <f>F3</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="38" t="str">
+      <c r="H5" s="21" t="str">
         <f>H2</f>
         <v>HK</v>
       </c>
@@ -8109,789 +7609,19 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="37">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0.05</v>
-      </c>
-      <c r="H6" s="37">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="48">
-        <v>1.584E-2</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="48">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="H7" s="48">
-        <f>F7</f>
-        <v>9.7999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>H5</f>
-        <v>HK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="45">
-        <f>D6-D7</f>
-        <v>2.0560000000000002E-2</v>
-      </c>
-      <c r="F10" s="45">
-        <f>F6-F7</f>
-        <v>4.02E-2</v>
-      </c>
-      <c r="G10" s="45">
-        <f t="shared" ref="G10:H10" si="0">G6-G7</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="45">
-        <f t="shared" si="0"/>
-        <v>3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="46">
-        <f>D44</f>
-        <v>1.7424000000000002E-2</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="40">
-        <f>F44</f>
-        <v>1.47E-2</v>
-      </c>
-      <c r="G11" s="40">
-        <f t="shared" ref="G11:H11" si="1">G44</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="43">
-        <f>IF(C36=4,1.2, IF(C36=-4,1.1,1))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D12" s="51">
-        <f>SUM(D10:D11)</f>
-        <v>3.7984000000000004E-2</v>
-      </c>
-      <c r="E12" s="53">
-        <f>IF(E36=4,1.2, IF(E36=-4,1.1,1))</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="51">
-        <f>SUM(F10:F11)</f>
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="G12" s="51">
-        <f t="shared" ref="G12:H12" si="2">SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="51">
-        <f t="shared" si="2"/>
-        <v>3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="50" t="str">
-        <f>D5</f>
-        <v>US</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="4" t="str">
-        <f>F5</f>
-        <v>China</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="23">
-        <f t="shared" ref="C16:E19" si="3">IF(LEFT(D16,1)="H",1,IF(LEFT(D16,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="23">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="23">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="23">
-        <f>IF(LEFT(D20,1)="H",2,IF(LEFT(D20,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D20" s="29" t="str">
-        <f>IF(SUM(C16:C19)&gt;=3, "Hot", IF(SUM(C16:C19)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E20" s="23">
-        <f>IF(LEFT(F20,1)="H",2,IF(LEFT(F20,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="29" t="str">
-        <f>IF(SUM(E16:E19)&gt;=3, "Hot", IF(SUM(E16:E19)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="23">
-        <f t="shared" ref="C21:E24" si="4">IF(LEFT(D21,1)="H",1,IF(LEFT(D21,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="23">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="23">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="23">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="23">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="23">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="23">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="23">
-        <f>IF(LEFT(D25,1)="H",2,IF(LEFT(D25,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D25" s="30" t="str">
-        <f>IF(SUM(C21:C24)&gt;=3, "Hot", IF(SUM(C21:C24)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E25" s="23">
-        <f>IF(LEFT(F25,1)="H",2,IF(LEFT(F25,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="F25" s="30" t="str">
-        <f>IF(SUM(E21:E24)&gt;=3, "Hot", IF(SUM(E21:E24)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="23">
-        <f t="shared" ref="C26:E29" si="5">IF(LEFT(D26,1)="H",1,IF(LEFT(D26,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="23">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="23">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="23">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="23">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="23">
-        <f>IF(LEFT(D30,1)="H",2,IF(LEFT(D30,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D30" s="30" t="str">
-        <f>IF(SUM(C26:C29)&gt;=3, "Hot", IF(SUM(C26:C29)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E30" s="23">
-        <f>IF(LEFT(F30,1)="H",2,IF(LEFT(F30,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30" t="str">
-        <f>IF(SUM(E26:E29)&gt;=3, "Hot", IF(SUM(E26:E29)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="23">
-        <f t="shared" ref="C31:E34" si="6">IF(LEFT(D31,1)="H",1,IF(LEFT(D31,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="23">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="23">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="20"/>
-      <c r="B35" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="23">
-        <f>IF(LEFT(D35,1)="H",2,IF(LEFT(D35,1)="C",-1,0))</f>
-        <v>-1</v>
-      </c>
-      <c r="D35" s="30" t="str">
-        <f>IF(SUM(C31:C34)&gt;=3, "Hot", IF(SUM(C31:C34)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Cold</v>
-      </c>
-      <c r="E35" s="23">
-        <f>IF(LEFT(F35,1)="H",2,IF(LEFT(F35,1)="C",-1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="30" t="str">
-        <f>IF(SUM(E31:E34)&gt;=3, "Hot", IF(SUM(E31:E34)&lt;=-3,"Cold", "Mixed"))</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="42">
-        <f>SUM(C20,C25,C30,C35)</f>
-        <v>-4</v>
-      </c>
-      <c r="D36" s="32" t="str">
-        <f>IF(OR(C36=4,C36=-4),"In extreme",IF(C36=0,"In equilibrium",IF(OR(C36&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>In extreme</v>
-      </c>
-      <c r="E36" s="42">
-        <f>SUM(E20,E25,E30,E35)</f>
-        <v>-1</v>
-      </c>
-      <c r="F36" s="32" t="str">
-        <f>IF(OR(E36=4,E36=-4),"In extreme",IF(E36=0,"In equilibrium",IF(OR(E36&gt;0),"Relatively optimistic","Relatively pessimistic")))</f>
-        <v>Relatively pessimistic</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="36">
-        <f>IF(LEFT(D39,1)="H",2,IF(LEFT(D39,1)="C",0,1))</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="36">
-        <f>IF(LEFT(F39,1)="H",2,IF(LEFT(F39,1)="C",0,1))</f>
-        <v>2</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="36">
-        <f t="shared" ref="C40:E43" si="7">IF(LEFT(D40,1)="H",2,IF(LEFT(D40,1)="C",0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="31" t="str">
-        <f>IF(D7&gt;=3%, "Hot - High", IF(D7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Mixed - Dormant</v>
-      </c>
-      <c r="E40" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="31" t="str">
-        <f>IF(F7&gt;=3%, "Hot - High", IF(F7&lt;=1.5%, "Cold - Low", "Mixed - Dormant"))</f>
-        <v>Cold - Low</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="31" t="str">
-        <f>D17</f>
-        <v>Cold - Negative</v>
-      </c>
-      <c r="E41" s="36">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F41" s="31" t="str">
-        <f>F17</f>
-        <v>Hot - Positive</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="31" t="str">
-        <f>D23</f>
-        <v>Cold - High</v>
-      </c>
-      <c r="E42" s="36">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="F42" s="31" t="str">
-        <f>F23</f>
-        <v>Mixed</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="31" t="str">
-        <f>D24</f>
-        <v>Cold - Wide</v>
-      </c>
-      <c r="E43" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="31" t="str">
-        <f>F24</f>
-        <v>Cold - Wide</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="44">
-        <f>SUM(C39:C43)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="51">
-        <f>D7*(1+C44)</f>
-        <v>1.7424000000000002E-2</v>
-      </c>
-      <c r="E44" s="52">
-        <f>SUM(E39:E43)/10</f>
-        <v>0.5</v>
-      </c>
-      <c r="F44" s="51">
-        <f>F7*(1+E44)</f>
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>82</v>
+      <c r="D6" s="29">
+        <v>3.55</v>
+      </c>
+      <c r="F6" s="29">
+        <v>2.9</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3.8159999999999998</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D43 F41:F43" xr:uid="{1162B5FC-A49C-4643-AD1D-C21129BF3948}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 F19" xr:uid="{DCF9736D-3C9B-4279-B56F-4C2003DB4929}">
-      <formula1>"Hot - Minimal, Cold - Rising, Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39 F39" xr:uid="{1E460FDF-FE88-44E4-A4A8-C40EF242A498}">
-      <formula1>"Hot - Stimulative, Cold - Tightening, Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D24 F24" xr:uid="{05972E92-5CCB-4538-80C0-0E3C4DAA650C}">
-      <formula1>"Hot - Narrow,Cold - Wide,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D21 F21" xr:uid="{E29A466E-8A51-4B09-81F0-9E467356D8D5}">
-      <formula1>"Hot - Plentiful,Cold - Scarce,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D32 F32" xr:uid="{A3F1DC8E-57BA-4F25-894E-D6759F030FDF}">
-      <formula1>"Hot - Hard to gain entry,Cold - Open to anyone,Hot - 
-New ones daily,Cold - Only the best can raise money,Hot - GP hold the cards on terms,Cold - LP have bargaining power,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D16 F16" xr:uid="{D399A8E6-6D95-4A97-94AE-BF73E0CF82C3}">
-      <formula1>"Hot - Vibrant,Cold - Sluggish,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D18 F18" xr:uid="{8B23EEE0-8D29-45A7-BABD-272B21016758}">
-      <formula1>"Hot - Eager,Cold - Reticent,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D28 F28" xr:uid="{3F44EEB6-0601-492A-A711-71005020FA19}">
-      <formula1>"Hot - Optimistic,Cold - Pessimistic,Hot - Sanguine,Cold - Distressed,Hot - Eager to buy,Cold - Uninterested in buying,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D27 F27" xr:uid="{01BCA93F-C7F4-4445-82F8-F61AC8C6BEF8}">
-      <formula1>"Hot - High,Cold - Low,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D29 F29" xr:uid="{EDC56A00-C31B-4484-B8FC-6A57C3B6D758}">
-      <formula1>"Hot - Few,Cold - Many,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D34 F34" xr:uid="{4182A36E-CA23-4874-A9A3-7EBFE34FF04E}">
-      <formula1>"Hot - Aggressiveness,Cold - Caution and discipline,Hot - Broad reach,Cold - ""It's uninvestable"",Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D26 F26" xr:uid="{50DA1868-046D-4965-A766-6872EAF3DAE7}">
-      <formula1>"Hot - Happy to hold,Cold - Rushing for the exits,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D31 F31" xr:uid="{2E90ABF5-27B6-45EA-924A-726A450132AD}">
-      <formula1>"Hot - Average person joins the market,Cold - ""Worse is yet to come"",Mixed - ""Market has bottomed"""</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D33 F33" xr:uid="{CE58FBAB-05BA-429E-979A-A80495C7634A}">
-      <formula1>"Hot - Strong,Cold - Weak,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D17 F17" xr:uid="{80AB7CF9-33FA-49A2-857A-A16511DD9778}">
-      <formula1>"Hot - Positive,Cold - Negative,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D22 F22" xr:uid="{AF2B28BD-3B2E-4C4F-9341-2D3DF85E4B51}">
-      <formula1>"Hot - Easy,Cold - Restrictive,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D23 F23" xr:uid="{CB91B3B3-F107-40CA-9A38-987E11E74D07}">
-      <formula1>"Hot - Low,Cold - High,Mixed"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" sqref="F36 D36 D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" sqref="D3" xr:uid="{EA6F9DE9-1D2B-41CE-B86F-59C772E5B0CA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DC8333-D129-4989-B74B-839961074CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0492BE-2C1F-4A0A-A270-99A1C9F862FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>HK</t>
+  </si>
+  <si>
+    <t>Fast Growers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset Plays </t>
+  </si>
+  <si>
+    <t>Cyclicals</t>
+  </si>
+  <si>
+    <t>Slow Growers</t>
   </si>
 </sst>
 </file>
@@ -555,9 +567,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,16 +1040,16 @@
         <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
-        <v>-2.4660886809838273E-2</v>
+        <v>-3.3851819401207101E-2</v>
       </c>
       <c r="G5" s="6">
-        <v>4.0517241379310343E-2</v>
+        <v>4.0170940170940174E-2</v>
       </c>
       <c r="H5" s="7">
         <v>11.129157195902177</v>
@@ -1074,7 +1084,9 @@
       <c r="R5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
@@ -1084,16 +1096,16 @@
         <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>9.89</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6">
-        <v>6.6959924720443043E-3</v>
+        <v>-9.838310204330819E-3</v>
       </c>
       <c r="G6" s="6">
-        <v>5.6622851365015166E-2</v>
+        <v>5.5776892430278897E-2</v>
       </c>
       <c r="H6" s="7">
         <v>10.429776905912007</v>
@@ -1128,7 +1140,9 @@
       <c r="R6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="28"/>
+      <c r="S6" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
@@ -1138,40 +1152,40 @@
         <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>43.8</v>
+        <v>44.35</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="6">
-        <v>-0.38071109170969952</v>
+        <v>-0.38990330086972314</v>
       </c>
       <c r="G7" s="6">
-        <v>8.422999015672461E-2</v>
+        <v>8.3153566374648366E-2</v>
       </c>
       <c r="H7" s="7">
-        <v>21.393082362102046</v>
+        <v>21.384889342882879</v>
       </c>
       <c r="I7" s="7">
-        <v>38.139943462432178</v>
+        <v>38.125336811342052</v>
       </c>
       <c r="J7" s="7">
-        <v>31.504854183115157</v>
+        <v>31.49278860642778</v>
       </c>
       <c r="K7" s="7">
-        <v>28.640776530104684</v>
+        <v>28.629807824025253</v>
       </c>
       <c r="L7" s="7">
-        <v>25.203883346492127</v>
+        <v>25.194230885142225</v>
       </c>
       <c r="M7" s="7">
-        <v>28.640776530104684</v>
+        <v>28.629807824025253</v>
       </c>
       <c r="N7" s="7">
         <v>3000</v>
       </c>
       <c r="O7" s="9">
-        <v>44.050238385337359</v>
+        <v>44.056787530908295</v>
       </c>
       <c r="P7" s="8">
         <v>44651</v>
@@ -1182,7 +1196,9 @@
       <c r="R7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="28"/>
+      <c r="S7" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
@@ -1192,31 +1208,31 @@
         <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>2.3069380794082356E-2</v>
+        <v>4.5341722583206318E-2</v>
       </c>
       <c r="G8" s="6">
-        <v>2.7450980392156866E-2</v>
+        <v>2.8000000000000004E-2</v>
       </c>
       <c r="H8" s="7">
-        <v>9.5559451156208368</v>
+        <v>9.5548305729982239</v>
       </c>
       <c r="I8" s="7">
-        <v>12.321356439649353</v>
+        <v>12.319112188593667</v>
       </c>
       <c r="J8" s="7">
-        <v>11.45530768409964</v>
+        <v>11.453417225832064</v>
       </c>
       <c r="K8" s="7">
-        <v>10.413916076454218</v>
+        <v>10.412197478029148</v>
       </c>
       <c r="L8" s="7">
-        <v>9.1642461472797123</v>
+        <v>9.1627337806656506</v>
       </c>
       <c r="M8" s="7">
         <v>9.5</v>
@@ -1225,7 +1241,7 @@
         <v>6000</v>
       </c>
       <c r="O8" s="9">
-        <v>11.828122756595914</v>
+        <v>11.828743634431557</v>
       </c>
       <c r="P8" s="8">
         <v>44742</v>
@@ -1236,7 +1252,9 @@
       <c r="R8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S8" s="28"/>
+      <c r="S8" s="28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -1246,16 +1264,16 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>19.399999999999999</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6">
-        <v>-0.13981095852038475</v>
+        <v>-0.15634916896126963</v>
       </c>
       <c r="G9" s="6">
-        <v>6.9587628865979398E-2</v>
+        <v>6.8389057750759888E-2</v>
       </c>
       <c r="H9" s="7">
         <v>15.177942172348047</v>
@@ -1290,7 +1308,9 @@
       <c r="R9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="28"/>
+      <c r="S9" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
@@ -1300,31 +1320,31 @@
         <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <v>-0.31184281437199868</v>
+        <v>-0.33400886643383032</v>
       </c>
       <c r="G10" s="6">
-        <v>7.0571428571428577E-2</v>
+        <v>6.8611111111111109E-2</v>
       </c>
       <c r="H10" s="7">
-        <v>1.1292911759018582</v>
+        <v>1.1288001414719611</v>
       </c>
       <c r="I10" s="7">
-        <v>1.4849033947043617</v>
+        <v>1.4844123602744648</v>
       </c>
       <c r="J10" s="7">
-        <v>1.3792750748490024</v>
+        <v>1.3787840404191054</v>
       </c>
       <c r="K10" s="7">
-        <v>1.2538864316809111</v>
+        <v>1.2534400367446412</v>
       </c>
       <c r="L10" s="7">
-        <v>1.1034200598792019</v>
+        <v>1.1030272323352843</v>
       </c>
       <c r="M10" s="7">
         <v>1.1000000000000001</v>
@@ -1344,7 +1364,9 @@
       <c r="R10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="28"/>
+      <c r="S10" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
@@ -1354,31 +1376,31 @@
         <v>57</v>
       </c>
       <c r="D11" s="7">
-        <v>17.22</v>
+        <v>17.52</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6">
-        <v>4.2991766123109704E-2</v>
+        <v>2.2989747351651685E-2</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11" s="7">
-        <v>7.2226635952971314</v>
+        <v>7.2198974945245427</v>
       </c>
       <c r="I11" s="7">
-        <v>27.060406724369123</v>
+        <v>27.050043260674713</v>
       </c>
       <c r="J11" s="7">
-        <v>19.682318212639949</v>
+        <v>19.674780373600939</v>
       </c>
       <c r="K11" s="7">
-        <v>17.893016556945408</v>
+        <v>17.886163976000852</v>
       </c>
       <c r="L11" s="7">
-        <v>15.745854570111959</v>
+        <v>15.739824298880752</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -1387,7 +1409,7 @@
         <v>4000</v>
       </c>
       <c r="O11" s="9">
-        <v>32.909970516533505</v>
+        <v>32.903732767036438</v>
       </c>
       <c r="P11" s="8">
         <v>44561</v>
@@ -1398,7 +1420,9 @@
       <c r="R11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="28" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
@@ -1408,31 +1432,31 @@
         <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>4.1100000000000003</v>
+        <v>4.21</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.25276914666689843</v>
+        <v>-0.26032611121945548</v>
       </c>
       <c r="G12" s="6">
-        <v>4.9449643724922825E-2</v>
+        <v>4.8836089055181352E-2</v>
       </c>
       <c r="H12" s="7">
-        <v>1.6880303094017581</v>
+        <v>1.7274926506708339</v>
       </c>
       <c r="I12" s="7">
-        <v>6.4969104511932816</v>
+        <v>6.5724132852335</v>
       </c>
       <c r="J12" s="7">
-        <v>3.4821188071990479</v>
+        <v>3.5350270717660921</v>
       </c>
       <c r="K12" s="7">
-        <v>3.1655625519991344</v>
+        <v>3.2136609743328108</v>
       </c>
       <c r="L12" s="7">
-        <v>2.7856950457592382</v>
+        <v>2.8280216574128736</v>
       </c>
       <c r="M12" s="7">
         <v>2.4</v>
@@ -1441,7 +1465,7 @@
         <v>20000</v>
       </c>
       <c r="O12" s="9">
-        <v>5.5537197980657282</v>
+        <v>5.6205259760239548</v>
       </c>
       <c r="P12" s="8">
         <v>44561</v>
@@ -1452,7 +1476,9 @@
       <c r="R12" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="28"/>
+      <c r="S12" s="28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
@@ -1462,31 +1488,31 @@
         <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-1.9596390754508836E-2</v>
+        <v>-2.4027815244986123E-2</v>
       </c>
       <c r="G13" s="6">
-        <v>5.2983855596097584E-2</v>
+        <v>5.2779197201807043E-2</v>
       </c>
       <c r="H13" s="7">
-        <v>2.9745483042866798</v>
+        <v>3.007598354623974</v>
       </c>
       <c r="I13" s="7">
-        <v>8.3630583045042393</v>
+        <v>8.4587300854820953</v>
       </c>
       <c r="J13" s="7">
-        <v>6.2555368975313934</v>
+        <v>6.326716446359482</v>
       </c>
       <c r="K13" s="7">
-        <v>5.6868517250285393</v>
+        <v>5.7515604057813468</v>
       </c>
       <c r="L13" s="7">
-        <v>5.0044295180251144</v>
+        <v>5.0613731570875853</v>
       </c>
       <c r="M13" s="7">
         <v>4.8</v>
@@ -1495,7 +1521,7 @@
         <v>8000</v>
       </c>
       <c r="O13" s="9">
-        <v>7.1487507635842036</v>
+        <v>7.2326703186240184</v>
       </c>
       <c r="P13" s="8">
         <v>44561</v>
@@ -1506,7 +1532,9 @@
       <c r="R13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="28"/>
+      <c r="S13" s="28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
@@ -1516,31 +1544,31 @@
         <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="6">
-        <v>0.12206854873404213</v>
+        <v>8.7378569503422682E-2</v>
       </c>
       <c r="G14" s="6">
-        <v>1.1158166666400236E-2</v>
+        <v>1.0841427830178489E-2</v>
       </c>
       <c r="H14" s="7">
-        <v>1.9483303871937554</v>
+        <v>1.970972605673585</v>
       </c>
       <c r="I14" s="7">
-        <v>2.2296482660346575</v>
+        <v>2.2555597764769106</v>
       </c>
       <c r="J14" s="7">
-        <v>2.0775165328478717</v>
+        <v>2.101660068021058</v>
       </c>
       <c r="K14" s="7">
-        <v>1.8886513934980651</v>
+        <v>1.9106000618373253</v>
       </c>
       <c r="L14" s="7">
-        <v>1.6620132262782974</v>
+        <v>1.6813280544168463</v>
       </c>
       <c r="M14" s="7">
         <v>1.6</v>
@@ -1549,7 +1577,7 @@
         <v>22000</v>
       </c>
       <c r="O14" s="9">
-        <v>2.0278062216275172</v>
+        <v>2.0514668160851408</v>
       </c>
       <c r="P14" s="8">
         <v>44561</v>
@@ -1560,7 +1588,9 @@
       <c r="R14" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="28"/>
+      <c r="S14" s="28" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -7538,7 +7568,7 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7609,14 +7639,16 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="29">
-        <v>3.55</v>
-      </c>
-      <c r="F6" s="29">
-        <v>2.9</v>
-      </c>
+      <c r="D6" s="20">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="20">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="G6" s="29"/>
       <c r="H6" s="20">
-        <v>3.8159999999999998</v>
+        <v>3.8159999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/financial_models/Opportunities/Monitor/Monitor.xlsx
+++ b/financial_models/Opportunities/Monitor/Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0492BE-2C1F-4A0A-A270-99A1C9F862FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29E42228-926E-4605-9F02-ABE420773D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Opportunities Monitor</t>
   </si>
@@ -152,66 +152,6 @@
   </si>
   <si>
     <t>Next Buy Shares</t>
-  </si>
-  <si>
-    <t>6601.HK</t>
-  </si>
-  <si>
-    <t>CHEERWIN GP</t>
-  </si>
-  <si>
-    <t>0071.HK</t>
-  </si>
-  <si>
-    <t>MIRAMAR HOTEL</t>
-  </si>
-  <si>
-    <t>0083.HK</t>
-  </si>
-  <si>
-    <t>SINO LAND</t>
-  </si>
-  <si>
-    <t>0303.HK</t>
-  </si>
-  <si>
-    <t>VTECH HOLDINGS</t>
-  </si>
-  <si>
-    <t>0411.HK</t>
-  </si>
-  <si>
-    <t>LAM SOON (HK)</t>
-  </si>
-  <si>
-    <t>0683.HK</t>
-  </si>
-  <si>
-    <t>KERRY PPT</t>
-  </si>
-  <si>
-    <t>0697.HK</t>
-  </si>
-  <si>
-    <t>SHOUCHENG</t>
-  </si>
-  <si>
-    <t>0981.HK</t>
-  </si>
-  <si>
-    <t>SMIC</t>
-  </si>
-  <si>
-    <t>1766.HK</t>
-  </si>
-  <si>
-    <t>CRRC</t>
-  </si>
-  <si>
-    <t>6186.HK</t>
-  </si>
-  <si>
-    <t>CHINA FEIHE</t>
   </si>
   <si>
     <t>Category</t>
@@ -1029,49 +969,23 @@
         <v>3</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11.7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6">
-        <v>-3.3851819401207101E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4.0170940170940174E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11.129157195902177</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13.228473799887135</v>
-      </c>
-      <c r="J5" s="7">
-        <v>12.473933713005875</v>
-      </c>
-      <c r="K5" s="7">
-        <v>11.33993973909625</v>
-      </c>
-      <c r="L5" s="7">
-        <v>9.9791469704047007</v>
-      </c>
-      <c r="M5" s="7">
-        <v>11</v>
-      </c>
-      <c r="N5" s="7">
-        <v>9000</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="9">
         <v>13.597424398249455</v>
       </c>
@@ -1085,49 +999,23 @@
         <v>11</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-9.838310204330819E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5.5776892430278897E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>10.429776905912007</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11.339169963600042</v>
-      </c>
-      <c r="J6" s="7">
-        <v>10.945223365548518</v>
-      </c>
-      <c r="K6" s="7">
-        <v>9.9502030595895619</v>
-      </c>
-      <c r="L6" s="7">
-        <v>8.7561786924388141</v>
-      </c>
-      <c r="M6" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="N6" s="7">
-        <v>6000</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="9">
         <v>12.347246296726411</v>
       </c>
@@ -1141,49 +1029,23 @@
         <v>11</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7">
-        <v>44.35</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6">
-        <v>-0.38990330086972314</v>
-      </c>
-      <c r="G7" s="6">
-        <v>8.3153566374648366E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>21.384889342882879</v>
-      </c>
-      <c r="I7" s="7">
-        <v>38.125336811342052</v>
-      </c>
-      <c r="J7" s="7">
-        <v>31.49278860642778</v>
-      </c>
-      <c r="K7" s="7">
-        <v>28.629807824025253</v>
-      </c>
-      <c r="L7" s="7">
-        <v>25.194230885142225</v>
-      </c>
-      <c r="M7" s="7">
-        <v>28.629807824025253</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3000</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="9">
         <v>44.056787530908295</v>
       </c>
@@ -1197,49 +1059,23 @@
         <v>11</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4.5341722583206318E-2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2.8000000000000004E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>9.5548305729982239</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12.319112188593667</v>
-      </c>
-      <c r="J8" s="7">
-        <v>11.453417225832064</v>
-      </c>
-      <c r="K8" s="7">
-        <v>10.412197478029148</v>
-      </c>
-      <c r="L8" s="7">
-        <v>9.1627337806656506</v>
-      </c>
-      <c r="M8" s="7">
-        <v>9.5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6000</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="9">
         <v>11.828743634431557</v>
       </c>
@@ -1253,49 +1089,23 @@
         <v>11</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="7">
-        <v>19.739999999999998</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6">
-        <v>-0.15634916896126963</v>
-      </c>
-      <c r="G9" s="6">
-        <v>6.8389057750759888E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15.177942172348047</v>
-      </c>
-      <c r="I9" s="7">
-        <v>20.816330621780622</v>
-      </c>
-      <c r="J9" s="7">
-        <v>18.627667404704535</v>
-      </c>
-      <c r="K9" s="7">
-        <v>16.934243095185941</v>
-      </c>
-      <c r="L9" s="7">
-        <v>14.902133923763628</v>
-      </c>
-      <c r="M9" s="7">
-        <v>15</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4000</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="9">
         <v>19</v>
       </c>
@@ -1309,49 +1119,23 @@
         <v>11</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6">
-        <v>-0.33400886643383032</v>
-      </c>
-      <c r="G10" s="6">
-        <v>6.8611111111111109E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1.1288001414719611</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.4844123602744648</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1.3787840404191054</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.2534400367446412</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1.1030272323352843</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N10" s="7">
-        <v>60000</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="9">
         <v>1.9</v>
       </c>
@@ -1365,49 +1149,23 @@
         <v>11</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7">
-        <v>17.52</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2.2989747351651685E-2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7.2198974945245427</v>
-      </c>
-      <c r="I11" s="7">
-        <v>27.050043260674713</v>
-      </c>
-      <c r="J11" s="7">
-        <v>19.674780373600939</v>
-      </c>
-      <c r="K11" s="7">
-        <v>17.886163976000852</v>
-      </c>
-      <c r="L11" s="7">
-        <v>15.739824298880752</v>
-      </c>
-      <c r="M11" s="7">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4000</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="9">
         <v>32.903732767036438</v>
       </c>
@@ -1421,49 +1179,23 @@
         <v>11</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4.21</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6">
-        <v>-0.26032611121945548</v>
-      </c>
-      <c r="G12" s="6">
-        <v>4.8836089055181352E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1.7274926506708339</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6.5724132852335</v>
-      </c>
-      <c r="J12" s="7">
-        <v>3.5350270717660921</v>
-      </c>
-      <c r="K12" s="7">
-        <v>3.2136609743328108</v>
-      </c>
-      <c r="L12" s="7">
-        <v>2.8280216574128736</v>
-      </c>
-      <c r="M12" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="N12" s="7">
-        <v>20000</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
       <c r="O12" s="9">
         <v>5.6205259760239548</v>
       </c>
@@ -1477,49 +1209,23 @@
         <v>11</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="7">
-        <v>5.88</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6">
-        <v>-2.4027815244986123E-2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>5.2779197201807043E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3.007598354623974</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8.4587300854820953</v>
-      </c>
-      <c r="J13" s="7">
-        <v>6.326716446359482</v>
-      </c>
-      <c r="K13" s="7">
-        <v>5.7515604057813468</v>
-      </c>
-      <c r="L13" s="7">
-        <v>5.0613731570875853</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8000</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="9">
         <v>7.2326703186240184</v>
       </c>
@@ -1533,49 +1239,23 @@
         <v>11</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>8.7378569503422682E-2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.0841427830178489E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1.970972605673585</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2.2555597764769106</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2.101660068021058</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1.9106000618373253</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1.6813280544168463</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>22000</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="9">
         <v>2.0514668160851408</v>
       </c>
@@ -1589,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -7597,7 +7277,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
